--- a/backend/output_timetables/sem5_DSAI_timetable.xlsx
+++ b/backend/output_timetables/sem5_DSAI_timetable.xlsx
@@ -472,22 +472,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>DS302</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>DS302</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>CS307</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>DS302</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -509,22 +509,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DS302</t>
+          <t>DS303</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>DS303</t>
         </is>
       </c>
     </row>
@@ -568,22 +568,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>DS302</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>DS303</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Free</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -600,17 +600,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>DS303 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>DS302 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Free</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -684,7 +684,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>DS303 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -742,19 +742,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>DS302</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>DS302</t>
-        </is>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>Free</t>
@@ -762,7 +762,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS307</t>
         </is>
       </c>
     </row>
@@ -779,7 +779,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DS302</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -789,7 +789,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>DS302</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -843,22 +843,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DS303</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>DS303</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>DS303</t>
+          <t>DS302</t>
         </is>
       </c>
     </row>
@@ -880,7 +880,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -890,7 +890,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>DS303 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -902,27 +902,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>DS302</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>DS303</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>CS307</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>DS303</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Free</t>
         </is>
       </c>
     </row>
@@ -939,12 +939,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DS303 (Tutorial)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DS302 (Tutorial)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">

--- a/backend/output_timetables/sem5_DSAI_timetable.xlsx
+++ b/backend/output_timetables/sem5_DSAI_timetable.xlsx
@@ -477,7 +477,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DS302</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -487,7 +487,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -504,27 +504,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>DS302</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>DS303</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>CS307</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Free</t>
         </is>
       </c>
     </row>
@@ -573,17 +573,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>DS303</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>DS302</t>
-        </is>
-      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>DS303</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -600,22 +600,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>DS302 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>DS303 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>DS302 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Free</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -632,27 +632,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>DS303</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>CS307</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>DS302</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>CS307</t>
         </is>
       </c>
     </row>
@@ -742,27 +742,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DS302</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>CS307</t>
         </is>
       </c>
     </row>
@@ -774,22 +774,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>DS302</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>CS307</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -838,27 +838,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>DS303</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>DS302</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>DS303</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>DS303</t>
-        </is>
-      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>DS302</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -875,17 +875,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>DS303 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DS302 (Tutorial)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -902,27 +902,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>DS303</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>DS303</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>DS302</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>DS303</t>
         </is>
       </c>
     </row>
@@ -939,12 +939,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DS303 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -969,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1023,26 +1023,31 @@
           <t>Instructor</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Department</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CS309</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Statistics for CS</t>
+          <t>Parallel computing</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -1061,34 +1066,39 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Sunil C K, Pavan</t>
+          <t>Pramod</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>CSE</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CS303</t>
+          <t>CS308</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Computer Networks</t>
+          <t>Compiler Design</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3-1-2-0-5</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -1098,33 +1108,38 @@
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Animesh Roy, Dibyajyothi</t>
+          <t>Pavan Kumar</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>CSE</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CS304</t>
+          <t>DS301</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Artificial Intelligence</t>
+          <t>Graphs and Social Networks</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1143,60 +1158,70 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Krishendu, Girish</t>
+          <t>Utkarsh K</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>CSE</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HS101</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Environmental Studies</t>
+          <t>Advanced Algorithms</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0-0-0-8-2</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Suvadip</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>CSE</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Parallel computing</t>
+          <t>Full Stack Development</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1225,19 +1250,24 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Pramod</t>
+          <t>Manjunath K V</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>CSE</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Compiler Design</t>
+          <t>Internet of Things</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1266,19 +1296,24 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Pavan Kumar</t>
+          <t>Prakash Pawar</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>CSE</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>EC364</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Graphs and Social Networks</t>
+          <t>Semiconductor Devices</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1307,19 +1342,24 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Utkarsh K</t>
+          <t>Pankaj Kumar</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>CSE</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>CS352</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Advanced Algorithms</t>
+          <t>Cryptography &amp; Security</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1348,19 +1388,24 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Suvadip</t>
+          <t>Rajendra Hegadi</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>CSE</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Full Stack Development</t>
+          <t>User Interaction</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1389,19 +1434,24 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Manjunath K V</t>
+          <t>Sandesh P</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>CSE</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>EC365</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Internet of Things</t>
+          <t>AI in Biomedical Engineering</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1430,34 +1480,39 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Prakash Pawar</t>
+          <t>Sibasankar Padhy</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>CSE</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>DS302</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Semiconductor Devices</t>
+          <t>Computer Communication</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Elective</t>
+          <t>Core</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Common for All Branches</t>
+          <t>Department: DSAI</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3-1-2-0-5</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -1467,33 +1522,38 @@
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Pankaj Kumar</t>
+          <t>Shirshendu Layek</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>DS303</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Cryptography &amp; Security</t>
+          <t>Algorithms and Data Structures</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Elective</t>
+          <t>Core</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Common for All Branches</t>
+          <t>Department: DSAI</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1512,60 +1572,70 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Rajendra Hegadi</t>
+          <t>Animesh Chaturvedi</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>User Interaction</t>
+          <t>Machine Learning</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Elective</t>
+          <t>Core</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Common for All Branches</t>
+          <t>Department: DSAI</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3-0-2-0-4</t>
         </is>
       </c>
       <c r="F14" t="n">
         <v>3</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>4</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Sandesh P</t>
+          <t>Siddharth</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>AI in Biomedical Engineering</t>
+          <t>Parallel computing</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1594,34 +1664,39 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Sibasankar Padhy</t>
+          <t>Pramod</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DS302</t>
+          <t>CS308</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Computer Communication</t>
+          <t>Compiler Design</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3-1-2-0-5</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -1631,33 +1706,38 @@
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Shirshendu Layek</t>
+          <t>Pavan Kumar</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DS303</t>
+          <t>DS301</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Algorithms and Data Structures</t>
+          <t>Graphs and Social Networks</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1676,60 +1756,70 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Animesh Chaturvedi</t>
+          <t>Utkarsh K</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Machine Learning</t>
+          <t>Advanced Algorithms</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3-0-2-0-4</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="F18" t="n">
         <v>3</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
         <v>4</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Siddharth</t>
+          <t>Suvadip</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Parallel computing</t>
+          <t>Full Stack Development</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1758,19 +1848,24 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Pramod</t>
+          <t>Manjunath K V</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Compiler Design</t>
+          <t>Internet of Things</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1799,19 +1894,24 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Pavan Kumar</t>
+          <t>Prakash Pawar</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>EC364</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Graphs and Social Networks</t>
+          <t>Semiconductor Devices</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1840,19 +1940,24 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Utkarsh K</t>
+          <t>Pankaj Kumar</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>CS352</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Advanced Algorithms</t>
+          <t>Cryptography &amp; Security</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1881,19 +1986,24 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Suvadip</t>
+          <t>Rajendra Hegadi</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Full Stack Development</t>
+          <t>User Interaction</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1922,19 +2032,24 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Manjunath K V</t>
+          <t>Sandesh P</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>EC365</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Internet of Things</t>
+          <t>AI in Biomedical Engineering</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1963,19 +2078,24 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Prakash Pawar</t>
+          <t>Sibasankar Padhy</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>DSAI</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>HS301</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Semiconductor Devices</t>
+          <t>HSS/IE</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1990,33 +2110,38 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="F25" t="n">
         <v>3</v>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Pankaj Kumar</t>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>ECE</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>EC251</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Cryptography &amp; Security</t>
+          <t>Electronics Systems</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2031,33 +2156,38 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Rajendra Hegadi</t>
+          <t>Pankaj</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ECE</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>EC252</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>User Interaction</t>
+          <t>Introduction of Communication</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2072,33 +2202,38 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Sandesh P</t>
+          <t>Rajesh Kumar</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ECE</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>EC253</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>AI in Biomedical Engineering</t>
+          <t>Introduction to AI</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2113,33 +2248,38 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>2-0-2-4-2</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
           <t>Sibasankar Padhy</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ECE</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>HS301</t>
+          <t>EC254</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>HSS/IE</t>
+          <t>Electronic Systems</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2154,134 +2294,149 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>3-0-0-0-3</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Mallikarjun Kande</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ECE</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>EC303</t>
+          <t>CS162</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Random Processes</t>
+          <t>Data Science with Python</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>3-1-0-0-2</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>2</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Chinmayananda A</t>
+          <t>Abdul Wahid</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>ECE</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>EC304</t>
+          <t>DE352</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Signals &amp; Systems</t>
+          <t>User Interaction (Minor)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2-1-0-0-3</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Somen B</t>
+          <t>Sandesh P</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ECE</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>EC264</t>
+          <t>CS251</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Semiconductor Devices</t>
+          <t>2D Computer Graphics</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Core</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Branch: General</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>3-0-2-0-2</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -2291,376 +2446,12 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Pankaj Kumar</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>EC262</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Analog Electronics</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Core</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Branch: General</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>3-0-2-0-2</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>3</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>2</v>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>Rajesh Kumar</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>CS307</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Machine Learning</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Core</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Branch: General</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>3-1-0-0-4</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>3</v>
-      </c>
-      <c r="G34" t="n">
-        <v>1</v>
-      </c>
-      <c r="H34" t="n">
-        <v>4</v>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>Deepak K T</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>EC251</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Electronics Systems</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Elective</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Common for All Branches</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>2</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>2</v>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>Pankaj</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>EC252</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Introduction of Communication</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Elective</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Common for All Branches</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>2</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>2</v>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>Rajesh Kumar</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>EC253</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Introduction to AI</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Elective</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Common for All Branches</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>2-0-2-4-2</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>2</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>2</v>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>Sibasankar Padhy</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>EC254</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Electronic Systems</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Elective</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Common for All Branches</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>2</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>2</v>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>Mallikarjun Kande</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>CS162</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Data Science with Python</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Elective</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Common for All Branches</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>2</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>2</v>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>Abdul Wahid</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>DE352</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>User Interaction (Minor)</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Elective</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Common for All Branches</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>3-1-0-0-4</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>3</v>
-      </c>
-      <c r="G40" t="n">
-        <v>1</v>
-      </c>
-      <c r="H40" t="n">
-        <v>4</v>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>Sandesh P</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>CS251</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>2D Computer Graphics</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Elective</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Common for All Branches</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>2</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>2</v>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
           <t>Vivekraj</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ECE</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem5_DSAI_timetable.xlsx
+++ b/backend/output_timetables/sem5_DSAI_timetable.xlsx
@@ -472,7 +472,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DS302</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -482,7 +482,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DS303</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -504,27 +504,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>DS303</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>DS302</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>DS302</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>DS303</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>DS303</t>
         </is>
       </c>
     </row>
@@ -573,7 +573,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DS303</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -588,7 +588,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DS302</t>
         </is>
       </c>
     </row>
@@ -600,7 +600,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -615,12 +615,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>DS303 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Free</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>DS303</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -652,7 +652,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS307</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DS302 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -747,22 +747,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>DS303</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>CS307</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>CS307</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Free</t>
         </is>
       </c>
     </row>
@@ -779,7 +779,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DS302</t>
+          <t>DS303</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -794,7 +794,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DS303</t>
         </is>
       </c>
     </row>
@@ -838,27 +838,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DS303</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>DS302</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DS302</t>
         </is>
       </c>
     </row>
@@ -875,22 +875,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>DS303 (Tutorial)</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>DS302 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Free</t>
         </is>
       </c>
     </row>
@@ -902,17 +902,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>DS302</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>DS303</t>
-        </is>
-      </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>DS303</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -922,7 +922,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>DS302</t>
+          <t>Free</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem5_DSAI_timetable.xlsx
+++ b/backend/output_timetables/sem5_DSAI_timetable.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Section_A" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Section_B" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Course_Summary" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Elective_Coordination" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Branch_Info" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -469,19 +472,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>DS303</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>CS307</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>DS302</t>
-        </is>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>CS307</t>
@@ -489,7 +492,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DS303</t>
         </is>
       </c>
     </row>
@@ -506,7 +509,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DS303</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -565,27 +568,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>DS302</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>DS302</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>DS303</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>DS302</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>CS307</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>DS303</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>DS302</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>DS303</t>
         </is>
       </c>
     </row>
@@ -597,7 +600,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -629,12 +632,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DS302</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -676,7 +679,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DS302 (Tutorial)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -739,12 +742,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DS303</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DS302</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -840,22 +843,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>DS303</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>DS303</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>CS307</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>DS303</t>
         </is>
       </c>
     </row>
@@ -872,7 +875,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -899,22 +902,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>DS303</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>DS303</t>
-        </is>
-      </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>DS302</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -931,27 +934,3482 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>DS303 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>DS302 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Course Type</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Branch Specificity</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>LTPSC</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Lectures/Week</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorials/Week</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Total Credits</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Instructor</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Department</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Parallel computing</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Pramod</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Compiler Design</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Pavan Kumar</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Graphs and Social Networks</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>3</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Utkarsh K</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Advanced Algorithms</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Suvadip</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Full Stack Development</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Manjunath K V</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Internet of Things</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>3</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Prakash Pawar</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Semiconductor Devices</t>
+        </is>
+      </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Elective</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Common for All Branches</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>DS303 (Tutorial)</t>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>3</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Pankaj Kumar</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cryptography &amp; Security</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>3</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Rajendra Hegadi</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>User Interaction</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Sandesh P</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>AI in Biomedical Engineering</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>3</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Sibasankar Padhy</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>DS302</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Computer Communication</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Department: DSAI</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>3-1-2-0-5</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>3</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Shirshendu Layek</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>DS303</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Algorithms and Data Structures</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Department: DSAI</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Animesh Chaturvedi</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Machine Learning</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Core</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Department: DSAI</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>3-0-2-0-4</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>3</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Siddharth</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Parallel computing</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>3</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Pramod</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Compiler Design</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>3</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Pavan Kumar</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Graphs and Social Networks</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>3</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Utkarsh K</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Advanced Algorithms</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>3</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Suvadip</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Full Stack Development</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>3</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Manjunath K V</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Internet of Things</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>3</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Prakash Pawar</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Semiconductor Devices</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>3</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Pankaj Kumar</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Cryptography &amp; Security</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>3</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Rajendra Hegadi</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>User Interaction</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>3</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Sandesh P</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>AI in Biomedical Engineering</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>3</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Sibasankar Padhy</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>HS301</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>HSS/IE</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>3</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Electronics Systems</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>2</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Pankaj</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Introduction of Communication</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>2</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Rajesh Kumar</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>EC253</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Introduction to AI</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2-0-2-4-2</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>2</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Sibasankar Padhy</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Electronic Systems</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>2</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Mallikarjun Kande</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>CS162</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Data Science with Python</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>2</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Abdul Wahid</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>DE352</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>User Interaction (Minor)</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>3</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Sandesh P</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2D Computer Graphics</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Common for All Branches</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>2</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Vivekraj</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ECE</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Elective Course</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Session Type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Duration</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Sections</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Branches</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Semester 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Semester 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Semester 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Semester 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Semester 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Semester 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Semester 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Semester 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Semester 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Semester 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>HS301</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Semester 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Semester 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Semester 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>EC253</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Semester 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Semester 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>CS162</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Semester 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>DE352</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Semester 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Not Scheduled</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Semester 5</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Course Type</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Department</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>LTPSC</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Credits</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Instructor</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Department-Specific Core</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>DS302</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Computer Communication</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>3-1-2-0-5</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>5</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Shirshendu Layek</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Department-Specific Core</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>DS303</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Algorithms and Data Structures</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Animesh Chaturvedi</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Department-Specific Core</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Machine Learning</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>3-0-2-0-4</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>4</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Siddharth</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Parallel computing</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Pramod</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Compiler Design</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Pavan Kumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Graphs and Social Networks</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>4</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Utkarsh K</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Advanced Algorithms</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>4</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Suvadip</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Full Stack Development</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>4</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Manjunath K V</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Internet of Things</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>4</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Prakash Pawar</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Semiconductor Devices</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>4</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Pankaj Kumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Cryptography &amp; Security</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>4</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Rajendra Hegadi</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>User Interaction</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>4</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Sandesh P</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>AI in Biomedical Engineering</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>4</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Sibasankar Padhy</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Parallel computing</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>4</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Pramod</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Compiler Design</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>4</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Pavan Kumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Graphs and Social Networks</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>4</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Utkarsh K</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Advanced Algorithms</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>4</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Suvadip</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Full Stack Development</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>4</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Manjunath K V</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Internet of Things</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>4</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Prakash Pawar</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Semiconductor Devices</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>4</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Pankaj Kumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Cryptography &amp; Security</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>4</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Rajendra Hegadi</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>User Interaction</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>4</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Sandesh P</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>AI in Biomedical Engineering</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>4</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Sibasankar Padhy</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>HS301</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>HSS/IE</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>3</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>EC251</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Electronics Systems</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>2</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Pankaj</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>EC252</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Introduction of Communication</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>2</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Rajesh Kumar</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>EC253</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Introduction to AI</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2-0-2-4-2</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>2</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Sibasankar Padhy</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>EC254</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Electronic Systems</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>2</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Mallikarjun Kande</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>CS162</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Data Science with Python</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>2</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Abdul Wahid</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>DE352</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>User Interaction (Minor)</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>4</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Sandesh P</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Common Elective</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>CS251</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2D Computer Graphics</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>ALL (Common)</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>2</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Vivekraj</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem5_DSAI_timetable.xlsx
+++ b/backend/output_timetables/sem5_DSAI_timetable.xlsx
@@ -469,17 +469,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DS302</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>DS302</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -489,7 +489,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>DS302</t>
+          <t>DS303</t>
         </is>
       </c>
     </row>
@@ -506,17 +506,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>DS303</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>DS303</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -565,7 +565,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DS303</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,17 +575,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DS302</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>DS303</t>
+          <t>DS302</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>DS302</t>
         </is>
       </c>
     </row>
@@ -597,12 +597,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS307 (Tutorial)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DS302 (Tutorial)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS307</t>
         </is>
       </c>
     </row>
@@ -661,17 +661,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DS303 (Tutorial)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>DS303 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -739,27 +739,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DS303</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DS303</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DS303</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>DS302</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -776,12 +776,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DS303</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -791,7 +791,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DS302</t>
         </is>
       </c>
     </row>
@@ -850,7 +850,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>DS303</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS307 (Tutorial)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -877,7 +877,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>DS303 (Tutorial)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -887,7 +887,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial)</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -904,22 +904,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>DS302</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>CS307</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>DS303</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>DS302</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -946,7 +946,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>DS303 (Tutorial)</t>
+          <t>DS302 (Tutorial)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">

--- a/backend/output_timetables/sem5_DSAI_timetable.xlsx
+++ b/backend/output_timetables/sem5_DSAI_timetable.xlsx
@@ -59,7 +59,7 @@
       <sz val="13"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="24">
     <fill>
       <patternFill/>
     </fill>
@@ -116,14 +116,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0084e0b2"/>
-        <bgColor rgb="0084e0b2"/>
+        <fgColor rgb="0096CEB4"/>
+        <bgColor rgb="0096CEB4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00c5e084"/>
-        <bgColor rgb="00c5e084"/>
+        <fgColor rgb="00FECA57"/>
+        <bgColor rgb="00FECA57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0084e0b2"/>
+        <bgColor rgb="0084e0b2"/>
       </patternFill>
     </fill>
     <fill>
@@ -142,6 +148,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00d8e084"/>
         <bgColor rgb="00d8e084"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00c5e084"/>
+        <bgColor rgb="00c5e084"/>
       </patternFill>
     </fill>
     <fill>
@@ -219,18 +231,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -306,6 +318,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1130,7 +1148,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1144,6 +1162,7 @@
     <col width="48" customWidth="1" min="4" max="4"/>
     <col width="29" customWidth="1" min="5" max="5"/>
     <col width="22" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1177,6 +1196,7 @@
           <t>Fri</t>
         </is>
       </c>
+      <c r="G1" s="6" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="7" t="inlineStr">
@@ -1209,6 +1229,7 @@
           <t>MINOR: DSAI [C101]</t>
         </is>
       </c>
+      <c r="G2" s="8" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="7" t="inlineStr">
@@ -1241,6 +1262,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G3" s="8" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="7" t="inlineStr">
@@ -1273,6 +1295,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G4" s="8" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="7" t="inlineStr">
@@ -1305,6 +1328,7 @@
           <t>LUNCH BREAK</t>
         </is>
       </c>
+      <c r="G5" s="8" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="7" t="inlineStr">
@@ -1319,10 +1343,7 @@
       </c>
       <c r="C6" s="13" t="inlineStr">
         <is>
-          <t>CS463 [C202]
-CS308 [C203]
-DS301 [C204]
-CS366 [C205]</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="D6" s="8" t="inlineStr">
@@ -1332,10 +1353,7 @@
       </c>
       <c r="E6" s="13" t="inlineStr">
         <is>
-          <t>CS463 [C202]
-CS308 [C203]
-DS301 [C204]
-CS366 [C205]</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="F6" s="8" t="inlineStr">
@@ -1343,6 +1361,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G6" s="8" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="7" t="inlineStr">
@@ -1362,20 +1381,12 @@
       </c>
       <c r="D7" s="13" t="inlineStr">
         <is>
-          <t>CS463 (Tutorial) [C202]
-CS308 (Tutorial) [C203]
-DS301 (Tutorial) [C204]
-CS366 (Tutorial) [C205]</t>
+          <t>ELECTIVE_B4 (Tutorial)</t>
         </is>
       </c>
       <c r="E7" s="14" t="inlineStr">
         <is>
-          <t>DS359 (Tutorial) [C202]
-EC355 (Tutorial) [C203]
-EC364 (Tutorial) [C204]
-CS352 (Tutorial) [C205]
-ASD352 (Tutorial) [C303]
-EC365 (Tutorial) [C302]</t>
+          <t>ELECTIVE_B5 (Tutorial)</t>
         </is>
       </c>
       <c r="F7" s="8" t="inlineStr">
@@ -1383,6 +1394,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G7" s="8" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="7" t="inlineStr">
@@ -1392,27 +1404,17 @@
       </c>
       <c r="B8" s="14" t="inlineStr">
         <is>
-          <t>DS359 [C202]
-EC355 [C203]
-EC364 [C204]
-CS352 [C205]
-ASD352 [C303]
-EC365 [C302]</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="C8" s="9" t="inlineStr">
         <is>
-          <t>DS302 (Lab) [L107]</t>
+          <t>DS302 (Lab) [L207]</t>
         </is>
       </c>
       <c r="D8" s="14" t="inlineStr">
         <is>
-          <t>DS359 [C202]
-EC355 [C203]
-EC364 [C204]
-CS352 [C205]
-ASD352 [C303]
-EC365 [C302]</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="E8" s="10" t="inlineStr">
@@ -1425,6 +1427,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G8" s="8" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
@@ -1439,7 +1442,7 @@
       </c>
       <c r="C9" s="9" t="inlineStr">
         <is>
-          <t>DS302 (Lab) [L107]</t>
+          <t>DS302 (Lab) [L207]</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
@@ -1457,6 +1460,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G9" s="8" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
@@ -1489,6 +1493,7 @@
           <t>MINOR: Design [C101]</t>
         </is>
       </c>
+      <c r="G10" s="8" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="7" t="n"/>
@@ -1497,6 +1502,7 @@
       <c r="D11" s="8" t="n"/>
       <c r="E11" s="8" t="n"/>
       <c r="F11" s="8" t="n"/>
+      <c r="G11" s="8" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="7" t="n"/>
@@ -1505,6 +1511,7 @@
       <c r="D12" s="8" t="n"/>
       <c r="E12" s="8" t="n"/>
       <c r="F12" s="8" t="n"/>
+      <c r="G12" s="8" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="15" t="inlineStr">
@@ -1517,6 +1524,7 @@
       <c r="D13" s="8" t="n"/>
       <c r="E13" s="8" t="n"/>
       <c r="F13" s="8" t="n"/>
+      <c r="G13" s="8" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="16" t="inlineStr">
@@ -1529,6 +1537,7 @@
       <c r="D14" s="8" t="n"/>
       <c r="E14" s="8" t="n"/>
       <c r="F14" s="8" t="n"/>
+      <c r="G14" s="8" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="17" t="inlineStr">
@@ -1551,8 +1560,21 @@
           <t>Term Type</t>
         </is>
       </c>
-      <c r="E15" s="8" t="n"/>
-      <c r="F15" s="8" t="n"/>
+      <c r="E15" s="18" t="inlineStr">
+        <is>
+          <t>Lectures Hrs</t>
+        </is>
+      </c>
+      <c r="F15" s="18" t="inlineStr">
+        <is>
+          <t>Tutorials Hrs</t>
+        </is>
+      </c>
+      <c r="G15" s="18" t="inlineStr">
+        <is>
+          <t>Labs Hrs</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="19" t="inlineStr">
@@ -1575,8 +1597,21 @@
           <t>Full Sem</t>
         </is>
       </c>
-      <c r="E16" s="8" t="n"/>
-      <c r="F16" s="8" t="n"/>
+      <c r="E16" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F16" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G16" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="20" t="inlineStr">
@@ -1599,8 +1634,21 @@
           <t>Full Sem</t>
         </is>
       </c>
-      <c r="E17" s="8" t="n"/>
-      <c r="F17" s="8" t="n"/>
+      <c r="E17" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F17" s="8" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="G17" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="21" t="inlineStr">
@@ -1623,8 +1671,21 @@
           <t>Full Sem</t>
         </is>
       </c>
-      <c r="E18" s="8" t="n"/>
-      <c r="F18" s="8" t="n"/>
+      <c r="E18" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F18" s="8" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="G18" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="n"/>
@@ -1633,6 +1694,7 @@
       <c r="D19" s="8" t="n"/>
       <c r="E19" s="8" t="n"/>
       <c r="F19" s="8" t="n"/>
+      <c r="G19" s="8" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="16" t="inlineStr">
@@ -1645,6 +1707,7 @@
       <c r="D20" s="8" t="n"/>
       <c r="E20" s="8" t="n"/>
       <c r="F20" s="8" t="n"/>
+      <c r="G20" s="8" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="17" t="inlineStr">
@@ -1677,6 +1740,7 @@
           <t>L-T-P-S-C</t>
         </is>
       </c>
+      <c r="G21" s="8" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="7" t="inlineStr">
@@ -1689,14 +1753,14 @@
           <t>Parallel computing</t>
         </is>
       </c>
-      <c r="C22" s="13" t="inlineStr">
+      <c r="C22" s="22" t="inlineStr">
         <is>
           <t>CS463</t>
         </is>
       </c>
       <c r="D22" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C202], Thu 13:00-14:30 [C202]</t>
+          <t>Tue 13:00-14:30 [L407], Thu 13:00-14:30 [L407]</t>
         </is>
       </c>
       <c r="E22" s="8" t="inlineStr">
@@ -1709,6 +1773,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G22" s="8" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="7" t="inlineStr">
@@ -1721,14 +1786,14 @@
           <t>Compiler Design</t>
         </is>
       </c>
-      <c r="C23" s="22" t="inlineStr">
+      <c r="C23" s="23" t="inlineStr">
         <is>
           <t>CS308</t>
         </is>
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C203], Thu 13:00-14:30 [C203]</t>
+          <t>Tue 13:00-14:30 [L408], Thu 13:00-14:30 [L408]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
@@ -1741,6 +1806,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G23" s="8" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="7" t="inlineStr">
@@ -1753,14 +1819,14 @@
           <t>Graphs and Social Networks</t>
         </is>
       </c>
-      <c r="C24" s="23" t="inlineStr">
+      <c r="C24" s="24" t="inlineStr">
         <is>
           <t>DS301</t>
         </is>
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C204], Thu 13:00-14:30 [C204]</t>
+          <t>Tue 13:00-14:30 [L405], Thu 13:00-14:30 [L405]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
@@ -1773,6 +1839,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G24" s="8" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="7" t="inlineStr">
@@ -1785,14 +1852,14 @@
           <t>Advanced Algorithms</t>
         </is>
       </c>
-      <c r="C25" s="24" t="inlineStr">
+      <c r="C25" s="25" t="inlineStr">
         <is>
           <t>CS366</t>
         </is>
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C205], Thu 13:00-14:30 [C205]</t>
+          <t>Tue 13:00-14:30 [L406], Thu 13:00-14:30 [L406]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
@@ -1805,6 +1872,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G25" s="8" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="7" t="inlineStr">
@@ -1817,14 +1885,14 @@
           <t>Full Stack Development</t>
         </is>
       </c>
-      <c r="C26" s="14" t="inlineStr">
+      <c r="C26" s="26" t="inlineStr">
         <is>
           <t>DS359</t>
         </is>
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C202], Wed 15:30-17:00 [C202]</t>
+          <t>Mon 15:30-17:00 [L405], Wed 15:30-17:00 [L405]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
@@ -1837,6 +1905,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G26" s="8" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="7" t="inlineStr">
@@ -1849,14 +1918,14 @@
           <t>Internet of Things</t>
         </is>
       </c>
-      <c r="C27" s="25" t="inlineStr">
+      <c r="C27" s="27" t="inlineStr">
         <is>
           <t>EC355</t>
         </is>
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C203], Wed 15:30-17:00 [C203]</t>
+          <t>Mon 15:30-17:00 [L406], Wed 15:30-17:00 [L406]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
@@ -1869,6 +1938,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G27" s="8" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="7" t="inlineStr">
@@ -1881,14 +1951,14 @@
           <t>Semiconductor Devices</t>
         </is>
       </c>
-      <c r="C28" s="26" t="inlineStr">
+      <c r="C28" s="28" t="inlineStr">
         <is>
           <t>EC364</t>
         </is>
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C204], Wed 15:30-17:00 [C204]</t>
+          <t>Mon 15:30-17:00 [L407], Wed 15:30-17:00 [L407]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
@@ -1901,6 +1971,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G28" s="8" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="7" t="inlineStr">
@@ -1913,14 +1984,14 @@
           <t>Cryptography &amp; Security</t>
         </is>
       </c>
-      <c r="C29" s="27" t="inlineStr">
+      <c r="C29" s="29" t="inlineStr">
         <is>
           <t>CS352</t>
         </is>
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C205], Wed 15:30-17:00 [C205]</t>
+          <t>Mon 15:30-17:00 [L408], Wed 15:30-17:00 [L408]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
@@ -1933,6 +2004,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G29" s="8" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="7" t="inlineStr">
@@ -1945,14 +2017,14 @@
           <t>User Interaction and expirence design</t>
         </is>
       </c>
-      <c r="C30" s="28" t="inlineStr">
+      <c r="C30" s="30" t="inlineStr">
         <is>
           <t>ASD352</t>
         </is>
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C303], Wed 15:30-17:00 [C303]</t>
+          <t>Mon 15:30-17:00 [L403], Wed 15:30-17:00 [L403]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
@@ -1965,6 +2037,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G30" s="8" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="7" t="inlineStr">
@@ -1977,14 +2050,14 @@
           <t>AI in Biomedical Engineering</t>
         </is>
       </c>
-      <c r="C31" s="29" t="inlineStr">
+      <c r="C31" s="31" t="inlineStr">
         <is>
           <t>EC365</t>
         </is>
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C302], Wed 15:30-17:00 [C302]</t>
+          <t>Mon 15:30-17:00 [L404], Wed 15:30-17:00 [L404]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
@@ -1997,11 +2070,12 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G31" s="8" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A14:G14"/>
     <mergeCell ref="A13:E13"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2014,7 +2088,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2028,6 +2102,7 @@
     <col width="48" customWidth="1" min="4" max="4"/>
     <col width="29" customWidth="1" min="5" max="5"/>
     <col width="22" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2061,6 +2136,7 @@
           <t>Fri</t>
         </is>
       </c>
+      <c r="G1" s="6" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="7" t="inlineStr">
@@ -2093,6 +2169,7 @@
           <t>MINOR: DSAI [C101]</t>
         </is>
       </c>
+      <c r="G2" s="8" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="7" t="inlineStr">
@@ -2125,6 +2202,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G3" s="8" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="7" t="inlineStr">
@@ -2157,6 +2235,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G4" s="8" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="7" t="inlineStr">
@@ -2189,6 +2268,7 @@
           <t>LUNCH BREAK</t>
         </is>
       </c>
+      <c r="G5" s="8" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="7" t="inlineStr">
@@ -2203,10 +2283,7 @@
       </c>
       <c r="C6" s="13" t="inlineStr">
         <is>
-          <t>CS463 [C202]
-CS308 [C203]
-DS301 [C204]
-CS366 [C205]</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="D6" s="8" t="inlineStr">
@@ -2216,10 +2293,7 @@
       </c>
       <c r="E6" s="13" t="inlineStr">
         <is>
-          <t>CS463 [C202]
-CS308 [C203]
-DS301 [C204]
-CS366 [C205]</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="F6" s="8" t="inlineStr">
@@ -2227,6 +2301,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G6" s="8" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="7" t="inlineStr">
@@ -2246,20 +2321,12 @@
       </c>
       <c r="D7" s="13" t="inlineStr">
         <is>
-          <t>CS463 (Tutorial) [C202]
-CS308 (Tutorial) [C203]
-DS301 (Tutorial) [C204]
-CS366 (Tutorial) [C205]</t>
+          <t>ELECTIVE_B4 (Tutorial)</t>
         </is>
       </c>
       <c r="E7" s="14" t="inlineStr">
         <is>
-          <t>DS359 (Tutorial) [C202]
-EC355 (Tutorial) [C203]
-EC364 (Tutorial) [C204]
-CS352 (Tutorial) [C205]
-ASD352 (Tutorial) [C303]
-EC365 (Tutorial) [C302]</t>
+          <t>ELECTIVE_B5 (Tutorial)</t>
         </is>
       </c>
       <c r="F7" s="8" t="inlineStr">
@@ -2267,6 +2334,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G7" s="8" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="7" t="inlineStr">
@@ -2276,27 +2344,17 @@
       </c>
       <c r="B8" s="14" t="inlineStr">
         <is>
-          <t>DS359 [C202]
-EC355 [C203]
-EC364 [C204]
-CS352 [C205]
-ASD352 [C303]
-EC365 [C302]</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="C8" s="9" t="inlineStr">
         <is>
-          <t>DS302 (Lab) [L107]</t>
+          <t>DS302 (Lab) [L207]</t>
         </is>
       </c>
       <c r="D8" s="14" t="inlineStr">
         <is>
-          <t>DS359 [C202]
-EC355 [C203]
-EC364 [C204]
-CS352 [C205]
-ASD352 [C303]
-EC365 [C302]</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="E8" s="10" t="inlineStr">
@@ -2309,6 +2367,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G8" s="8" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
@@ -2323,7 +2382,7 @@
       </c>
       <c r="C9" s="9" t="inlineStr">
         <is>
-          <t>DS302 (Lab) [L107]</t>
+          <t>DS302 (Lab) [L207]</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
@@ -2341,6 +2400,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G9" s="8" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
@@ -2373,6 +2433,7 @@
           <t>MINOR: Design [C101]</t>
         </is>
       </c>
+      <c r="G10" s="8" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="7" t="n"/>
@@ -2381,6 +2442,7 @@
       <c r="D11" s="8" t="n"/>
       <c r="E11" s="8" t="n"/>
       <c r="F11" s="8" t="n"/>
+      <c r="G11" s="8" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="7" t="n"/>
@@ -2389,6 +2451,7 @@
       <c r="D12" s="8" t="n"/>
       <c r="E12" s="8" t="n"/>
       <c r="F12" s="8" t="n"/>
+      <c r="G12" s="8" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="15" t="inlineStr">
@@ -2401,6 +2464,7 @@
       <c r="D13" s="8" t="n"/>
       <c r="E13" s="8" t="n"/>
       <c r="F13" s="8" t="n"/>
+      <c r="G13" s="8" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="16" t="inlineStr">
@@ -2413,6 +2477,7 @@
       <c r="D14" s="8" t="n"/>
       <c r="E14" s="8" t="n"/>
       <c r="F14" s="8" t="n"/>
+      <c r="G14" s="8" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="17" t="inlineStr">
@@ -2435,8 +2500,21 @@
           <t>Term Type</t>
         </is>
       </c>
-      <c r="E15" s="8" t="n"/>
-      <c r="F15" s="8" t="n"/>
+      <c r="E15" s="18" t="inlineStr">
+        <is>
+          <t>Lectures Hrs</t>
+        </is>
+      </c>
+      <c r="F15" s="18" t="inlineStr">
+        <is>
+          <t>Tutorials Hrs</t>
+        </is>
+      </c>
+      <c r="G15" s="18" t="inlineStr">
+        <is>
+          <t>Labs Hrs</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="19" t="inlineStr">
@@ -2459,8 +2537,21 @@
           <t>Full Sem</t>
         </is>
       </c>
-      <c r="E16" s="8" t="n"/>
-      <c r="F16" s="8" t="n"/>
+      <c r="E16" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F16" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G16" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="20" t="inlineStr">
@@ -2483,8 +2574,21 @@
           <t>Full Sem</t>
         </is>
       </c>
-      <c r="E17" s="8" t="n"/>
-      <c r="F17" s="8" t="n"/>
+      <c r="E17" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F17" s="8" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="G17" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="21" t="inlineStr">
@@ -2507,8 +2611,21 @@
           <t>Full Sem</t>
         </is>
       </c>
-      <c r="E18" s="8" t="n"/>
-      <c r="F18" s="8" t="n"/>
+      <c r="E18" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F18" s="8" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="G18" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="n"/>
@@ -2517,6 +2634,7 @@
       <c r="D19" s="8" t="n"/>
       <c r="E19" s="8" t="n"/>
       <c r="F19" s="8" t="n"/>
+      <c r="G19" s="8" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="16" t="inlineStr">
@@ -2529,6 +2647,7 @@
       <c r="D20" s="8" t="n"/>
       <c r="E20" s="8" t="n"/>
       <c r="F20" s="8" t="n"/>
+      <c r="G20" s="8" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="17" t="inlineStr">
@@ -2561,6 +2680,7 @@
           <t>L-T-P-S-C</t>
         </is>
       </c>
+      <c r="G21" s="8" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="7" t="inlineStr">
@@ -2573,14 +2693,14 @@
           <t>Parallel computing</t>
         </is>
       </c>
-      <c r="C22" s="13" t="inlineStr">
+      <c r="C22" s="22" t="inlineStr">
         <is>
           <t>CS463</t>
         </is>
       </c>
       <c r="D22" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C202], Thu 13:00-14:30 [C202]</t>
+          <t>Tue 13:00-14:30 [L407], Thu 13:00-14:30 [L407]</t>
         </is>
       </c>
       <c r="E22" s="8" t="inlineStr">
@@ -2593,6 +2713,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G22" s="8" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="7" t="inlineStr">
@@ -2605,14 +2726,14 @@
           <t>Compiler Design</t>
         </is>
       </c>
-      <c r="C23" s="22" t="inlineStr">
+      <c r="C23" s="23" t="inlineStr">
         <is>
           <t>CS308</t>
         </is>
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C203], Thu 13:00-14:30 [C203]</t>
+          <t>Tue 13:00-14:30 [L408], Thu 13:00-14:30 [L408]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
@@ -2625,6 +2746,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G23" s="8" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="7" t="inlineStr">
@@ -2637,14 +2759,14 @@
           <t>Graphs and Social Networks</t>
         </is>
       </c>
-      <c r="C24" s="23" t="inlineStr">
+      <c r="C24" s="24" t="inlineStr">
         <is>
           <t>DS301</t>
         </is>
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C204], Thu 13:00-14:30 [C204]</t>
+          <t>Tue 13:00-14:30 [L405], Thu 13:00-14:30 [L405]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
@@ -2657,6 +2779,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G24" s="8" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="7" t="inlineStr">
@@ -2669,14 +2792,14 @@
           <t>Advanced Algorithms</t>
         </is>
       </c>
-      <c r="C25" s="24" t="inlineStr">
+      <c r="C25" s="25" t="inlineStr">
         <is>
           <t>CS366</t>
         </is>
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C205], Thu 13:00-14:30 [C205]</t>
+          <t>Tue 13:00-14:30 [L406], Thu 13:00-14:30 [L406]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
@@ -2689,6 +2812,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G25" s="8" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="7" t="inlineStr">
@@ -2701,14 +2825,14 @@
           <t>Full Stack Development</t>
         </is>
       </c>
-      <c r="C26" s="14" t="inlineStr">
+      <c r="C26" s="26" t="inlineStr">
         <is>
           <t>DS359</t>
         </is>
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C202], Wed 15:30-17:00 [C202]</t>
+          <t>Mon 15:30-17:00 [L405], Wed 15:30-17:00 [L405]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
@@ -2721,6 +2845,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G26" s="8" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="7" t="inlineStr">
@@ -2733,14 +2858,14 @@
           <t>Internet of Things</t>
         </is>
       </c>
-      <c r="C27" s="25" t="inlineStr">
+      <c r="C27" s="27" t="inlineStr">
         <is>
           <t>EC355</t>
         </is>
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C203], Wed 15:30-17:00 [C203]</t>
+          <t>Mon 15:30-17:00 [L406], Wed 15:30-17:00 [L406]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
@@ -2753,6 +2878,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G27" s="8" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="7" t="inlineStr">
@@ -2765,14 +2891,14 @@
           <t>Semiconductor Devices</t>
         </is>
       </c>
-      <c r="C28" s="26" t="inlineStr">
+      <c r="C28" s="28" t="inlineStr">
         <is>
           <t>EC364</t>
         </is>
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C204], Wed 15:30-17:00 [C204]</t>
+          <t>Mon 15:30-17:00 [L407], Wed 15:30-17:00 [L407]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
@@ -2785,6 +2911,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G28" s="8" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="7" t="inlineStr">
@@ -2797,14 +2924,14 @@
           <t>Cryptography &amp; Security</t>
         </is>
       </c>
-      <c r="C29" s="27" t="inlineStr">
+      <c r="C29" s="29" t="inlineStr">
         <is>
           <t>CS352</t>
         </is>
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C205], Wed 15:30-17:00 [C205]</t>
+          <t>Mon 15:30-17:00 [L408], Wed 15:30-17:00 [L408]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
@@ -2817,6 +2944,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G29" s="8" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="7" t="inlineStr">
@@ -2829,14 +2957,14 @@
           <t>User Interaction and expirence design</t>
         </is>
       </c>
-      <c r="C30" s="28" t="inlineStr">
+      <c r="C30" s="30" t="inlineStr">
         <is>
           <t>ASD352</t>
         </is>
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C303], Wed 15:30-17:00 [C303]</t>
+          <t>Mon 15:30-17:00 [L403], Wed 15:30-17:00 [L403]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
@@ -2849,6 +2977,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G30" s="8" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="7" t="inlineStr">
@@ -2861,14 +2990,14 @@
           <t>AI in Biomedical Engineering</t>
         </is>
       </c>
-      <c r="C31" s="29" t="inlineStr">
+      <c r="C31" s="31" t="inlineStr">
         <is>
           <t>EC365</t>
         </is>
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C302], Wed 15:30-17:00 [C302]</t>
+          <t>Mon 15:30-17:00 [L404], Wed 15:30-17:00 [L404]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
@@ -2881,11 +3010,12 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G31" s="8" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A14:G14"/>
     <mergeCell ref="A13:E13"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2898,7 +3028,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2912,6 +3042,7 @@
     <col width="48" customWidth="1" min="4" max="4"/>
     <col width="29" customWidth="1" min="5" max="5"/>
     <col width="22" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2945,6 +3076,7 @@
           <t>Fri</t>
         </is>
       </c>
+      <c r="G1" s="6" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="7" t="inlineStr">
@@ -2977,6 +3109,7 @@
           <t>MINOR: DSAI [C101]</t>
         </is>
       </c>
+      <c r="G2" s="8" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="7" t="inlineStr">
@@ -3009,6 +3142,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G3" s="8" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="7" t="inlineStr">
@@ -3041,6 +3175,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G4" s="8" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="7" t="inlineStr">
@@ -3073,6 +3208,7 @@
           <t>LUNCH BREAK</t>
         </is>
       </c>
+      <c r="G5" s="8" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="7" t="inlineStr">
@@ -3087,10 +3223,7 @@
       </c>
       <c r="C6" s="13" t="inlineStr">
         <is>
-          <t>CS463 [C202]
-CS308 [C203]
-DS301 [C204]
-CS366 [C205]</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="D6" s="8" t="inlineStr">
@@ -3100,10 +3233,7 @@
       </c>
       <c r="E6" s="13" t="inlineStr">
         <is>
-          <t>CS463 [C202]
-CS308 [C203]
-DS301 [C204]
-CS366 [C205]</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="F6" s="8" t="inlineStr">
@@ -3111,6 +3241,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G6" s="8" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="7" t="inlineStr">
@@ -3130,20 +3261,12 @@
       </c>
       <c r="D7" s="13" t="inlineStr">
         <is>
-          <t>CS463 (Tutorial) [C202]
-CS308 (Tutorial) [C203]
-DS301 (Tutorial) [C204]
-CS366 (Tutorial) [C205]</t>
+          <t>ELECTIVE_B4 (Tutorial)</t>
         </is>
       </c>
       <c r="E7" s="14" t="inlineStr">
         <is>
-          <t>DS359 (Tutorial) [C202]
-EC355 (Tutorial) [C203]
-EC364 (Tutorial) [C204]
-CS352 (Tutorial) [C205]
-ASD352 (Tutorial) [C303]
-EC365 (Tutorial) [C302]</t>
+          <t>ELECTIVE_B5 (Tutorial)</t>
         </is>
       </c>
       <c r="F7" s="8" t="inlineStr">
@@ -3151,6 +3274,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G7" s="8" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="7" t="inlineStr">
@@ -3160,27 +3284,17 @@
       </c>
       <c r="B8" s="14" t="inlineStr">
         <is>
-          <t>DS359 [C202]
-EC355 [C203]
-EC364 [C204]
-CS352 [C205]
-ASD352 [C303]
-EC365 [C302]</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="C8" s="9" t="inlineStr">
         <is>
-          <t>DS302 (Lab) [L107]</t>
+          <t>DS302 (Lab) [L207]</t>
         </is>
       </c>
       <c r="D8" s="14" t="inlineStr">
         <is>
-          <t>DS359 [C202]
-EC355 [C203]
-EC364 [C204]
-CS352 [C205]
-ASD352 [C303]
-EC365 [C302]</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="E8" s="10" t="inlineStr">
@@ -3193,6 +3307,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G8" s="8" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
@@ -3207,7 +3322,7 @@
       </c>
       <c r="C9" s="9" t="inlineStr">
         <is>
-          <t>DS302 (Lab) [L107]</t>
+          <t>DS302 (Lab) [L207]</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
@@ -3225,6 +3340,7 @@
           <t>Free</t>
         </is>
       </c>
+      <c r="G9" s="8" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
@@ -3257,6 +3373,7 @@
           <t>MINOR: Design [C101]</t>
         </is>
       </c>
+      <c r="G10" s="8" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="7" t="n"/>
@@ -3265,6 +3382,7 @@
       <c r="D11" s="8" t="n"/>
       <c r="E11" s="8" t="n"/>
       <c r="F11" s="8" t="n"/>
+      <c r="G11" s="8" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="7" t="n"/>
@@ -3273,6 +3391,7 @@
       <c r="D12" s="8" t="n"/>
       <c r="E12" s="8" t="n"/>
       <c r="F12" s="8" t="n"/>
+      <c r="G12" s="8" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="15" t="inlineStr">
@@ -3285,6 +3404,7 @@
       <c r="D13" s="8" t="n"/>
       <c r="E13" s="8" t="n"/>
       <c r="F13" s="8" t="n"/>
+      <c r="G13" s="8" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="16" t="inlineStr">
@@ -3297,6 +3417,7 @@
       <c r="D14" s="8" t="n"/>
       <c r="E14" s="8" t="n"/>
       <c r="F14" s="8" t="n"/>
+      <c r="G14" s="8" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="17" t="inlineStr">
@@ -3319,8 +3440,21 @@
           <t>Term Type</t>
         </is>
       </c>
-      <c r="E15" s="8" t="n"/>
-      <c r="F15" s="8" t="n"/>
+      <c r="E15" s="18" t="inlineStr">
+        <is>
+          <t>Lectures Hrs</t>
+        </is>
+      </c>
+      <c r="F15" s="18" t="inlineStr">
+        <is>
+          <t>Tutorials Hrs</t>
+        </is>
+      </c>
+      <c r="G15" s="18" t="inlineStr">
+        <is>
+          <t>Labs Hrs</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="19" t="inlineStr">
@@ -3343,8 +3477,21 @@
           <t>Full Sem</t>
         </is>
       </c>
-      <c r="E16" s="8" t="n"/>
-      <c r="F16" s="8" t="n"/>
+      <c r="E16" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F16" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G16" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="20" t="inlineStr">
@@ -3367,8 +3514,21 @@
           <t>Full Sem</t>
         </is>
       </c>
-      <c r="E17" s="8" t="n"/>
-      <c r="F17" s="8" t="n"/>
+      <c r="E17" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F17" s="8" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="G17" s="8" t="inlineStr">
+        <is>
+          <t>2/2</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="21" t="inlineStr">
@@ -3391,8 +3551,21 @@
           <t>Full Sem</t>
         </is>
       </c>
-      <c r="E18" s="8" t="n"/>
-      <c r="F18" s="8" t="n"/>
+      <c r="E18" s="8" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="F18" s="8" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="G18" s="8" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="n"/>
@@ -3401,6 +3574,7 @@
       <c r="D19" s="8" t="n"/>
       <c r="E19" s="8" t="n"/>
       <c r="F19" s="8" t="n"/>
+      <c r="G19" s="8" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="16" t="inlineStr">
@@ -3413,6 +3587,7 @@
       <c r="D20" s="8" t="n"/>
       <c r="E20" s="8" t="n"/>
       <c r="F20" s="8" t="n"/>
+      <c r="G20" s="8" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="17" t="inlineStr">
@@ -3445,6 +3620,7 @@
           <t>L-T-P-S-C</t>
         </is>
       </c>
+      <c r="G21" s="8" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="7" t="inlineStr">
@@ -3457,14 +3633,14 @@
           <t>Parallel computing</t>
         </is>
       </c>
-      <c r="C22" s="13" t="inlineStr">
+      <c r="C22" s="22" t="inlineStr">
         <is>
           <t>CS463</t>
         </is>
       </c>
       <c r="D22" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C202], Thu 13:00-14:30 [C202]</t>
+          <t>Tue 13:00-14:30 [L407], Thu 13:00-14:30 [L407]</t>
         </is>
       </c>
       <c r="E22" s="8" t="inlineStr">
@@ -3477,6 +3653,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G22" s="8" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="7" t="inlineStr">
@@ -3489,14 +3666,14 @@
           <t>Compiler Design</t>
         </is>
       </c>
-      <c r="C23" s="22" t="inlineStr">
+      <c r="C23" s="23" t="inlineStr">
         <is>
           <t>CS308</t>
         </is>
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C203], Thu 13:00-14:30 [C203]</t>
+          <t>Tue 13:00-14:30 [L408], Thu 13:00-14:30 [L408]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
@@ -3509,6 +3686,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G23" s="8" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="7" t="inlineStr">
@@ -3521,14 +3699,14 @@
           <t>Graphs and Social Networks</t>
         </is>
       </c>
-      <c r="C24" s="23" t="inlineStr">
+      <c r="C24" s="24" t="inlineStr">
         <is>
           <t>DS301</t>
         </is>
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C204], Thu 13:00-14:30 [C204]</t>
+          <t>Tue 13:00-14:30 [L405], Thu 13:00-14:30 [L405]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
@@ -3541,6 +3719,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G24" s="8" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="7" t="inlineStr">
@@ -3553,14 +3732,14 @@
           <t>Advanced Algorithms</t>
         </is>
       </c>
-      <c r="C25" s="24" t="inlineStr">
+      <c r="C25" s="25" t="inlineStr">
         <is>
           <t>CS366</t>
         </is>
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C205], Thu 13:00-14:30 [C205]</t>
+          <t>Tue 13:00-14:30 [L406], Thu 13:00-14:30 [L406]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
@@ -3573,6 +3752,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G25" s="8" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="7" t="inlineStr">
@@ -3585,14 +3765,14 @@
           <t>Full Stack Development</t>
         </is>
       </c>
-      <c r="C26" s="14" t="inlineStr">
+      <c r="C26" s="26" t="inlineStr">
         <is>
           <t>DS359</t>
         </is>
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C202], Wed 15:30-17:00 [C202]</t>
+          <t>Mon 15:30-17:00 [L405], Wed 15:30-17:00 [L405]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
@@ -3605,6 +3785,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G26" s="8" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="7" t="inlineStr">
@@ -3617,14 +3798,14 @@
           <t>Internet of Things</t>
         </is>
       </c>
-      <c r="C27" s="25" t="inlineStr">
+      <c r="C27" s="27" t="inlineStr">
         <is>
           <t>EC355</t>
         </is>
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C203], Wed 15:30-17:00 [C203]</t>
+          <t>Mon 15:30-17:00 [L406], Wed 15:30-17:00 [L406]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
@@ -3637,6 +3818,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G27" s="8" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="7" t="inlineStr">
@@ -3649,14 +3831,14 @@
           <t>Semiconductor Devices</t>
         </is>
       </c>
-      <c r="C28" s="26" t="inlineStr">
+      <c r="C28" s="28" t="inlineStr">
         <is>
           <t>EC364</t>
         </is>
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C204], Wed 15:30-17:00 [C204]</t>
+          <t>Mon 15:30-17:00 [L407], Wed 15:30-17:00 [L407]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
@@ -3669,6 +3851,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G28" s="8" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="7" t="inlineStr">
@@ -3681,14 +3864,14 @@
           <t>Cryptography &amp; Security</t>
         </is>
       </c>
-      <c r="C29" s="27" t="inlineStr">
+      <c r="C29" s="29" t="inlineStr">
         <is>
           <t>CS352</t>
         </is>
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C205], Wed 15:30-17:00 [C205]</t>
+          <t>Mon 15:30-17:00 [L408], Wed 15:30-17:00 [L408]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
@@ -3701,6 +3884,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G29" s="8" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="7" t="inlineStr">
@@ -3713,14 +3897,14 @@
           <t>User Interaction and expirence design</t>
         </is>
       </c>
-      <c r="C30" s="28" t="inlineStr">
+      <c r="C30" s="30" t="inlineStr">
         <is>
           <t>ASD352</t>
         </is>
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C303], Wed 15:30-17:00 [C303]</t>
+          <t>Mon 15:30-17:00 [L403], Wed 15:30-17:00 [L403]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
@@ -3733,6 +3917,7 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G30" s="8" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="7" t="inlineStr">
@@ -3745,14 +3930,14 @@
           <t>AI in Biomedical Engineering</t>
         </is>
       </c>
-      <c r="C31" s="29" t="inlineStr">
+      <c r="C31" s="31" t="inlineStr">
         <is>
           <t>EC365</t>
         </is>
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C302], Wed 15:30-17:00 [C302]</t>
+          <t>Mon 15:30-17:00 [L404], Wed 15:30-17:00 [L404]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
@@ -3765,11 +3950,12 @@
           <t>3-1-0-0-4</t>
         </is>
       </c>
+      <c r="G31" s="8" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A14:G14"/>
     <mergeCell ref="A13:E13"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/backend/output_timetables/sem5_DSAI_timetable.xlsx
+++ b/backend/output_timetables/sem5_DSAI_timetable.xlsx
@@ -1239,17 +1239,17 @@
       </c>
       <c r="B3" s="9" t="inlineStr">
         <is>
-          <t>DS302 [C202]</t>
+          <t>DS302 [C304]</t>
         </is>
       </c>
       <c r="C3" s="9" t="inlineStr">
         <is>
-          <t>DS302 [C202]</t>
+          <t>DS302 [C304]</t>
         </is>
       </c>
       <c r="D3" s="10" t="inlineStr">
         <is>
-          <t>CS307 [C202]</t>
+          <t>CS307 [C304]</t>
         </is>
       </c>
       <c r="E3" s="8" t="inlineStr">
@@ -1272,12 +1272,12 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>DS303 [C202]</t>
+          <t>DS303 [C304]</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
         <is>
-          <t>DS303 [C202]</t>
+          <t>DS303 [C304]</t>
         </is>
       </c>
       <c r="D4" s="8" t="inlineStr">
@@ -1338,7 +1338,7 @@
       </c>
       <c r="B6" s="10" t="inlineStr">
         <is>
-          <t>CS307 [C202]</t>
+          <t>CS307 [C304]</t>
         </is>
       </c>
       <c r="C6" s="13" t="inlineStr">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="B7" s="9" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial) [C202]</t>
+          <t>DS302 (Tutorial) [C304]</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
@@ -1419,7 +1419,7 @@
       </c>
       <c r="E8" s="10" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L107]</t>
+          <t>CS307 (Lab) [L207]</t>
         </is>
       </c>
       <c r="F8" s="8" t="inlineStr">
@@ -1437,7 +1437,7 @@
       </c>
       <c r="B9" s="11" t="inlineStr">
         <is>
-          <t>DS303 (Tutorial) [C202]</t>
+          <t>DS303 (Tutorial) [C304]</t>
         </is>
       </c>
       <c r="C9" s="9" t="inlineStr">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="E9" s="10" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L107]</t>
+          <t>CS307 (Lab) [L207]</t>
         </is>
       </c>
       <c r="F9" s="8" t="inlineStr">
@@ -1760,12 +1760,12 @@
       </c>
       <c r="D22" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [L407], Thu 13:00-14:30 [L407]</t>
+          <t>Tue 13:00-14:30 [C101], Thu 13:00-14:30 [C101]</t>
         </is>
       </c>
       <c r="E22" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F22" s="8" t="inlineStr">
@@ -1793,12 +1793,12 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [L408], Thu 13:00-14:30 [L408]</t>
+          <t>Tue 13:00-14:30 [C102], Thu 13:00-14:30 [C102]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F23" s="8" t="inlineStr">
@@ -1826,12 +1826,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [L405], Thu 13:00-14:30 [L405]</t>
+          <t>Tue 13:00-14:30 [C104], Thu 13:00-14:30 [C104]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -1859,12 +1859,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [L406], Thu 13:00-14:30 [L406]</t>
+          <t>Tue 13:00-14:30 [C202], Thu 13:00-14:30 [C202]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -1892,12 +1892,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L405], Wed 15:30-17:00 [L405]</t>
+          <t>Mon 15:30-17:00 [C101], Wed 15:30-17:00 [C101]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -1925,12 +1925,12 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L406], Wed 15:30-17:00 [L406]</t>
+          <t>Mon 15:30-17:00 [C102], Wed 15:30-17:00 [C102]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -1958,12 +1958,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L407], Wed 15:30-17:00 [L407]</t>
+          <t>Mon 15:30-17:00 [C104], Wed 15:30-17:00 [C104]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -1991,12 +1991,12 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L408], Wed 15:30-17:00 [L408]</t>
+          <t>Mon 15:30-17:00 [C202], Wed 15:30-17:00 [C202]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -2024,12 +2024,12 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L403], Wed 15:30-17:00 [L403]</t>
+          <t>Mon 15:30-17:00 [C203], Wed 15:30-17:00 [C203]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C203]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -2057,12 +2057,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L404], Wed 15:30-17:00 [L404]</t>
+          <t>Mon 15:30-17:00 [C204], Wed 15:30-17:00 [C204]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C204]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -2179,17 +2179,17 @@
       </c>
       <c r="B3" s="9" t="inlineStr">
         <is>
-          <t>DS302 [C203]</t>
+          <t>DS302 [C305]</t>
         </is>
       </c>
       <c r="C3" s="9" t="inlineStr">
         <is>
-          <t>DS302 [C203]</t>
+          <t>DS302 [C305]</t>
         </is>
       </c>
       <c r="D3" s="10" t="inlineStr">
         <is>
-          <t>CS307 [C203]</t>
+          <t>CS307 [C305]</t>
         </is>
       </c>
       <c r="E3" s="8" t="inlineStr">
@@ -2212,12 +2212,12 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>DS303 [C203]</t>
+          <t>DS303 [C305]</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
         <is>
-          <t>DS303 [C203]</t>
+          <t>DS303 [C305]</t>
         </is>
       </c>
       <c r="D4" s="8" t="inlineStr">
@@ -2278,7 +2278,7 @@
       </c>
       <c r="B6" s="10" t="inlineStr">
         <is>
-          <t>CS307 [C203]</t>
+          <t>CS307 [C305]</t>
         </is>
       </c>
       <c r="C6" s="13" t="inlineStr">
@@ -2311,7 +2311,7 @@
       </c>
       <c r="B7" s="9" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial) [C203]</t>
+          <t>DS302 (Tutorial) [C305]</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
@@ -2359,7 +2359,7 @@
       </c>
       <c r="E8" s="10" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L106]</t>
+          <t>CS307 (Lab) [L207]</t>
         </is>
       </c>
       <c r="F8" s="8" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="B9" s="11" t="inlineStr">
         <is>
-          <t>DS303 (Tutorial) [C203]</t>
+          <t>DS303 (Tutorial) [C305]</t>
         </is>
       </c>
       <c r="C9" s="9" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="E9" s="10" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L106]</t>
+          <t>CS307 (Lab) [L207]</t>
         </is>
       </c>
       <c r="F9" s="8" t="inlineStr">
@@ -2700,12 +2700,12 @@
       </c>
       <c r="D22" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [L407], Thu 13:00-14:30 [L407]</t>
+          <t>Tue 13:00-14:30 [C101], Thu 13:00-14:30 [C101]</t>
         </is>
       </c>
       <c r="E22" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F22" s="8" t="inlineStr">
@@ -2733,12 +2733,12 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [L408], Thu 13:00-14:30 [L408]</t>
+          <t>Tue 13:00-14:30 [C102], Thu 13:00-14:30 [C102]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F23" s="8" t="inlineStr">
@@ -2766,12 +2766,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [L405], Thu 13:00-14:30 [L405]</t>
+          <t>Tue 13:00-14:30 [C104], Thu 13:00-14:30 [C104]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -2799,12 +2799,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [L406], Thu 13:00-14:30 [L406]</t>
+          <t>Tue 13:00-14:30 [C202], Thu 13:00-14:30 [C202]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -2832,12 +2832,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L405], Wed 15:30-17:00 [L405]</t>
+          <t>Mon 15:30-17:00 [C101], Wed 15:30-17:00 [C101]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -2865,12 +2865,12 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L406], Wed 15:30-17:00 [L406]</t>
+          <t>Mon 15:30-17:00 [C102], Wed 15:30-17:00 [C102]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -2898,12 +2898,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L407], Wed 15:30-17:00 [L407]</t>
+          <t>Mon 15:30-17:00 [C104], Wed 15:30-17:00 [C104]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -2931,12 +2931,12 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L408], Wed 15:30-17:00 [L408]</t>
+          <t>Mon 15:30-17:00 [C202], Wed 15:30-17:00 [C202]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -2964,12 +2964,12 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L403], Wed 15:30-17:00 [L403]</t>
+          <t>Mon 15:30-17:00 [C203], Wed 15:30-17:00 [C203]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C203]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -2997,12 +2997,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L404], Wed 15:30-17:00 [L404]</t>
+          <t>Mon 15:30-17:00 [C204], Wed 15:30-17:00 [C204]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C204]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -3119,17 +3119,17 @@
       </c>
       <c r="B3" s="9" t="inlineStr">
         <is>
-          <t>DS302 [C204]</t>
+          <t>DS302 [C102]</t>
         </is>
       </c>
       <c r="C3" s="9" t="inlineStr">
         <is>
-          <t>DS302 [C204]</t>
+          <t>DS302 [C102]</t>
         </is>
       </c>
       <c r="D3" s="10" t="inlineStr">
         <is>
-          <t>CS307 [C204]</t>
+          <t>CS307 [C102]</t>
         </is>
       </c>
       <c r="E3" s="8" t="inlineStr">
@@ -3152,12 +3152,12 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>DS303 [C204]</t>
+          <t>DS303 [C102]</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
         <is>
-          <t>DS303 [C204]</t>
+          <t>DS303 [C102]</t>
         </is>
       </c>
       <c r="D4" s="8" t="inlineStr">
@@ -3218,7 +3218,7 @@
       </c>
       <c r="B6" s="10" t="inlineStr">
         <is>
-          <t>CS307 [C204]</t>
+          <t>CS307 [C102]</t>
         </is>
       </c>
       <c r="C6" s="13" t="inlineStr">
@@ -3251,7 +3251,7 @@
       </c>
       <c r="B7" s="9" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial) [C204]</t>
+          <t>DS302 (Tutorial) [C102]</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
@@ -3299,7 +3299,7 @@
       </c>
       <c r="E8" s="10" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L106]</t>
+          <t>CS307 (Lab) [L207]</t>
         </is>
       </c>
       <c r="F8" s="8" t="inlineStr">
@@ -3317,7 +3317,7 @@
       </c>
       <c r="B9" s="11" t="inlineStr">
         <is>
-          <t>DS303 (Tutorial) [C204]</t>
+          <t>DS303 (Tutorial) [C102]</t>
         </is>
       </c>
       <c r="C9" s="9" t="inlineStr">
@@ -3332,7 +3332,7 @@
       </c>
       <c r="E9" s="10" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L106]</t>
+          <t>CS307 (Lab) [L207]</t>
         </is>
       </c>
       <c r="F9" s="8" t="inlineStr">
@@ -3640,12 +3640,12 @@
       </c>
       <c r="D22" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [L407], Thu 13:00-14:30 [L407]</t>
+          <t>Tue 13:00-14:30 [C101], Thu 13:00-14:30 [C101]</t>
         </is>
       </c>
       <c r="E22" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F22" s="8" t="inlineStr">
@@ -3673,12 +3673,12 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [L408], Thu 13:00-14:30 [L408]</t>
+          <t>Tue 13:00-14:30 [C102], Thu 13:00-14:30 [C102]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F23" s="8" t="inlineStr">
@@ -3706,12 +3706,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [L405], Thu 13:00-14:30 [L405]</t>
+          <t>Tue 13:00-14:30 [C104], Thu 13:00-14:30 [C104]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -3739,12 +3739,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [L406], Thu 13:00-14:30 [L406]</t>
+          <t>Tue 13:00-14:30 [C202], Thu 13:00-14:30 [C202]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -3772,12 +3772,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L405], Wed 15:30-17:00 [L405]</t>
+          <t>Mon 15:30-17:00 [C101], Wed 15:30-17:00 [C101]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -3805,12 +3805,12 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L406], Wed 15:30-17:00 [L406]</t>
+          <t>Mon 15:30-17:00 [C102], Wed 15:30-17:00 [C102]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -3838,12 +3838,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L407], Wed 15:30-17:00 [L407]</t>
+          <t>Mon 15:30-17:00 [C104], Wed 15:30-17:00 [C104]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -3871,12 +3871,12 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L408], Wed 15:30-17:00 [L408]</t>
+          <t>Mon 15:30-17:00 [C202], Wed 15:30-17:00 [C202]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -3904,12 +3904,12 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L403], Wed 15:30-17:00 [L403]</t>
+          <t>Mon 15:30-17:00 [C203], Wed 15:30-17:00 [C203]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C203]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -3937,12 +3937,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L404], Wed 15:30-17:00 [L404]</t>
+          <t>Mon 15:30-17:00 [C204], Wed 15:30-17:00 [C204]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [C204]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">

--- a/backend/output_timetables/sem5_DSAI_timetable.xlsx
+++ b/backend/output_timetables/sem5_DSAI_timetable.xlsx
@@ -1206,7 +1206,7 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C101]</t>
+          <t>MINOR: Generative Ai [C102]</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
@@ -1409,7 +1409,7 @@
       </c>
       <c r="C8" s="9" t="inlineStr">
         <is>
-          <t>DS302 (Lab) [L207]</t>
+          <t>DS302 (Lab) [L107]</t>
         </is>
       </c>
       <c r="D8" s="14" t="inlineStr">
@@ -1442,7 +1442,7 @@
       </c>
       <c r="C9" s="9" t="inlineStr">
         <is>
-          <t>DS302 (Lab) [L207]</t>
+          <t>DS302 (Lab) [L107]</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
@@ -1470,7 +1470,7 @@
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C102]</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
@@ -2146,7 +2146,7 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C101]</t>
+          <t>MINOR: Generative Ai [C102]</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
@@ -2349,7 +2349,7 @@
       </c>
       <c r="C8" s="9" t="inlineStr">
         <is>
-          <t>DS302 (Lab) [L207]</t>
+          <t>DS302 (Lab) [L107]</t>
         </is>
       </c>
       <c r="D8" s="14" t="inlineStr">
@@ -2382,7 +2382,7 @@
       </c>
       <c r="C9" s="9" t="inlineStr">
         <is>
-          <t>DS302 (Lab) [L207]</t>
+          <t>DS302 (Lab) [L107]</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
@@ -2410,7 +2410,7 @@
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C102]</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C101]</t>
+          <t>MINOR: Generative Ai [C102]</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="C8" s="9" t="inlineStr">
         <is>
-          <t>DS302 (Lab) [L207]</t>
+          <t>DS302 (Lab) [L107]</t>
         </is>
       </c>
       <c r="D8" s="14" t="inlineStr">
@@ -3322,7 +3322,7 @@
       </c>
       <c r="C9" s="9" t="inlineStr">
         <is>
-          <t>DS302 (Lab) [L207]</t>
+          <t>DS302 (Lab) [L107]</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
@@ -3350,7 +3350,7 @@
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C102]</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">

--- a/backend/output_timetables/sem5_DSAI_timetable.xlsx
+++ b/backend/output_timetables/sem5_DSAI_timetable.xlsx
@@ -11,6 +11,10 @@
     <sheet name="Regular_Timetable" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="PreMid_Timetable" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="PostMid_Timetable" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Section_A" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Classroom_Utilization" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Classroom_Allocation" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Basket_Course_Allocations" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -199,7 +203,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -227,11 +231,55 @@
         <color rgb="00CCCCCC"/>
       </bottom>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="00CCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="00CCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="00CCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="00CCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00CCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="00CCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="00CCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00CCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -326,6 +374,8 @@
     <xf numFmtId="0" fontId="0" fillId="21" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -1211,22 +1261,22 @@
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C101]</t>
+          <t>MINOR: Cybersecurity [C102]</t>
         </is>
       </c>
       <c r="D2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C101]</t>
+          <t>MINOR: Design [C102]</t>
         </is>
       </c>
       <c r="E2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C102]</t>
         </is>
       </c>
       <c r="F2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C101]</t>
+          <t>MINOR: DSAI [C102]</t>
         </is>
       </c>
       <c r="G2" s="8" t="n"/>
@@ -1239,17 +1289,17 @@
       </c>
       <c r="B3" s="9" t="inlineStr">
         <is>
-          <t>DS302 [C304]</t>
+          <t>DS302 [C004]</t>
         </is>
       </c>
       <c r="C3" s="9" t="inlineStr">
         <is>
-          <t>DS302 [C304]</t>
+          <t>DS302 [L405]</t>
         </is>
       </c>
       <c r="D3" s="10" t="inlineStr">
         <is>
-          <t>CS307 [C304]</t>
+          <t>CS307 [C004]</t>
         </is>
       </c>
       <c r="E3" s="8" t="inlineStr">
@@ -1272,12 +1322,12 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>DS303 [C304]</t>
+          <t>DS303 [L404]</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
         <is>
-          <t>DS303 [C304]</t>
+          <t>DS303 [L405]</t>
         </is>
       </c>
       <c r="D4" s="8" t="inlineStr">
@@ -1338,7 +1388,7 @@
       </c>
       <c r="B6" s="10" t="inlineStr">
         <is>
-          <t>CS307 [C304]</t>
+          <t>CS307 [C003]</t>
         </is>
       </c>
       <c r="C6" s="13" t="inlineStr">
@@ -1371,7 +1421,7 @@
       </c>
       <c r="B7" s="9" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial) [C304]</t>
+          <t>DS302 (Tutorial) [L405]</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
@@ -1409,7 +1459,7 @@
       </c>
       <c r="C8" s="9" t="inlineStr">
         <is>
-          <t>DS302 (Lab) [L107]</t>
+          <t>DS302 (Lab) [L207]</t>
         </is>
       </c>
       <c r="D8" s="14" t="inlineStr">
@@ -1419,7 +1469,7 @@
       </c>
       <c r="E8" s="10" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L207]</t>
+          <t>CS307 (Lab) [L106]</t>
         </is>
       </c>
       <c r="F8" s="8" t="inlineStr">
@@ -1442,7 +1492,7 @@
       </c>
       <c r="C9" s="9" t="inlineStr">
         <is>
-          <t>DS302 (Lab) [L107]</t>
+          <t>DS302 (Lab) [L207]</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
@@ -1452,7 +1502,7 @@
       </c>
       <c r="E9" s="10" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L207]</t>
+          <t>CS307 (Lab) [L106]</t>
         </is>
       </c>
       <c r="F9" s="8" t="inlineStr">
@@ -1475,22 +1525,22 @@
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C101]</t>
+          <t>MINOR: DSAI [C102]</t>
         </is>
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C101]</t>
+          <t>MINOR: Generative Ai [C102]</t>
         </is>
       </c>
       <c r="E10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C101]</t>
+          <t>MINOR: Cybersecurity [C102]</t>
         </is>
       </c>
       <c r="F10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C101]</t>
+          <t>MINOR: Design [C102]</t>
         </is>
       </c>
       <c r="G10" s="8" t="n"/>
@@ -1519,10 +1569,10 @@
           <t>COURSE INFORMATION</t>
         </is>
       </c>
-      <c r="B13" s="8" t="n"/>
-      <c r="C13" s="8" t="n"/>
-      <c r="D13" s="8" t="n"/>
-      <c r="E13" s="8" t="n"/>
+      <c r="B13" s="32" t="n"/>
+      <c r="C13" s="32" t="n"/>
+      <c r="D13" s="32" t="n"/>
+      <c r="E13" s="33" t="n"/>
       <c r="F13" s="8" t="n"/>
       <c r="G13" s="8" t="n"/>
     </row>
@@ -1532,12 +1582,12 @@
           <t>CORE COURSES</t>
         </is>
       </c>
-      <c r="B14" s="8" t="n"/>
-      <c r="C14" s="8" t="n"/>
-      <c r="D14" s="8" t="n"/>
-      <c r="E14" s="8" t="n"/>
-      <c r="F14" s="8" t="n"/>
-      <c r="G14" s="8" t="n"/>
+      <c r="B14" s="32" t="n"/>
+      <c r="C14" s="32" t="n"/>
+      <c r="D14" s="32" t="n"/>
+      <c r="E14" s="32" t="n"/>
+      <c r="F14" s="32" t="n"/>
+      <c r="G14" s="33" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="17" t="inlineStr">
@@ -1702,11 +1752,11 @@
           <t>ELECTIVE BASKETS</t>
         </is>
       </c>
-      <c r="B20" s="8" t="n"/>
-      <c r="C20" s="8" t="n"/>
-      <c r="D20" s="8" t="n"/>
-      <c r="E20" s="8" t="n"/>
-      <c r="F20" s="8" t="n"/>
+      <c r="B20" s="32" t="n"/>
+      <c r="C20" s="32" t="n"/>
+      <c r="D20" s="32" t="n"/>
+      <c r="E20" s="32" t="n"/>
+      <c r="F20" s="33" t="n"/>
       <c r="G20" s="8" t="n"/>
     </row>
     <row r="21">
@@ -1760,7 +1810,7 @@
       </c>
       <c r="D22" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C101], Thu 13:00-14:30 [C101]</t>
+          <t>Tue 13:00-14:30 [C102], Thu 13:00-14:30 [C102]</t>
         </is>
       </c>
       <c r="E22" s="8" t="inlineStr">
@@ -1793,7 +1843,7 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C102], Thu 13:00-14:30 [C102]</t>
+          <t>Tue 13:00-14:30 [C104], Thu 13:00-14:30 [C104]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
@@ -1826,7 +1876,7 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C104], Thu 13:00-14:30 [C104]</t>
+          <t>Tue 13:00-14:30 [C202], Thu 13:00-14:30 [C202]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
@@ -1859,7 +1909,7 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C202], Thu 13:00-14:30 [C202]</t>
+          <t>Tue 13:00-14:30 [C204], Thu 13:00-14:30 [C204]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
@@ -1925,7 +1975,7 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C102], Wed 15:30-17:00 [C102]</t>
+          <t>Mon 15:30-17:00 [C202], Wed 15:30-17:00 [C202]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
@@ -1958,7 +2008,7 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C104], Wed 15:30-17:00 [C104]</t>
+          <t>Mon 15:30-17:00 [C203], Wed 15:30-17:00 [C203]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
@@ -1991,7 +2041,7 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C202], Wed 15:30-17:00 [C202]</t>
+          <t>Mon 15:30-17:00 [C204], Wed 15:30-17:00 [C204]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
@@ -2024,7 +2074,7 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C203], Wed 15:30-17:00 [C203]</t>
+          <t>Mon 15:30-17:00 [C205], Wed 15:30-17:00 [C205]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
@@ -2057,7 +2107,7 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C204], Wed 15:30-17:00 [C204]</t>
+          <t>Mon 15:30-17:00 [C302], Wed 15:30-17:00 [C302]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
@@ -2151,22 +2201,22 @@
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C101]</t>
+          <t>MINOR: Cybersecurity [C102]</t>
         </is>
       </c>
       <c r="D2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C101]</t>
+          <t>MINOR: Design [C102]</t>
         </is>
       </c>
       <c r="E2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C102]</t>
         </is>
       </c>
       <c r="F2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C101]</t>
+          <t>MINOR: DSAI [C102]</t>
         </is>
       </c>
       <c r="G2" s="8" t="n"/>
@@ -2179,17 +2229,17 @@
       </c>
       <c r="B3" s="9" t="inlineStr">
         <is>
-          <t>DS302 [C305]</t>
+          <t>DS302 [C004]</t>
         </is>
       </c>
       <c r="C3" s="9" t="inlineStr">
         <is>
-          <t>DS302 [C305]</t>
+          <t>DS302 [L406]</t>
         </is>
       </c>
       <c r="D3" s="10" t="inlineStr">
         <is>
-          <t>CS307 [C305]</t>
+          <t>CS307 [C004]</t>
         </is>
       </c>
       <c r="E3" s="8" t="inlineStr">
@@ -2212,12 +2262,12 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>DS303 [C305]</t>
+          <t>DS303 [L405]</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
         <is>
-          <t>DS303 [C305]</t>
+          <t>DS303 [L406]</t>
         </is>
       </c>
       <c r="D4" s="8" t="inlineStr">
@@ -2278,7 +2328,7 @@
       </c>
       <c r="B6" s="10" t="inlineStr">
         <is>
-          <t>CS307 [C305]</t>
+          <t>CS307 [C004]</t>
         </is>
       </c>
       <c r="C6" s="13" t="inlineStr">
@@ -2311,7 +2361,7 @@
       </c>
       <c r="B7" s="9" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial) [C305]</t>
+          <t>DS302 (Tutorial) [L406]</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
@@ -2349,7 +2399,7 @@
       </c>
       <c r="C8" s="9" t="inlineStr">
         <is>
-          <t>DS302 (Lab) [L107]</t>
+          <t>DS302 (Lab) [L207]</t>
         </is>
       </c>
       <c r="D8" s="14" t="inlineStr">
@@ -2382,7 +2432,7 @@
       </c>
       <c r="C9" s="9" t="inlineStr">
         <is>
-          <t>DS302 (Lab) [L107]</t>
+          <t>DS302 (Lab) [L207]</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
@@ -2415,22 +2465,22 @@
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C101]</t>
+          <t>MINOR: DSAI [C102]</t>
         </is>
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C101]</t>
+          <t>MINOR: Generative Ai [C102]</t>
         </is>
       </c>
       <c r="E10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C101]</t>
+          <t>MINOR: Cybersecurity [C102]</t>
         </is>
       </c>
       <c r="F10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C101]</t>
+          <t>MINOR: Design [C102]</t>
         </is>
       </c>
       <c r="G10" s="8" t="n"/>
@@ -2459,10 +2509,10 @@
           <t>COURSE INFORMATION</t>
         </is>
       </c>
-      <c r="B13" s="8" t="n"/>
-      <c r="C13" s="8" t="n"/>
-      <c r="D13" s="8" t="n"/>
-      <c r="E13" s="8" t="n"/>
+      <c r="B13" s="32" t="n"/>
+      <c r="C13" s="32" t="n"/>
+      <c r="D13" s="32" t="n"/>
+      <c r="E13" s="33" t="n"/>
       <c r="F13" s="8" t="n"/>
       <c r="G13" s="8" t="n"/>
     </row>
@@ -2472,12 +2522,12 @@
           <t>CORE COURSES</t>
         </is>
       </c>
-      <c r="B14" s="8" t="n"/>
-      <c r="C14" s="8" t="n"/>
-      <c r="D14" s="8" t="n"/>
-      <c r="E14" s="8" t="n"/>
-      <c r="F14" s="8" t="n"/>
-      <c r="G14" s="8" t="n"/>
+      <c r="B14" s="32" t="n"/>
+      <c r="C14" s="32" t="n"/>
+      <c r="D14" s="32" t="n"/>
+      <c r="E14" s="32" t="n"/>
+      <c r="F14" s="32" t="n"/>
+      <c r="G14" s="33" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="17" t="inlineStr">
@@ -2642,11 +2692,11 @@
           <t>ELECTIVE BASKETS</t>
         </is>
       </c>
-      <c r="B20" s="8" t="n"/>
-      <c r="C20" s="8" t="n"/>
-      <c r="D20" s="8" t="n"/>
-      <c r="E20" s="8" t="n"/>
-      <c r="F20" s="8" t="n"/>
+      <c r="B20" s="32" t="n"/>
+      <c r="C20" s="32" t="n"/>
+      <c r="D20" s="32" t="n"/>
+      <c r="E20" s="32" t="n"/>
+      <c r="F20" s="33" t="n"/>
       <c r="G20" s="8" t="n"/>
     </row>
     <row r="21">
@@ -2700,7 +2750,7 @@
       </c>
       <c r="D22" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C101], Thu 13:00-14:30 [C101]</t>
+          <t>Tue 13:00-14:30 [C102], Thu 13:00-14:30 [C102]</t>
         </is>
       </c>
       <c r="E22" s="8" t="inlineStr">
@@ -2733,7 +2783,7 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C102], Thu 13:00-14:30 [C102]</t>
+          <t>Tue 13:00-14:30 [C104], Thu 13:00-14:30 [C104]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
@@ -2766,7 +2816,7 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C104], Thu 13:00-14:30 [C104]</t>
+          <t>Tue 13:00-14:30 [C202], Thu 13:00-14:30 [C202]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
@@ -2799,7 +2849,7 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C202], Thu 13:00-14:30 [C202]</t>
+          <t>Tue 13:00-14:30 [C204], Thu 13:00-14:30 [C204]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
@@ -2865,7 +2915,7 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C102], Wed 15:30-17:00 [C102]</t>
+          <t>Mon 15:30-17:00 [C202], Wed 15:30-17:00 [C202]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
@@ -2898,7 +2948,7 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C104], Wed 15:30-17:00 [C104]</t>
+          <t>Mon 15:30-17:00 [C203], Wed 15:30-17:00 [C203]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
@@ -2931,7 +2981,7 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C202], Wed 15:30-17:00 [C202]</t>
+          <t>Mon 15:30-17:00 [C204], Wed 15:30-17:00 [C204]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
@@ -2964,7 +3014,7 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C203], Wed 15:30-17:00 [C203]</t>
+          <t>Mon 15:30-17:00 [C205], Wed 15:30-17:00 [C205]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
@@ -2997,7 +3047,7 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C204], Wed 15:30-17:00 [C204]</t>
+          <t>Mon 15:30-17:00 [C302], Wed 15:30-17:00 [C302]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
@@ -3091,22 +3141,22 @@
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C101]</t>
+          <t>MINOR: Cybersecurity [C102]</t>
         </is>
       </c>
       <c r="D2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C101]</t>
+          <t>MINOR: Design [C102]</t>
         </is>
       </c>
       <c r="E2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C102]</t>
         </is>
       </c>
       <c r="F2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C101]</t>
+          <t>MINOR: DSAI [C102]</t>
         </is>
       </c>
       <c r="G2" s="8" t="n"/>
@@ -3119,17 +3169,17 @@
       </c>
       <c r="B3" s="9" t="inlineStr">
         <is>
-          <t>DS302 [C102]</t>
+          <t>DS302 [C004]</t>
         </is>
       </c>
       <c r="C3" s="9" t="inlineStr">
         <is>
-          <t>DS302 [C102]</t>
+          <t>DS302 [L407]</t>
         </is>
       </c>
       <c r="D3" s="10" t="inlineStr">
         <is>
-          <t>CS307 [C102]</t>
+          <t>CS307 [C004]</t>
         </is>
       </c>
       <c r="E3" s="8" t="inlineStr">
@@ -3152,12 +3202,12 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>DS303 [C102]</t>
+          <t>DS303 [L406]</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
         <is>
-          <t>DS303 [C102]</t>
+          <t>DS303 [L407]</t>
         </is>
       </c>
       <c r="D4" s="8" t="inlineStr">
@@ -3218,7 +3268,7 @@
       </c>
       <c r="B6" s="10" t="inlineStr">
         <is>
-          <t>CS307 [C102]</t>
+          <t>CS307 [L402]</t>
         </is>
       </c>
       <c r="C6" s="13" t="inlineStr">
@@ -3251,7 +3301,7 @@
       </c>
       <c r="B7" s="9" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial) [C102]</t>
+          <t>DS302 (Tutorial) [L407]</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
@@ -3289,7 +3339,7 @@
       </c>
       <c r="C8" s="9" t="inlineStr">
         <is>
-          <t>DS302 (Lab) [L107]</t>
+          <t>DS302 (Lab) [L207]</t>
         </is>
       </c>
       <c r="D8" s="14" t="inlineStr">
@@ -3322,7 +3372,7 @@
       </c>
       <c r="C9" s="9" t="inlineStr">
         <is>
-          <t>DS302 (Lab) [L107]</t>
+          <t>DS302 (Lab) [L207]</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
@@ -3355,22 +3405,22 @@
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C101]</t>
+          <t>MINOR: DSAI [C102]</t>
         </is>
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C101]</t>
+          <t>MINOR: Generative Ai [C102]</t>
         </is>
       </c>
       <c r="E10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C101]</t>
+          <t>MINOR: Cybersecurity [C102]</t>
         </is>
       </c>
       <c r="F10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C101]</t>
+          <t>MINOR: Design [C102]</t>
         </is>
       </c>
       <c r="G10" s="8" t="n"/>
@@ -3399,10 +3449,10 @@
           <t>COURSE INFORMATION</t>
         </is>
       </c>
-      <c r="B13" s="8" t="n"/>
-      <c r="C13" s="8" t="n"/>
-      <c r="D13" s="8" t="n"/>
-      <c r="E13" s="8" t="n"/>
+      <c r="B13" s="32" t="n"/>
+      <c r="C13" s="32" t="n"/>
+      <c r="D13" s="32" t="n"/>
+      <c r="E13" s="33" t="n"/>
       <c r="F13" s="8" t="n"/>
       <c r="G13" s="8" t="n"/>
     </row>
@@ -3412,12 +3462,12 @@
           <t>CORE COURSES</t>
         </is>
       </c>
-      <c r="B14" s="8" t="n"/>
-      <c r="C14" s="8" t="n"/>
-      <c r="D14" s="8" t="n"/>
-      <c r="E14" s="8" t="n"/>
-      <c r="F14" s="8" t="n"/>
-      <c r="G14" s="8" t="n"/>
+      <c r="B14" s="32" t="n"/>
+      <c r="C14" s="32" t="n"/>
+      <c r="D14" s="32" t="n"/>
+      <c r="E14" s="32" t="n"/>
+      <c r="F14" s="32" t="n"/>
+      <c r="G14" s="33" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="17" t="inlineStr">
@@ -3582,11 +3632,11 @@
           <t>ELECTIVE BASKETS</t>
         </is>
       </c>
-      <c r="B20" s="8" t="n"/>
-      <c r="C20" s="8" t="n"/>
-      <c r="D20" s="8" t="n"/>
-      <c r="E20" s="8" t="n"/>
-      <c r="F20" s="8" t="n"/>
+      <c r="B20" s="32" t="n"/>
+      <c r="C20" s="32" t="n"/>
+      <c r="D20" s="32" t="n"/>
+      <c r="E20" s="32" t="n"/>
+      <c r="F20" s="33" t="n"/>
       <c r="G20" s="8" t="n"/>
     </row>
     <row r="21">
@@ -3640,7 +3690,7 @@
       </c>
       <c r="D22" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C101], Thu 13:00-14:30 [C101]</t>
+          <t>Tue 13:00-14:30 [C102], Thu 13:00-14:30 [C102]</t>
         </is>
       </c>
       <c r="E22" s="8" t="inlineStr">
@@ -3673,7 +3723,7 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C102], Thu 13:00-14:30 [C102]</t>
+          <t>Tue 13:00-14:30 [C104], Thu 13:00-14:30 [C104]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
@@ -3706,7 +3756,7 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C104], Thu 13:00-14:30 [C104]</t>
+          <t>Tue 13:00-14:30 [C202], Thu 13:00-14:30 [C202]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
@@ -3739,7 +3789,7 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C202], Thu 13:00-14:30 [C202]</t>
+          <t>Tue 13:00-14:30 [C204], Thu 13:00-14:30 [C204]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
@@ -3805,7 +3855,7 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C102], Wed 15:30-17:00 [C102]</t>
+          <t>Mon 15:30-17:00 [C202], Wed 15:30-17:00 [C202]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
@@ -3838,7 +3888,7 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C104], Wed 15:30-17:00 [C104]</t>
+          <t>Mon 15:30-17:00 [C203], Wed 15:30-17:00 [C203]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
@@ -3871,7 +3921,7 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C202], Wed 15:30-17:00 [C202]</t>
+          <t>Mon 15:30-17:00 [C204], Wed 15:30-17:00 [C204]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
@@ -3904,7 +3954,7 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C203], Wed 15:30-17:00 [C203]</t>
+          <t>Mon 15:30-17:00 [C205], Wed 15:30-17:00 [C205]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
@@ -3937,7 +3987,7 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C204], Wed 15:30-17:00 [C204]</t>
+          <t>Mon 15:30-17:00 [C302], Wed 15:30-17:00 [C302]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
@@ -3960,4 +4010,8735 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>07:30-09:00</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MINOR: Generative Ai [C102]</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>MINOR: Cybersecurity [C102]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>MINOR: Design [C102]</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>MINOR: VLSI [C102]</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>MINOR: DSAI [C102]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>DS302 [C004]</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>DS302 [C004]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>CS307 [C004]</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>DS303 [C004]</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>DS303 [C004]</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>12:00-13:00</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CS307 [L407]</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>DS302 (Tutorial) [C004]</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>DS302 (Lab) [L207]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>CS307 (Lab) [L207]</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>DS303 (Tutorial) [C001]</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>DS302 (Lab) [L207]</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>CS307 (Lab) [L208]</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>MINOR: VLSI [C102]</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>MINOR: DSAI [C102]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>MINOR: Generative Ai [C102]</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>MINOR: Cybersecurity [C102]</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>MINOR: Design [C102]</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>COURSE INFORMATION</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>CORE COURSES</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Course Name [C004]</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>L-T-P-S-C [C004]</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Term Type [C004]</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Lectures Hrs [C004]</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Tutorials Hrs [C004]</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Machine Learning [C102]</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>3-0-2-0-4 [C102]</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Full Sem [C102]</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>3/3 [C102]</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0/0 [C102]</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>DS302</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Computer Communication [C204]</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>3-1-2-0-5 [C204]</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Full Sem [C204]</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>3/3 [C204]</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1/1 [C204]</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>DS303</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Algorithms and Data Structures [C204]</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4 [C204]</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Full Sem [C204]</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>3/3 [C204]</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1/1 [C204]</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>ELECTIVE BASKETS</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Course [C004]</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Course Code [C004]</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Lecture Slot - Classroom [C004]</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Tutorial Slot - Classroom [C004]</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>L-T-P-S-C [C004]</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Parallel computing [C004]</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>CS463 [C004]</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Tue 13:00-14:30 [C102], Thu 13:00-14:30 [C004]</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Wed 14:30-15:30 [C004]</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4 [C004]</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Parallel computing [C004]</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>CS463 [C004]</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Tue 13:00-14:30 [C102], Thu 13:00-14:30 [C004]</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Wed 14:30-15:30 [C004]</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4 [C004]</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Parallel computing [C004]</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>CS463 [C004]</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Tue 13:00-14:30 [C102], Thu 13:00-14:30 [C004]</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Wed 14:30-15:30 [C004]</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4 [C004]</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Parallel computing [C004]</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>CS463 [C004]</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Tue 13:00-14:30 [C102], Thu 13:00-14:30 [C004]</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Wed 14:30-15:30 [C004]</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4 [C004]</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Full Stack Development [C004]</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>DS359 [C004]</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Mon 15:30-17:00 [C101], Wed 15:30-17:00 [C004]</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Thu 14:30-15:30 [C004]</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4 [C004]</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Full Stack Development [C004]</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>DS359 [C004]</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Mon 15:30-17:00 [C101], Wed 15:30-17:00 [C004]</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Thu 14:30-15:30 [C004]</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4 [C004]</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Full Stack Development [C004]</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>DS359 [C004]</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Mon 15:30-17:00 [C101], Wed 15:30-17:00 [C004]</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Thu 14:30-15:30 [C004]</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4 [C004]</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Full Stack Development [C004]</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>DS359 [C004]</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Mon 15:30-17:00 [C101], Wed 15:30-17:00 [C004]</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Thu 14:30-15:30 [C004]</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4 [C004]</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Full Stack Development [C004]</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>DS359 [C004]</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Mon 15:30-17:00 [C101], Wed 15:30-17:00 [C004]</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Thu 14:30-15:30 [C004]</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4 [C004]</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Full Stack Development [C004]</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>DS359 [C004]</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Mon 15:30-17:00 [C101], Wed 15:30-17:00 [C004]</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Thu 14:30-15:30 [C004]</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4 [C004]</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Room Number</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Weekly Hours (Timetable)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Daily Avg Hours (Timetable)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Exam Sessions</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Utilization Rate (%)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>99</v>
+      </c>
+      <c r="E5" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>9</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>C103</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>library</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Computers, Books</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>L105</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>L106</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>L107</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>C201</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Examination room</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Tables, Chairs</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="n">
+        <v>3</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>L206</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>L207</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>L208</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>C301</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Physics Lab</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Physics Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>C306</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>EMPTY</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>C307</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>RESEARCH LAB</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>C308</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>RESEARCH LAB</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>L401</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>EMPTY</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>L402</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>L403</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>L404</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>L405</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>L406</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P87"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Branch</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Section</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Course</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Room Type</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Conflict</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Allocation Type</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Basket</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>room</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>course</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>session_type</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>conflict</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>07:30-09:00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>MINOR: Generative Ai</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>MINOR: Generative Ai</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>DS302</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>DS302</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>DS303</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>DS303</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>DS302 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J6" t="b">
+        <v>1</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>DS302 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>DS303 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>DS303 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>MINOR: VLSI</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>MINOR: VLSI</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Machine Learning</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Machine Learning</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>DS302</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Computer Communication</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J11" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Computer Communication</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>DS303</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Algorithms and Data Structures</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Algorithms and Data Structures</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Course</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J13" t="b">
+        <v>1</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Course</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>07:30-09:00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>MINOR: Cybersecurity</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J14" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>MINOR: Cybersecurity</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>DS302</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J15" t="b">
+        <v>1</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>DS302</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>DS303</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J16" t="b">
+        <v>1</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>DS303</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>DS302 (Lab)</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="J17" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>L207</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>DS302 (Lab)</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Lab</t>
+        </is>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>DS302 (Lab)</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="J18" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>L207</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>DS302 (Lab)</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Lab</t>
+        </is>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>MINOR: DSAI</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J19" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>MINOR: DSAI</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>L-T-P-S-C</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J20" t="b">
+        <v>1</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>L-T-P-S-C</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>5</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3-0-2-0-4</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J21" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>3-0-2-0-4</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>5</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>DS302</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3-1-2-0-5</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J22" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>3-1-2-0-5</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>5</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>DS303</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J23" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>5</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J24" t="b">
+        <v>1</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>5</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>07:30-09:00</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>MINOR: Design</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>MINOR: Design</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>5</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J26" t="b">
+        <v>1</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>5</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>MINOR: Generative Ai</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J27" t="b">
+        <v>0</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>MINOR: Generative Ai</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>5</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Term Type</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J28" t="b">
+        <v>1</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Term Type</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>5</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Full Sem</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Full Sem</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>5</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>DS302</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Full Sem</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J30" t="b">
+        <v>0</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Full Sem</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>5</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>DS303</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Full Sem</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J31" t="b">
+        <v>0</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Full Sem</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>5</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Lecture Slot - Classroom</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J32" t="b">
+        <v>1</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Lecture Slot - Classroom</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>5</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>07:30-09:00</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>MINOR: VLSI</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J33" t="b">
+        <v>0</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>MINOR: VLSI</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>5</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>CS307 (Lab)</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="J34" t="b">
+        <v>0</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>L207</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>CS307 (Lab)</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>Lab</t>
+        </is>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>5</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>CS307 (Lab)</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="J35" t="b">
+        <v>0</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>L208</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>CS307 (Lab)</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Lab</t>
+        </is>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>5</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>MINOR: Cybersecurity</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J36" t="b">
+        <v>0</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>MINOR: Cybersecurity</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>5</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Lectures Hrs</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J37" t="b">
+        <v>1</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>Lectures Hrs</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>5</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J38" t="b">
+        <v>0</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>5</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>DS302</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J39" t="b">
+        <v>0</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>5</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>DS303</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J40" t="b">
+        <v>0</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>5</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Tutorial Slot - Classroom</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J41" t="b">
+        <v>1</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>Tutorial Slot - Classroom</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>5</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>07:30-09:00</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>MINOR: DSAI</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J42" t="b">
+        <v>0</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>MINOR: DSAI</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>5</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>MINOR: Design</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J43" t="b">
+        <v>0</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>MINOR: Design</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>5</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Tutorials Hrs</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J44" t="b">
+        <v>1</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>Tutorials Hrs</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>5</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J45" t="b">
+        <v>0</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>5</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>DS302</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J46" t="b">
+        <v>0</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>5</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>DS303</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J47" t="b">
+        <v>0</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>5</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>L-T-P-S-C</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J48" t="b">
+        <v>1</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>L-T-P-S-C</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>5</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J49" t="b">
+        <v>0</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>5</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J50" t="b">
+        <v>0</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>5</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J51" t="b">
+        <v>0</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>5</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J52" t="b">
+        <v>0</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>5</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J53" t="b">
+        <v>0</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>5</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J54" t="b">
+        <v>0</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>5</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Parallel computing</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J55" t="b">
+        <v>1</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>Parallel computing</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>5</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Full Stack Development</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J56" t="b">
+        <v>1</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>Full Stack Development</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>5</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J57" t="b">
+        <v>0</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>5</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J58" t="b">
+        <v>0</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>5</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J59" t="b">
+        <v>0</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>5</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J60" t="b">
+        <v>0</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>5</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J61" t="b">
+        <v>1</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>5</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J62" t="b">
+        <v>1</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>5</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J63" t="b">
+        <v>0</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>5</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J64" t="b">
+        <v>0</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>5</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J65" t="b">
+        <v>0</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>5</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J66" t="b">
+        <v>0</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>5</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J67" t="b">
+        <v>0</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>5</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J68" t="b">
+        <v>0</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>5</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J69" t="b">
+        <v>0</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>5</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J70" t="b">
+        <v>0</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>5</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J71" t="b">
+        <v>0</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>5</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J72" t="b">
+        <v>0</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>5</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Tue 13:00-14:30 [C102], Thu 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J73" t="b">
+        <v>1</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>Tue 13:00-14:30 [C102], Thu 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>5</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Mon 15:30-17:00 [C101], Wed 15:30-17:00</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J74" t="b">
+        <v>1</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>Mon 15:30-17:00 [C101], Wed 15:30-17:00</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>5</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J75" t="b">
+        <v>0</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>5</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J76" t="b">
+        <v>0</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>5</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J77" t="b">
+        <v>0</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>5</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J78" t="b">
+        <v>0</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>5</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J79" t="b">
+        <v>0</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>5</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J80" t="b">
+        <v>0</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P80" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>5</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J81" t="b">
+        <v>0</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P81" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>5</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J82" t="b">
+        <v>0</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P82" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>5</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J83" t="b">
+        <v>0</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P83" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>5</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J84" t="b">
+        <v>0</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P84" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>5</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Wed 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J85" t="b">
+        <v>1</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>Wed 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr"/>
+      <c r="P85" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>5</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Thu 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J86" t="b">
+        <v>1</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>Thu 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr"/>
+      <c r="P86" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>5</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J87" t="b">
+        <v>1</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr"/>
+      <c r="P87" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Allocated Rooms</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>C004, C101</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>C004, C101</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/backend/output_timetables/sem5_DSAI_timetable.xlsx
+++ b/backend/output_timetables/sem5_DSAI_timetable.xlsx
@@ -741,7 +741,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -753,7 +753,8 @@
     <col width="40" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
     <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="35" customWidth="1" min="5" max="5"/>
+    <col width="25" customWidth="1" min="5" max="5"/>
+    <col width="35" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1" ht="25" customHeight="1">
@@ -793,6 +794,11 @@
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
+          <t>Faculty</t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="inlineStr">
+        <is>
           <t>Display Format</t>
         </is>
       </c>
@@ -820,6 +826,11 @@
       </c>
       <c r="E5" s="5" t="inlineStr">
         <is>
+          <t>Utkarsh Mahadeo Khaire, Siddharth R, Deepak K T</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
           <t>CS307 (3-0-2-0-4 | Full Sem)</t>
         </is>
       </c>
@@ -847,6 +858,11 @@
       </c>
       <c r="E6" s="5" t="inlineStr">
         <is>
+          <t>Shirshendu Layek</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
           <t>DS302 (3-1-2-0-5 | Full Sem)</t>
         </is>
       </c>
@@ -874,6 +890,11 @@
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
+          <t>Animesh Chaturvedi</t>
+        </is>
+      </c>
+      <c r="F7" s="5" t="inlineStr">
+        <is>
           <t>DS303 (3-1-0-0-4 | Full Sem)</t>
         </is>
       </c>
@@ -908,6 +929,11 @@
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
+          <t>Faculty</t>
+        </is>
+      </c>
+      <c r="F10" s="4" t="inlineStr">
+        <is>
           <t>Display Format</t>
         </is>
       </c>
@@ -935,6 +961,11 @@
       </c>
       <c r="E11" s="5" t="inlineStr">
         <is>
+          <t>Sandesh P</t>
+        </is>
+      </c>
+      <c r="F11" s="5" t="inlineStr">
+        <is>
           <t>ASD352 (3-1-0-0-4)</t>
         </is>
       </c>
@@ -962,6 +993,11 @@
       </c>
       <c r="E12" s="5" t="inlineStr">
         <is>
+          <t>Pavan Kumar</t>
+        </is>
+      </c>
+      <c r="F12" s="5" t="inlineStr">
+        <is>
           <t>CS308 (3-1-0-0-4)</t>
         </is>
       </c>
@@ -989,6 +1025,11 @@
       </c>
       <c r="E13" s="5" t="inlineStr">
         <is>
+          <t>Rajendra Hegadi</t>
+        </is>
+      </c>
+      <c r="F13" s="5" t="inlineStr">
+        <is>
           <t>CS352 (3-1-0-0-4)</t>
         </is>
       </c>
@@ -1016,6 +1057,11 @@
       </c>
       <c r="E14" s="5" t="inlineStr">
         <is>
+          <t>Suvadip</t>
+        </is>
+      </c>
+      <c r="F14" s="5" t="inlineStr">
+        <is>
           <t>CS366 (3-1-0-0-4)</t>
         </is>
       </c>
@@ -1043,6 +1089,11 @@
       </c>
       <c r="E15" s="5" t="inlineStr">
         <is>
+          <t>Pramod</t>
+        </is>
+      </c>
+      <c r="F15" s="5" t="inlineStr">
+        <is>
           <t>CS463 (3-1-0-0-4)</t>
         </is>
       </c>
@@ -1070,6 +1121,11 @@
       </c>
       <c r="E16" s="5" t="inlineStr">
         <is>
+          <t>Utkarsh K</t>
+        </is>
+      </c>
+      <c r="F16" s="5" t="inlineStr">
+        <is>
           <t>DS301 (3-1-0-0-4)</t>
         </is>
       </c>
@@ -1097,6 +1153,11 @@
       </c>
       <c r="E17" s="5" t="inlineStr">
         <is>
+          <t>Manjunath K V</t>
+        </is>
+      </c>
+      <c r="F17" s="5" t="inlineStr">
+        <is>
           <t>DS359 (3-1-0-0-4)</t>
         </is>
       </c>
@@ -1124,6 +1185,11 @@
       </c>
       <c r="E18" s="5" t="inlineStr">
         <is>
+          <t>Prakash Pawar</t>
+        </is>
+      </c>
+      <c r="F18" s="5" t="inlineStr">
+        <is>
           <t>EC355 (3-1-0-0-4)</t>
         </is>
       </c>
@@ -1151,6 +1217,11 @@
       </c>
       <c r="E19" s="5" t="inlineStr">
         <is>
+          <t>Pankaj Kumar</t>
+        </is>
+      </c>
+      <c r="F19" s="5" t="inlineStr">
+        <is>
           <t>EC364 (3-1-0-0-4)</t>
         </is>
       </c>
@@ -1178,15 +1249,20 @@
       </c>
       <c r="E20" s="5" t="inlineStr">
         <is>
+          <t>Sibasankar Padhy</t>
+        </is>
+      </c>
+      <c r="F20" s="5" t="inlineStr">
+        <is>
           <t>EC365 (3-1-0-0-4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A9:F9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1256,27 +1332,27 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C102]</t>
+          <t>MINOR: Generative Ai [C101]</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C102]</t>
+          <t>MINOR: Cybersecurity [C101]</t>
         </is>
       </c>
       <c r="D2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C102]</t>
+          <t>MINOR: Design [C101]</t>
         </is>
       </c>
       <c r="E2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C102]</t>
+          <t>MINOR: VLSI [C101]</t>
         </is>
       </c>
       <c r="F2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C102]</t>
+          <t>MINOR: DSAI [C101]</t>
         </is>
       </c>
       <c r="G2" s="8" t="n"/>
@@ -1289,17 +1365,17 @@
       </c>
       <c r="B3" s="9" t="inlineStr">
         <is>
-          <t>DS302 [C004]</t>
+          <t>DS302 [C304]</t>
         </is>
       </c>
       <c r="C3" s="9" t="inlineStr">
         <is>
-          <t>DS302 [L405]</t>
+          <t>DS302 [C304]</t>
         </is>
       </c>
       <c r="D3" s="10" t="inlineStr">
         <is>
-          <t>CS307 [C004]</t>
+          <t>CS307 [C304]</t>
         </is>
       </c>
       <c r="E3" s="8" t="inlineStr">
@@ -1322,12 +1398,12 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>DS303 [L404]</t>
+          <t>DS303 [C304]</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
         <is>
-          <t>DS303 [L405]</t>
+          <t>DS303 [C304]</t>
         </is>
       </c>
       <c r="D4" s="8" t="inlineStr">
@@ -1388,7 +1464,7 @@
       </c>
       <c r="B6" s="10" t="inlineStr">
         <is>
-          <t>CS307 [C003]</t>
+          <t>CS307 [C304]</t>
         </is>
       </c>
       <c r="C6" s="13" t="inlineStr">
@@ -1421,7 +1497,7 @@
       </c>
       <c r="B7" s="9" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial) [L405]</t>
+          <t>DS302 (Tutorial) [C304]</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
@@ -1459,7 +1535,7 @@
       </c>
       <c r="C8" s="9" t="inlineStr">
         <is>
-          <t>DS302 (Lab) [L207]</t>
+          <t>DS302 (Lab) [L107]</t>
         </is>
       </c>
       <c r="D8" s="14" t="inlineStr">
@@ -1492,7 +1568,7 @@
       </c>
       <c r="C9" s="9" t="inlineStr">
         <is>
-          <t>DS302 (Lab) [L207]</t>
+          <t>DS302 (Lab) [L107]</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
@@ -1520,27 +1596,27 @@
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C102]</t>
+          <t>MINOR: VLSI [C101]</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C102]</t>
+          <t>MINOR: DSAI [C101]</t>
         </is>
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C102]</t>
+          <t>MINOR: Generative Ai [C101]</t>
         </is>
       </c>
       <c r="E10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C102]</t>
+          <t>MINOR: Cybersecurity [C101]</t>
         </is>
       </c>
       <c r="F10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C102]</t>
+          <t>MINOR: Design [C101]</t>
         </is>
       </c>
       <c r="G10" s="8" t="n"/>
@@ -1810,7 +1886,7 @@
       </c>
       <c r="D22" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C102], Thu 13:00-14:30 [C102]</t>
+          <t>Tue 13:00-14:30 [C101], Thu 13:00-14:30 [C101]</t>
         </is>
       </c>
       <c r="E22" s="8" t="inlineStr">
@@ -1843,7 +1919,7 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C104], Thu 13:00-14:30 [C104]</t>
+          <t>Tue 13:00-14:30 [C102], Thu 13:00-14:30 [C102]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
@@ -1876,7 +1952,7 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C202], Thu 13:00-14:30 [C202]</t>
+          <t>Tue 13:00-14:30 [C104], Thu 13:00-14:30 [C104]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
@@ -1909,7 +1985,7 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C204], Thu 13:00-14:30 [C204]</t>
+          <t>Tue 13:00-14:30 [C202], Thu 13:00-14:30 [C202]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
@@ -1975,7 +2051,7 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C202], Wed 15:30-17:00 [C202]</t>
+          <t>Mon 15:30-17:00 [C102], Wed 15:30-17:00 [C102]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
@@ -2008,7 +2084,7 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C203], Wed 15:30-17:00 [C203]</t>
+          <t>Mon 15:30-17:00 [C104], Wed 15:30-17:00 [C104]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
@@ -2041,7 +2117,7 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C204], Wed 15:30-17:00 [C204]</t>
+          <t>Mon 15:30-17:00 [C202], Wed 15:30-17:00 [C202]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
@@ -2074,7 +2150,7 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C205], Wed 15:30-17:00 [C205]</t>
+          <t>Mon 15:30-17:00 [C203], Wed 15:30-17:00 [C203]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
@@ -2107,7 +2183,7 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C302], Wed 15:30-17:00 [C302]</t>
+          <t>Mon 15:30-17:00 [C204], Wed 15:30-17:00 [C204]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
@@ -2196,27 +2272,27 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C102]</t>
+          <t>MINOR: Generative Ai [C101]</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C102]</t>
+          <t>MINOR: Cybersecurity [C101]</t>
         </is>
       </c>
       <c r="D2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C102]</t>
+          <t>MINOR: Design [C101]</t>
         </is>
       </c>
       <c r="E2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C102]</t>
+          <t>MINOR: VLSI [C101]</t>
         </is>
       </c>
       <c r="F2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C102]</t>
+          <t>MINOR: DSAI [C101]</t>
         </is>
       </c>
       <c r="G2" s="8" t="n"/>
@@ -2229,17 +2305,17 @@
       </c>
       <c r="B3" s="9" t="inlineStr">
         <is>
-          <t>DS302 [C004]</t>
+          <t>DS302 [C305]</t>
         </is>
       </c>
       <c r="C3" s="9" t="inlineStr">
         <is>
-          <t>DS302 [L406]</t>
+          <t>DS302 [C305]</t>
         </is>
       </c>
       <c r="D3" s="10" t="inlineStr">
         <is>
-          <t>CS307 [C004]</t>
+          <t>CS307 [C305]</t>
         </is>
       </c>
       <c r="E3" s="8" t="inlineStr">
@@ -2262,12 +2338,12 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>DS303 [L405]</t>
+          <t>DS303 [C305]</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
         <is>
-          <t>DS303 [L406]</t>
+          <t>DS303 [C305]</t>
         </is>
       </c>
       <c r="D4" s="8" t="inlineStr">
@@ -2328,7 +2404,7 @@
       </c>
       <c r="B6" s="10" t="inlineStr">
         <is>
-          <t>CS307 [C004]</t>
+          <t>CS307 [C305]</t>
         </is>
       </c>
       <c r="C6" s="13" t="inlineStr">
@@ -2361,7 +2437,7 @@
       </c>
       <c r="B7" s="9" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial) [L406]</t>
+          <t>DS302 (Tutorial) [C305]</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
@@ -2399,7 +2475,7 @@
       </c>
       <c r="C8" s="9" t="inlineStr">
         <is>
-          <t>DS302 (Lab) [L207]</t>
+          <t>DS302 (Lab) [L107]</t>
         </is>
       </c>
       <c r="D8" s="14" t="inlineStr">
@@ -2409,7 +2485,7 @@
       </c>
       <c r="E8" s="10" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L207]</t>
+          <t>CS307 (Lab) [L106]</t>
         </is>
       </c>
       <c r="F8" s="8" t="inlineStr">
@@ -2432,7 +2508,7 @@
       </c>
       <c r="C9" s="9" t="inlineStr">
         <is>
-          <t>DS302 (Lab) [L207]</t>
+          <t>DS302 (Lab) [L107]</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
@@ -2442,7 +2518,7 @@
       </c>
       <c r="E9" s="10" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L207]</t>
+          <t>CS307 (Lab) [L106]</t>
         </is>
       </c>
       <c r="F9" s="8" t="inlineStr">
@@ -2460,27 +2536,27 @@
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C102]</t>
+          <t>MINOR: VLSI [C101]</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C102]</t>
+          <t>MINOR: DSAI [C101]</t>
         </is>
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C102]</t>
+          <t>MINOR: Generative Ai [C101]</t>
         </is>
       </c>
       <c r="E10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C102]</t>
+          <t>MINOR: Cybersecurity [C101]</t>
         </is>
       </c>
       <c r="F10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C102]</t>
+          <t>MINOR: Design [C101]</t>
         </is>
       </c>
       <c r="G10" s="8" t="n"/>
@@ -2750,7 +2826,7 @@
       </c>
       <c r="D22" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C102], Thu 13:00-14:30 [C102]</t>
+          <t>Tue 13:00-14:30 [C101], Thu 13:00-14:30 [C101]</t>
         </is>
       </c>
       <c r="E22" s="8" t="inlineStr">
@@ -2783,7 +2859,7 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C104], Thu 13:00-14:30 [C104]</t>
+          <t>Tue 13:00-14:30 [C102], Thu 13:00-14:30 [C102]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
@@ -2816,7 +2892,7 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C202], Thu 13:00-14:30 [C202]</t>
+          <t>Tue 13:00-14:30 [C104], Thu 13:00-14:30 [C104]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
@@ -2849,7 +2925,7 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C204], Thu 13:00-14:30 [C204]</t>
+          <t>Tue 13:00-14:30 [C202], Thu 13:00-14:30 [C202]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
@@ -2915,7 +2991,7 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C202], Wed 15:30-17:00 [C202]</t>
+          <t>Mon 15:30-17:00 [C102], Wed 15:30-17:00 [C102]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
@@ -2948,7 +3024,7 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C203], Wed 15:30-17:00 [C203]</t>
+          <t>Mon 15:30-17:00 [C104], Wed 15:30-17:00 [C104]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
@@ -2981,7 +3057,7 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C204], Wed 15:30-17:00 [C204]</t>
+          <t>Mon 15:30-17:00 [C202], Wed 15:30-17:00 [C202]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
@@ -3014,7 +3090,7 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C205], Wed 15:30-17:00 [C205]</t>
+          <t>Mon 15:30-17:00 [C203], Wed 15:30-17:00 [C203]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
@@ -3047,7 +3123,7 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C302], Wed 15:30-17:00 [C302]</t>
+          <t>Mon 15:30-17:00 [C204], Wed 15:30-17:00 [C204]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
@@ -3136,27 +3212,27 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C102]</t>
+          <t>MINOR: Generative Ai [C101]</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C102]</t>
+          <t>MINOR: Cybersecurity [C101]</t>
         </is>
       </c>
       <c r="D2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C102]</t>
+          <t>MINOR: Design [C101]</t>
         </is>
       </c>
       <c r="E2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C102]</t>
+          <t>MINOR: VLSI [C101]</t>
         </is>
       </c>
       <c r="F2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C102]</t>
+          <t>MINOR: DSAI [C101]</t>
         </is>
       </c>
       <c r="G2" s="8" t="n"/>
@@ -3169,17 +3245,17 @@
       </c>
       <c r="B3" s="9" t="inlineStr">
         <is>
-          <t>DS302 [C004]</t>
+          <t>DS302 [C102]</t>
         </is>
       </c>
       <c r="C3" s="9" t="inlineStr">
         <is>
-          <t>DS302 [L407]</t>
+          <t>DS302 [C102]</t>
         </is>
       </c>
       <c r="D3" s="10" t="inlineStr">
         <is>
-          <t>CS307 [C004]</t>
+          <t>CS307 [C102]</t>
         </is>
       </c>
       <c r="E3" s="8" t="inlineStr">
@@ -3202,12 +3278,12 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>DS303 [L406]</t>
+          <t>DS303 [C102]</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
         <is>
-          <t>DS303 [L407]</t>
+          <t>DS303 [C102]</t>
         </is>
       </c>
       <c r="D4" s="8" t="inlineStr">
@@ -3268,7 +3344,7 @@
       </c>
       <c r="B6" s="10" t="inlineStr">
         <is>
-          <t>CS307 [L402]</t>
+          <t>CS307 [C102]</t>
         </is>
       </c>
       <c r="C6" s="13" t="inlineStr">
@@ -3301,7 +3377,7 @@
       </c>
       <c r="B7" s="9" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial) [L407]</t>
+          <t>DS302 (Tutorial) [C102]</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
@@ -3339,7 +3415,7 @@
       </c>
       <c r="C8" s="9" t="inlineStr">
         <is>
-          <t>DS302 (Lab) [L207]</t>
+          <t>DS302 (Lab) [L107]</t>
         </is>
       </c>
       <c r="D8" s="14" t="inlineStr">
@@ -3349,7 +3425,7 @@
       </c>
       <c r="E8" s="10" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L207]</t>
+          <t>CS307 (Lab) [L106]</t>
         </is>
       </c>
       <c r="F8" s="8" t="inlineStr">
@@ -3372,7 +3448,7 @@
       </c>
       <c r="C9" s="9" t="inlineStr">
         <is>
-          <t>DS302 (Lab) [L207]</t>
+          <t>DS302 (Lab) [L107]</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
@@ -3382,7 +3458,7 @@
       </c>
       <c r="E9" s="10" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L207]</t>
+          <t>CS307 (Lab) [L106]</t>
         </is>
       </c>
       <c r="F9" s="8" t="inlineStr">
@@ -3400,27 +3476,27 @@
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C102]</t>
+          <t>MINOR: VLSI [C101]</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C102]</t>
+          <t>MINOR: DSAI [C101]</t>
         </is>
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C102]</t>
+          <t>MINOR: Generative Ai [C101]</t>
         </is>
       </c>
       <c r="E10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C102]</t>
+          <t>MINOR: Cybersecurity [C101]</t>
         </is>
       </c>
       <c r="F10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C102]</t>
+          <t>MINOR: Design [C101]</t>
         </is>
       </c>
       <c r="G10" s="8" t="n"/>
@@ -3690,7 +3766,7 @@
       </c>
       <c r="D22" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C102], Thu 13:00-14:30 [C102]</t>
+          <t>Tue 13:00-14:30 [C101], Thu 13:00-14:30 [C101]</t>
         </is>
       </c>
       <c r="E22" s="8" t="inlineStr">
@@ -3723,7 +3799,7 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C104], Thu 13:00-14:30 [C104]</t>
+          <t>Tue 13:00-14:30 [C102], Thu 13:00-14:30 [C102]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
@@ -3756,7 +3832,7 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C202], Thu 13:00-14:30 [C202]</t>
+          <t>Tue 13:00-14:30 [C104], Thu 13:00-14:30 [C104]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
@@ -3789,7 +3865,7 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C204], Thu 13:00-14:30 [C204]</t>
+          <t>Tue 13:00-14:30 [C202], Thu 13:00-14:30 [C202]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
@@ -3855,7 +3931,7 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C202], Wed 15:30-17:00 [C202]</t>
+          <t>Mon 15:30-17:00 [C102], Wed 15:30-17:00 [C102]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
@@ -3888,7 +3964,7 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C203], Wed 15:30-17:00 [C203]</t>
+          <t>Mon 15:30-17:00 [C104], Wed 15:30-17:00 [C104]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
@@ -3921,7 +3997,7 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C204], Wed 15:30-17:00 [C204]</t>
+          <t>Mon 15:30-17:00 [C202], Wed 15:30-17:00 [C202]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
@@ -3954,7 +4030,7 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C205], Wed 15:30-17:00 [C205]</t>
+          <t>Mon 15:30-17:00 [C203], Wed 15:30-17:00 [C203]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
@@ -3987,7 +4063,7 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C302], Wed 15:30-17:00 [C302]</t>
+          <t>Mon 15:30-17:00 [C204], Wed 15:30-17:00 [C204]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
@@ -4066,27 +4142,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C102]</t>
+          <t>MINOR: Generative Ai [C101]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C102]</t>
+          <t>MINOR: Cybersecurity [C101]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MINOR: Design [C102]</t>
+          <t>MINOR: Design [C101]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C102]</t>
+          <t>MINOR: VLSI [C101]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C102]</t>
+          <t>MINOR: DSAI [C101]</t>
         </is>
       </c>
     </row>
@@ -4226,7 +4302,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial) [C004]</t>
+          <t>DS302 (Tutorial) [L407]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -4263,7 +4339,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DS302 (Lab) [L207]</t>
+          <t>DS302 (Lab) [L107]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -4273,7 +4349,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L207]</t>
+          <t>CS307 (Lab) [L106]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -4290,12 +4366,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DS303 (Tutorial) [C001]</t>
+          <t>DS303 (Tutorial) [C104]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DS302 (Lab) [L207]</t>
+          <t>DS302 (Lab) [C004]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -4305,7 +4381,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L208]</t>
+          <t>CS307 (Lab) [C004]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -4322,27 +4398,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C102]</t>
+          <t>MINOR: VLSI [C101]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C102]</t>
+          <t>MINOR: DSAI [C101]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C102]</t>
+          <t>MINOR: Generative Ai [C101]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C102]</t>
+          <t>MINOR: Cybersecurity [C101]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MINOR: Design [C102]</t>
+          <t>MINOR: Design [C101]</t>
         </is>
       </c>
     </row>
@@ -4596,7 +4672,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C102], Thu 13:00-14:30 [C004]</t>
+          <t>Tue 13:00-14:30 [C101], Thu 13:00-14:30 [C004]</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -4628,7 +4704,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C102], Thu 13:00-14:30 [C004]</t>
+          <t>Tue 13:00-14:30 [C101], Thu 13:00-14:30 [C004]</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -4660,7 +4736,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C102], Thu 13:00-14:30 [C004]</t>
+          <t>Tue 13:00-14:30 [C101], Thu 13:00-14:30 [C004]</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -4692,7 +4768,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C102], Thu 13:00-14:30 [C004]</t>
+          <t>Tue 13:00-14:30 [C101], Thu 13:00-14:30 [C004]</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -4976,10 +5052,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -5074,10 +5150,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>99</v>
+        <v>100.5</v>
       </c>
       <c r="E5" t="n">
-        <v>19.8</v>
+        <v>20.1</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -5108,10 +5184,10 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="E6" t="n">
-        <v>1.8</v>
+        <v>6</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -5142,10 +5218,10 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>28.5</v>
+        <v>7.5</v>
       </c>
       <c r="E7" t="n">
-        <v>5.7</v>
+        <v>1.5</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -5210,10 +5286,10 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -5278,10 +5354,10 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -5312,10 +5388,10 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -5550,10 +5626,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -5584,10 +5660,10 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -6108,10 +6184,10 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="E36" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -6315,7 +6391,7 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -6579,21 +6655,21 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -6603,7 +6679,7 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -6617,7 +6693,7 @@
         </is>
       </c>
       <c r="P6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -6651,15 +6727,19 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J7" t="b">
         <v>0</v>
       </c>
@@ -6671,7 +6751,7 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -6743,7 +6823,7 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -7175,7 +7255,7 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -7391,7 +7471,7 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -7439,21 +7519,21 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -7463,7 +7543,7 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -7477,7 +7557,7 @@
         </is>
       </c>
       <c r="P18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -7535,7 +7615,7 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -7967,7 +8047,7 @@
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -8111,7 +8191,7 @@
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -8543,7 +8623,7 @@
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -8615,7 +8695,7 @@
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -8663,21 +8743,21 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -8687,7 +8767,7 @@
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
-          <t>L208</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -8701,7 +8781,7 @@
         </is>
       </c>
       <c r="P35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -8759,7 +8839,7 @@
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -9191,7 +9271,7 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -9263,7 +9343,7 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -9681,7 +9761,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J49" t="b">
@@ -9699,7 +9779,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -9752,12 +9832,12 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J50" t="b">
@@ -9775,7 +9855,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -9828,12 +9908,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J51" t="b">
@@ -9851,7 +9931,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -9904,12 +9984,12 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J52" t="b">
@@ -9927,7 +10007,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -9980,7 +10060,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -10003,7 +10083,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -10056,7 +10136,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -10079,7 +10159,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -10291,7 +10371,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -10339,12 +10419,12 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -10367,7 +10447,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -10420,12 +10500,12 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J59" t="b">
@@ -10443,7 +10523,7 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -10496,12 +10576,12 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J60" t="b">
@@ -10519,7 +10599,7 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -10941,7 +11021,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J66" t="b">
@@ -10959,7 +11039,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -11017,7 +11097,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J67" t="b">
@@ -11035,7 +11115,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -11083,19 +11163,15 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="b">
         <v>0</v>
       </c>
@@ -11111,7 +11187,7 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -11159,12 +11235,12 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -11187,7 +11263,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -11235,12 +11311,12 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -11263,7 +11339,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -11316,7 +11392,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -11339,7 +11415,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
@@ -11392,7 +11468,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -11415,7 +11491,7 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
@@ -11458,7 +11534,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C102], Thu 13:00-14:30</t>
+          <t>Tue 13:00-14:30 [C101], Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -11492,7 +11568,7 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C102], Thu 13:00-14:30</t>
+          <t>Tue 13:00-14:30 [C101], Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="O73" t="inlineStr"/>
@@ -12217,7 +12293,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J83" t="b">
@@ -12235,7 +12311,7 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
@@ -12311,7 +12387,7 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
@@ -12581,7 +12657,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C004, C101</t>
+          <t>C004, C101, C104</t>
         </is>
       </c>
     </row>
@@ -12598,7 +12674,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C002, C102</t>
         </is>
       </c>
     </row>
@@ -12615,7 +12691,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C104, L402</t>
         </is>
       </c>
     </row>
@@ -12632,7 +12708,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C202, C203, L403</t>
         </is>
       </c>
     </row>
@@ -12649,7 +12725,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C004, C101</t>
+          <t>C004, C101, C305</t>
         </is>
       </c>
     </row>
@@ -12666,7 +12742,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C001, C102, L402</t>
         </is>
       </c>
     </row>
@@ -12683,7 +12759,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C002, C104, L403</t>
         </is>
       </c>
     </row>
@@ -12700,7 +12776,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C003, C202, L404</t>
         </is>
       </c>
     </row>
@@ -12717,7 +12793,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C104, L402, L405</t>
         </is>
       </c>
     </row>
@@ -12734,7 +12810,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C203, L403, L406</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem5_DSAI_timetable.xlsx
+++ b/backend/output_timetables/sem5_DSAI_timetable.xlsx
@@ -308,10 +308,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -826,7 +826,7 @@
       </c>
       <c r="E5" s="5" t="inlineStr">
         <is>
-          <t>Utkarsh Mahadeo Khaire, Siddharth R, Deepak K T</t>
+          <t>Utkarsh K, Siddharth, Deepak K T</t>
         </is>
       </c>
       <c r="F5" s="5" t="inlineStr">
@@ -1332,27 +1332,27 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C101]</t>
+          <t>MINOR: Generative Ai [C104]</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C101]</t>
+          <t>MINOR: Cybersecurity [C104]</t>
         </is>
       </c>
       <c r="D2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C101]</t>
+          <t>MINOR: Design [C104]</t>
         </is>
       </c>
       <c r="E2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C104]</t>
         </is>
       </c>
       <c r="F2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C101]</t>
+          <t>MINOR: DSAI [C104]</t>
         </is>
       </c>
       <c r="G2" s="8" t="n"/>
@@ -1365,17 +1365,17 @@
       </c>
       <c r="B3" s="9" t="inlineStr">
         <is>
-          <t>DS302 [C304]</t>
+          <t>DS302</t>
         </is>
       </c>
       <c r="C3" s="9" t="inlineStr">
         <is>
-          <t>DS302 [C304]</t>
+          <t>DS302</t>
         </is>
       </c>
       <c r="D3" s="10" t="inlineStr">
         <is>
-          <t>CS307 [C304]</t>
+          <t>DS303</t>
         </is>
       </c>
       <c r="E3" s="8" t="inlineStr">
@@ -1396,14 +1396,14 @@
           <t>10:30-12:00</t>
         </is>
       </c>
-      <c r="B4" s="11" t="inlineStr">
-        <is>
-          <t>DS303 [C304]</t>
+      <c r="B4" s="10" t="inlineStr">
+        <is>
+          <t>DS303</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
         <is>
-          <t>DS303 [C304]</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="D4" s="8" t="inlineStr">
@@ -1462,9 +1462,9 @@
           <t>13:00-14:30</t>
         </is>
       </c>
-      <c r="B6" s="10" t="inlineStr">
-        <is>
-          <t>CS307 [C304]</t>
+      <c r="B6" s="11" t="inlineStr">
+        <is>
+          <t>CS307</t>
         </is>
       </c>
       <c r="C6" s="13" t="inlineStr">
@@ -1482,9 +1482,9 @@
           <t>ELECTIVE_B4</t>
         </is>
       </c>
-      <c r="F6" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
+      <c r="F6" s="11" t="inlineStr">
+        <is>
+          <t>CS307 (Lab) [L208]</t>
         </is>
       </c>
       <c r="G6" s="8" t="n"/>
@@ -1497,12 +1497,12 @@
       </c>
       <c r="B7" s="9" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial) [C304]</t>
-        </is>
-      </c>
-      <c r="C7" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
+          <t>DS302 (Tutorial) [C002]</t>
+        </is>
+      </c>
+      <c r="C7" s="10" t="inlineStr">
+        <is>
+          <t>DS303 (Tutorial) [L406]</t>
         </is>
       </c>
       <c r="D7" s="13" t="inlineStr">
@@ -1515,9 +1515,9 @@
           <t>ELECTIVE_B5 (Tutorial)</t>
         </is>
       </c>
-      <c r="F7" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
+      <c r="F7" s="11" t="inlineStr">
+        <is>
+          <t>CS307 (Lab) [L208]</t>
         </is>
       </c>
       <c r="G7" s="8" t="n"/>
@@ -1535,7 +1535,7 @@
       </c>
       <c r="C8" s="9" t="inlineStr">
         <is>
-          <t>DS302 (Lab) [L107]</t>
+          <t>DS302 (Lab)</t>
         </is>
       </c>
       <c r="D8" s="14" t="inlineStr">
@@ -1543,9 +1543,9 @@
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="E8" s="10" t="inlineStr">
-        <is>
-          <t>CS307 (Lab) [L106]</t>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
         </is>
       </c>
       <c r="F8" s="8" t="inlineStr">
@@ -1561,14 +1561,14 @@
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B9" s="11" t="inlineStr">
-        <is>
-          <t>DS303 (Tutorial) [C304]</t>
+      <c r="B9" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
         </is>
       </c>
       <c r="C9" s="9" t="inlineStr">
         <is>
-          <t>DS302 (Lab) [L107]</t>
+          <t>DS302 (Lab) [C303]</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
@@ -1576,9 +1576,9 @@
           <t>Free</t>
         </is>
       </c>
-      <c r="E9" s="10" t="inlineStr">
-        <is>
-          <t>CS307 (Lab) [L106]</t>
+      <c r="E9" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
         </is>
       </c>
       <c r="F9" s="8" t="inlineStr">
@@ -1596,27 +1596,27 @@
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C104]</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C101]</t>
+          <t>MINOR: DSAI [C104]</t>
         </is>
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C101]</t>
+          <t>MINOR: Generative Ai [C202]</t>
         </is>
       </c>
       <c r="E10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C101]</t>
+          <t>MINOR: Cybersecurity [C104]</t>
         </is>
       </c>
       <c r="F10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C101]</t>
+          <t>MINOR: Design [C104]</t>
         </is>
       </c>
       <c r="G10" s="8" t="n"/>
@@ -1886,12 +1886,12 @@
       </c>
       <c r="D22" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C101], Thu 13:00-14:30 [C101]</t>
+          <t>Tue 13:00-14:30 [C205], Thu 13:00-14:30 [C205]</t>
         </is>
       </c>
       <c r="E22" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C101]</t>
+          <t>Wed 14:30-15:30 [C304]</t>
         </is>
       </c>
       <c r="F22" s="8" t="inlineStr">
@@ -1919,12 +1919,12 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C102], Thu 13:00-14:30 [C102]</t>
+          <t>Tue 13:00-14:30 [C302], Thu 13:00-14:30 [C302]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C102]</t>
+          <t>Wed 14:30-15:30 [C305]</t>
         </is>
       </c>
       <c r="F23" s="8" t="inlineStr">
@@ -1952,12 +1952,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C104], Thu 13:00-14:30 [C104]</t>
+          <t>Tue 13:00-14:30 [C303], Thu 13:00-14:30 [C303]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C104]</t>
+          <t>Wed 14:30-15:30 [C001]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -1985,12 +1985,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C202], Thu 13:00-14:30 [C202]</t>
+          <t>Tue 13:00-14:30 [C304], Thu 13:00-14:30 [C304]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C202]</t>
+          <t>Wed 14:30-15:30 [C002]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -2018,12 +2018,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C101], Wed 15:30-17:00 [C101]</t>
+          <t>Mon 15:30-17:00 [C304], Wed 15:30-17:00 [C304]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C101]</t>
+          <t>Thu 14:30-15:30 [C302]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -2051,12 +2051,12 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C102], Wed 15:30-17:00 [C102]</t>
+          <t>Mon 15:30-17:00 [C305], Wed 15:30-17:00 [C305]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C102]</t>
+          <t>Thu 14:30-15:30 [C303]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -2084,12 +2084,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C104], Wed 15:30-17:00 [C104]</t>
+          <t>Mon 15:30-17:00 [C002], Wed 15:30-17:00 [C002]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C104]</t>
+          <t>Thu 14:30-15:30 [C304]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -2117,12 +2117,12 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C202], Wed 15:30-17:00 [C202]</t>
+          <t>Mon 15:30-17:00 [C003], Wed 15:30-17:00 [C003]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C202]</t>
+          <t>Thu 14:30-15:30 [C305]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -2150,12 +2150,12 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C203], Wed 15:30-17:00 [C203]</t>
+          <t>Mon 15:30-17:00 [L403], Wed 15:30-17:00 [L403]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C203]</t>
+          <t>Thu 14:30-15:30 [L402]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -2183,12 +2183,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C204], Wed 15:30-17:00 [C204]</t>
+          <t>Mon 15:30-17:00 [L404], Wed 15:30-17:00 [L404]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C204]</t>
+          <t>Thu 14:30-15:30 [L403]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -2272,27 +2272,27 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C101]</t>
+          <t>MINOR: Generative Ai [C104]</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C101]</t>
+          <t>MINOR: Cybersecurity [C104]</t>
         </is>
       </c>
       <c r="D2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C101]</t>
+          <t>MINOR: Design [C104]</t>
         </is>
       </c>
       <c r="E2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C104]</t>
         </is>
       </c>
       <c r="F2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C101]</t>
+          <t>MINOR: DSAI [C104]</t>
         </is>
       </c>
       <c r="G2" s="8" t="n"/>
@@ -2303,19 +2303,19 @@
           <t>09:00-10:30</t>
         </is>
       </c>
-      <c r="B3" s="9" t="inlineStr">
-        <is>
-          <t>DS302 [C305]</t>
-        </is>
-      </c>
-      <c r="C3" s="9" t="inlineStr">
-        <is>
-          <t>DS302 [C305]</t>
-        </is>
-      </c>
-      <c r="D3" s="10" t="inlineStr">
-        <is>
-          <t>CS307 [C305]</t>
+      <c r="B3" s="10" t="inlineStr">
+        <is>
+          <t>DS303</t>
+        </is>
+      </c>
+      <c r="C3" s="10" t="inlineStr">
+        <is>
+          <t>DS303</t>
+        </is>
+      </c>
+      <c r="D3" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
         </is>
       </c>
       <c r="E3" s="8" t="inlineStr">
@@ -2336,14 +2336,14 @@
           <t>10:30-12:00</t>
         </is>
       </c>
-      <c r="B4" s="11" t="inlineStr">
-        <is>
-          <t>DS303 [C305]</t>
-        </is>
-      </c>
-      <c r="C4" s="11" t="inlineStr">
-        <is>
-          <t>DS303 [C305]</t>
+      <c r="B4" s="9" t="inlineStr">
+        <is>
+          <t>DS302</t>
+        </is>
+      </c>
+      <c r="C4" s="9" t="inlineStr">
+        <is>
+          <t>DS302</t>
         </is>
       </c>
       <c r="D4" s="8" t="inlineStr">
@@ -2402,9 +2402,9 @@
           <t>13:00-14:30</t>
         </is>
       </c>
-      <c r="B6" s="10" t="inlineStr">
-        <is>
-          <t>CS307 [C305]</t>
+      <c r="B6" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
         </is>
       </c>
       <c r="C6" s="13" t="inlineStr">
@@ -2412,9 +2412,9 @@
           <t>ELECTIVE_B4</t>
         </is>
       </c>
-      <c r="D6" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
+      <c r="D6" s="11" t="inlineStr">
+        <is>
+          <t>CS307 [L407]</t>
         </is>
       </c>
       <c r="E6" s="13" t="inlineStr">
@@ -2435,9 +2435,9 @@
           <t>14:30-15:30</t>
         </is>
       </c>
-      <c r="B7" s="9" t="inlineStr">
-        <is>
-          <t>DS302 (Tutorial) [C305]</t>
+      <c r="B7" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
@@ -2473,9 +2473,9 @@
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="C8" s="9" t="inlineStr">
-        <is>
-          <t>DS302 (Lab) [L107]</t>
+      <c r="C8" s="11" t="inlineStr">
+        <is>
+          <t>CS307 [L406]</t>
         </is>
       </c>
       <c r="D8" s="14" t="inlineStr">
@@ -2483,9 +2483,9 @@
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="E8" s="10" t="inlineStr">
-        <is>
-          <t>CS307 (Lab) [L106]</t>
+      <c r="E8" s="9" t="inlineStr">
+        <is>
+          <t>DS302 (Lab) [C303]</t>
         </is>
       </c>
       <c r="F8" s="8" t="inlineStr">
@@ -2501,14 +2501,14 @@
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B9" s="11" t="inlineStr">
-        <is>
-          <t>DS303 (Tutorial) [C305]</t>
-        </is>
-      </c>
-      <c r="C9" s="9" t="inlineStr">
-        <is>
-          <t>DS302 (Lab) [L107]</t>
+      <c r="B9" s="9" t="inlineStr">
+        <is>
+          <t>DS302 (Tutorial) [L403]</t>
+        </is>
+      </c>
+      <c r="C9" s="10" t="inlineStr">
+        <is>
+          <t>DS303 (Tutorial) [L406]</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
@@ -2516,9 +2516,9 @@
           <t>Free</t>
         </is>
       </c>
-      <c r="E9" s="10" t="inlineStr">
-        <is>
-          <t>CS307 (Lab) [L106]</t>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>DS302 (Lab) [C303]</t>
         </is>
       </c>
       <c r="F9" s="8" t="inlineStr">
@@ -2536,27 +2536,27 @@
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C104]</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C101]</t>
+          <t>MINOR: DSAI [C104]</t>
         </is>
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C101]</t>
+          <t>MINOR: Generative Ai [C202]</t>
         </is>
       </c>
       <c r="E10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C101]</t>
+          <t>MINOR: Cybersecurity [C104]</t>
         </is>
       </c>
       <c r="F10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C101]</t>
+          <t>MINOR: Design [C104]</t>
         </is>
       </c>
       <c r="G10" s="8" t="n"/>
@@ -2826,12 +2826,12 @@
       </c>
       <c r="D22" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C101], Thu 13:00-14:30 [C101]</t>
+          <t>Tue 13:00-14:30 [C205], Thu 13:00-14:30 [C205]</t>
         </is>
       </c>
       <c r="E22" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C101]</t>
+          <t>Wed 14:30-15:30 [C304]</t>
         </is>
       </c>
       <c r="F22" s="8" t="inlineStr">
@@ -2859,12 +2859,12 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C102], Thu 13:00-14:30 [C102]</t>
+          <t>Tue 13:00-14:30 [C302], Thu 13:00-14:30 [C302]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C102]</t>
+          <t>Wed 14:30-15:30 [C305]</t>
         </is>
       </c>
       <c r="F23" s="8" t="inlineStr">
@@ -2892,12 +2892,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C104], Thu 13:00-14:30 [C104]</t>
+          <t>Tue 13:00-14:30 [C303], Thu 13:00-14:30 [C303]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C104]</t>
+          <t>Wed 14:30-15:30 [C001]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -2925,12 +2925,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C202], Thu 13:00-14:30 [C202]</t>
+          <t>Tue 13:00-14:30 [C304], Thu 13:00-14:30 [C304]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C202]</t>
+          <t>Wed 14:30-15:30 [C002]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -2958,12 +2958,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C101], Wed 15:30-17:00 [C101]</t>
+          <t>Mon 15:30-17:00 [C304], Wed 15:30-17:00 [C304]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C101]</t>
+          <t>Thu 14:30-15:30 [C302]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -2991,12 +2991,12 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C102], Wed 15:30-17:00 [C102]</t>
+          <t>Mon 15:30-17:00 [C305], Wed 15:30-17:00 [C305]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C102]</t>
+          <t>Thu 14:30-15:30 [C303]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -3024,12 +3024,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C104], Wed 15:30-17:00 [C104]</t>
+          <t>Mon 15:30-17:00 [C002], Wed 15:30-17:00 [C002]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C104]</t>
+          <t>Thu 14:30-15:30 [C304]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -3057,12 +3057,12 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C202], Wed 15:30-17:00 [C202]</t>
+          <t>Mon 15:30-17:00 [C003], Wed 15:30-17:00 [C003]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C202]</t>
+          <t>Thu 14:30-15:30 [C305]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -3090,12 +3090,12 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C203], Wed 15:30-17:00 [C203]</t>
+          <t>Mon 15:30-17:00 [L403], Wed 15:30-17:00 [L403]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C203]</t>
+          <t>Thu 14:30-15:30 [L402]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -3123,12 +3123,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C204], Wed 15:30-17:00 [C204]</t>
+          <t>Mon 15:30-17:00 [L404], Wed 15:30-17:00 [L404]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C204]</t>
+          <t>Thu 14:30-15:30 [L403]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -3212,27 +3212,27 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C101]</t>
+          <t>MINOR: Generative Ai [C104]</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C101]</t>
+          <t>MINOR: Cybersecurity [C104]</t>
         </is>
       </c>
       <c r="D2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C101]</t>
+          <t>MINOR: Design [C104]</t>
         </is>
       </c>
       <c r="E2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C104]</t>
         </is>
       </c>
       <c r="F2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C101]</t>
+          <t>MINOR: DSAI [C104]</t>
         </is>
       </c>
       <c r="G2" s="8" t="n"/>
@@ -3243,19 +3243,19 @@
           <t>09:00-10:30</t>
         </is>
       </c>
-      <c r="B3" s="9" t="inlineStr">
-        <is>
-          <t>DS302 [C102]</t>
-        </is>
-      </c>
-      <c r="C3" s="9" t="inlineStr">
-        <is>
-          <t>DS302 [C102]</t>
-        </is>
-      </c>
-      <c r="D3" s="10" t="inlineStr">
-        <is>
-          <t>CS307 [C102]</t>
+      <c r="B3" s="10" t="inlineStr">
+        <is>
+          <t>DS303</t>
+        </is>
+      </c>
+      <c r="C3" s="10" t="inlineStr">
+        <is>
+          <t>DS303</t>
+        </is>
+      </c>
+      <c r="D3" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
         </is>
       </c>
       <c r="E3" s="8" t="inlineStr">
@@ -3276,14 +3276,14 @@
           <t>10:30-12:00</t>
         </is>
       </c>
-      <c r="B4" s="11" t="inlineStr">
-        <is>
-          <t>DS303 [C102]</t>
-        </is>
-      </c>
-      <c r="C4" s="11" t="inlineStr">
-        <is>
-          <t>DS303 [C102]</t>
+      <c r="B4" s="9" t="inlineStr">
+        <is>
+          <t>DS302</t>
+        </is>
+      </c>
+      <c r="C4" s="9" t="inlineStr">
+        <is>
+          <t>DS302</t>
         </is>
       </c>
       <c r="D4" s="8" t="inlineStr">
@@ -3342,9 +3342,9 @@
           <t>13:00-14:30</t>
         </is>
       </c>
-      <c r="B6" s="10" t="inlineStr">
-        <is>
-          <t>CS307 [C102]</t>
+      <c r="B6" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
         </is>
       </c>
       <c r="C6" s="13" t="inlineStr">
@@ -3352,9 +3352,9 @@
           <t>ELECTIVE_B4</t>
         </is>
       </c>
-      <c r="D6" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
+      <c r="D6" s="11" t="inlineStr">
+        <is>
+          <t>CS307 [L408]</t>
         </is>
       </c>
       <c r="E6" s="13" t="inlineStr">
@@ -3375,9 +3375,9 @@
           <t>14:30-15:30</t>
         </is>
       </c>
-      <c r="B7" s="9" t="inlineStr">
-        <is>
-          <t>DS302 (Tutorial) [C102]</t>
+      <c r="B7" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
@@ -3413,9 +3413,9 @@
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="C8" s="9" t="inlineStr">
-        <is>
-          <t>DS302 (Lab) [L107]</t>
+      <c r="C8" s="11" t="inlineStr">
+        <is>
+          <t>CS307</t>
         </is>
       </c>
       <c r="D8" s="14" t="inlineStr">
@@ -3423,9 +3423,9 @@
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="E8" s="10" t="inlineStr">
-        <is>
-          <t>CS307 (Lab) [L106]</t>
+      <c r="E8" s="9" t="inlineStr">
+        <is>
+          <t>DS302 (Lab)</t>
         </is>
       </c>
       <c r="F8" s="8" t="inlineStr">
@@ -3441,14 +3441,14 @@
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B9" s="11" t="inlineStr">
-        <is>
-          <t>DS303 (Tutorial) [C102]</t>
-        </is>
-      </c>
-      <c r="C9" s="9" t="inlineStr">
-        <is>
-          <t>DS302 (Lab) [L107]</t>
+      <c r="B9" s="9" t="inlineStr">
+        <is>
+          <t>DS302 (Tutorial) [L404]</t>
+        </is>
+      </c>
+      <c r="C9" s="10" t="inlineStr">
+        <is>
+          <t>DS303 (Tutorial) [C305]</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
@@ -3456,9 +3456,9 @@
           <t>Free</t>
         </is>
       </c>
-      <c r="E9" s="10" t="inlineStr">
-        <is>
-          <t>CS307 (Lab) [L106]</t>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <t>DS302 (Lab) [C002]</t>
         </is>
       </c>
       <c r="F9" s="8" t="inlineStr">
@@ -3476,27 +3476,27 @@
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C104]</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C101]</t>
+          <t>MINOR: DSAI [C104]</t>
         </is>
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C101]</t>
+          <t>MINOR: Generative Ai [C202]</t>
         </is>
       </c>
       <c r="E10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C101]</t>
+          <t>MINOR: Cybersecurity [C104]</t>
         </is>
       </c>
       <c r="F10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C101]</t>
+          <t>MINOR: Design [C104]</t>
         </is>
       </c>
       <c r="G10" s="8" t="n"/>
@@ -3766,12 +3766,12 @@
       </c>
       <c r="D22" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C101], Thu 13:00-14:30 [C101]</t>
+          <t>Tue 13:00-14:30 [C205], Thu 13:00-14:30 [C205]</t>
         </is>
       </c>
       <c r="E22" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C101]</t>
+          <t>Wed 14:30-15:30 [C304]</t>
         </is>
       </c>
       <c r="F22" s="8" t="inlineStr">
@@ -3799,12 +3799,12 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C102], Thu 13:00-14:30 [C102]</t>
+          <t>Tue 13:00-14:30 [C302], Thu 13:00-14:30 [C302]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C102]</t>
+          <t>Wed 14:30-15:30 [C305]</t>
         </is>
       </c>
       <c r="F23" s="8" t="inlineStr">
@@ -3832,12 +3832,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C104], Thu 13:00-14:30 [C104]</t>
+          <t>Tue 13:00-14:30 [C303], Thu 13:00-14:30 [C303]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C104]</t>
+          <t>Wed 14:30-15:30 [C001]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -3865,12 +3865,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C202], Thu 13:00-14:30 [C202]</t>
+          <t>Tue 13:00-14:30 [C304], Thu 13:00-14:30 [C304]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C202]</t>
+          <t>Wed 14:30-15:30 [C002]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -3898,12 +3898,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C101], Wed 15:30-17:00 [C101]</t>
+          <t>Mon 15:30-17:00 [C304], Wed 15:30-17:00 [C304]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C101]</t>
+          <t>Thu 14:30-15:30 [C302]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -3931,12 +3931,12 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C102], Wed 15:30-17:00 [C102]</t>
+          <t>Mon 15:30-17:00 [C305], Wed 15:30-17:00 [C305]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C102]</t>
+          <t>Thu 14:30-15:30 [C303]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -3964,12 +3964,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C104], Wed 15:30-17:00 [C104]</t>
+          <t>Mon 15:30-17:00 [C002], Wed 15:30-17:00 [C002]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C104]</t>
+          <t>Thu 14:30-15:30 [C304]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -3997,12 +3997,12 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C202], Wed 15:30-17:00 [C202]</t>
+          <t>Mon 15:30-17:00 [C003], Wed 15:30-17:00 [C003]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C202]</t>
+          <t>Thu 14:30-15:30 [C305]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -4030,12 +4030,12 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C203], Wed 15:30-17:00 [C203]</t>
+          <t>Mon 15:30-17:00 [L403], Wed 15:30-17:00 [L403]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C203]</t>
+          <t>Thu 14:30-15:30 [L402]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -4063,12 +4063,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C204], Wed 15:30-17:00 [C204]</t>
+          <t>Mon 15:30-17:00 [L404], Wed 15:30-17:00 [L404]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C204]</t>
+          <t>Thu 14:30-15:30 [L403]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -4142,27 +4142,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C101]</t>
+          <t>MINOR: Generative Ai [C104]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C101]</t>
+          <t>MINOR: Cybersecurity [C104]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MINOR: Design [C101]</t>
+          <t>MINOR: Design [C104]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C104]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C101]</t>
+          <t>MINOR: DSAI [C104]</t>
         </is>
       </c>
     </row>
@@ -4174,17 +4174,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DS302 [C004]</t>
+          <t>DS303</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DS302 [C004]</t>
+          <t>DS303</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CS307 [C004]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -4206,12 +4206,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DS303 [C004]</t>
+          <t>DS302</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DS303 [C004]</t>
+          <t>DS302</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -4270,7 +4270,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS307 [L407]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -4280,7 +4280,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS307 [L403]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -4302,7 +4302,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial) [L407]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -4339,7 +4339,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DS302 (Lab) [L107]</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -4349,7 +4349,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L106]</t>
+          <t>DS302 (Lab) [C004]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -4366,12 +4366,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DS303 (Tutorial) [C104]</t>
+          <t>DS302 (Tutorial)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DS302 (Lab) [C004]</t>
+          <t>DS303 (Tutorial)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -4381,7 +4381,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [C004]</t>
+          <t>DS302 (Lab) [C101]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -4398,27 +4398,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C104]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C101]</t>
+          <t>MINOR: DSAI [C104]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C101]</t>
+          <t>MINOR: Generative Ai [C202]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C101]</t>
+          <t>MINOR: Cybersecurity [C104]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MINOR: Design [C101]</t>
+          <t>MINOR: Design [C104]</t>
         </is>
       </c>
     </row>
@@ -4478,27 +4478,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Course Name [C004]</t>
+          <t>Course Name</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>L-T-P-S-C [C004]</t>
+          <t>L-T-P-S-C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Term Type [C004]</t>
+          <t>Term Type</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Lectures Hrs [C004]</t>
+          <t>Lectures Hrs</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tutorials Hrs [C004]</t>
+          <t>Tutorials Hrs</t>
         </is>
       </c>
     </row>
@@ -4510,27 +4510,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Machine Learning [C102]</t>
+          <t>Machine Learning [C001]</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>3-0-2-0-4 [C102]</t>
+          <t>3-0-2-0-4 [C001]</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Full Sem [C102]</t>
+          <t>Full Sem [C001]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3/3 [C102]</t>
+          <t>3/3 [C001]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0/0 [C102]</t>
+          <t>0/0 [C001]</t>
         </is>
       </c>
     </row>
@@ -4542,27 +4542,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Computer Communication [C204]</t>
+          <t>Computer Communication [C303]</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>3-1-2-0-5 [C204]</t>
+          <t>3-1-2-0-5 [C303]</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Full Sem [C204]</t>
+          <t>Full Sem [C303]</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3/3 [C204]</t>
+          <t>3/3 [C303]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1/1 [C204]</t>
+          <t>1/1 [C303]</t>
         </is>
       </c>
     </row>
@@ -4574,27 +4574,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Algorithms and Data Structures [C204]</t>
+          <t>Algorithms and Data Structures [C303]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [C204]</t>
+          <t>3-1-0-0-4 [C203]</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Full Sem [C204]</t>
+          <t>Full Sem [C303]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3/3 [C204]</t>
+          <t>3/3 [C303]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1/1 [C204]</t>
+          <t>1/1 [C303]</t>
         </is>
       </c>
     </row>
@@ -4630,27 +4630,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Course [C004]</t>
+          <t>Course</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Course Code [C004]</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Lecture Slot - Classroom [C004]</t>
+          <t>Lecture Slot - Classroom</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Tutorial Slot - Classroom [C004]</t>
+          <t>Tutorial Slot - Classroom</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>L-T-P-S-C [C004]</t>
+          <t>L-T-P-S-C</t>
         </is>
       </c>
     </row>
@@ -4662,27 +4662,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Parallel computing [C004]</t>
+          <t>Parallel computing</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CS463 [C004]</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C101], Thu 13:00-14:30 [C004]</t>
+          <t>Tue 13:00-14:30 [C205], Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C004]</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [C004]</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
     </row>
@@ -4694,27 +4694,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Parallel computing [C004]</t>
+          <t>Parallel computing</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CS463 [C004]</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C101], Thu 13:00-14:30 [C004]</t>
+          <t>Tue 13:00-14:30 [C205], Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C004]</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [C004]</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
     </row>
@@ -4726,27 +4726,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Parallel computing [C004]</t>
+          <t>Parallel computing</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CS463 [C004]</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C101], Thu 13:00-14:30 [C004]</t>
+          <t>Tue 13:00-14:30 [C205], Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C004]</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [C004]</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
     </row>
@@ -4758,27 +4758,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Parallel computing [C004]</t>
+          <t>Parallel computing</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CS463 [C004]</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C101], Thu 13:00-14:30 [C004]</t>
+          <t>Tue 13:00-14:30 [C205], Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C004]</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [C004]</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
     </row>
@@ -4790,27 +4790,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Full Stack Development [C004]</t>
+          <t>Full Stack Development</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>DS359 [C004]</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C101], Wed 15:30-17:00 [C004]</t>
+          <t>Mon 15:30-17:00 [C304], Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C004]</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [C004]</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
     </row>
@@ -4822,27 +4822,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Full Stack Development [C004]</t>
+          <t>Full Stack Development</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>DS359 [C004]</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C101], Wed 15:30-17:00 [C004]</t>
+          <t>Mon 15:30-17:00 [C304], Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C004]</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [C004]</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
     </row>
@@ -4854,27 +4854,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Full Stack Development [C004]</t>
+          <t>Full Stack Development</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>DS359 [C004]</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C101], Wed 15:30-17:00 [C004]</t>
+          <t>Mon 15:30-17:00 [C304], Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C004]</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [C004]</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
     </row>
@@ -4886,27 +4886,27 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Full Stack Development [C004]</t>
+          <t>Full Stack Development</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>DS359 [C004]</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C101], Wed 15:30-17:00 [C004]</t>
+          <t>Mon 15:30-17:00 [C304], Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C004]</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [C004]</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
     </row>
@@ -4918,27 +4918,27 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Full Stack Development [C004]</t>
+          <t>Full Stack Development</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>DS359 [C004]</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C101], Wed 15:30-17:00 [C004]</t>
+          <t>Mon 15:30-17:00 [C304], Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C004]</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [C004]</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
     </row>
@@ -4950,27 +4950,27 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Full Stack Development [C004]</t>
+          <t>Full Stack Development</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>DS359 [C004]</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C101], Wed 15:30-17:00 [C004]</t>
+          <t>Mon 15:30-17:00 [C304], Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C004]</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [C004]</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
     </row>
@@ -5052,10 +5052,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -5150,10 +5150,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>100.5</v>
+        <v>1.5</v>
       </c>
       <c r="E5" t="n">
-        <v>20.1</v>
+        <v>0.3</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -5184,10 +5184,10 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>30</v>
+        <v>1.5</v>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>0.3</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -5218,10 +5218,10 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -5286,10 +5286,10 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1.5</v>
+        <v>13.5</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3</v>
+        <v>2.7</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -5354,10 +5354,10 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -5388,10 +5388,10 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -5456,10 +5456,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -5490,10 +5490,10 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -5524,10 +5524,10 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -5558,10 +5558,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -5694,10 +5694,10 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -5796,10 +5796,10 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -5830,10 +5830,10 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -6048,10 +6048,10 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -6184,10 +6184,10 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -6246,7 +6246,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P87"/>
+  <dimension ref="A1:P82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6391,7 +6391,7 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -6429,31 +6429,31 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>DS302</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -6463,12 +6463,12 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>DS302</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -6477,7 +6477,7 @@
         </is>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -6501,31 +6501,27 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>DS303</t>
+          <t>Machine Learning</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -6535,12 +6531,12 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>DS303</t>
+          <t>Machine Learning</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -6549,7 +6545,7 @@
         </is>
       </c>
       <c r="P4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -6573,12 +6569,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>DS302</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>Computer Communication</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -6588,7 +6584,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -6607,12 +6603,12 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>Computer Communication</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -6645,12 +6641,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>DS303</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial)</t>
+          <t>Algorithms and Data Structures</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -6660,7 +6656,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -6679,17 +6675,17 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial)</t>
+          <t>Algorithms and Data Structures</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P6" t="b">
@@ -6712,17 +6708,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>DS303 (Tutorial)</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -6756,12 +6752,12 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>DS303 (Tutorial)</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P7" t="b">
@@ -6784,7 +6780,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -6794,7 +6790,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -6823,12 +6819,12 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -6856,36 +6852,32 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Course Name</t>
+          <t>3-0-2-0-4</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -6895,12 +6887,12 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Course Name</t>
+          <t>3-0-2-0-4</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -6909,7 +6901,7 @@
         </is>
       </c>
       <c r="P9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -6928,17 +6920,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>DS302</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Machine Learning</t>
+          <t>3-1-2-0-5</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -6953,7 +6945,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J10" t="b">
@@ -6967,12 +6959,12 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Machine Learning</t>
+          <t>3-1-2-0-5</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -7000,17 +6992,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>DS302</t>
+          <t>DS303</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Computer Communication</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -7039,12 +7031,12 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Computer Communication</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -7072,17 +7064,17 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>DS303</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Algorithms and Data Structures</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -7097,7 +7089,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J12" t="b">
@@ -7111,12 +7103,12 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Algorithms and Data Structures</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -7144,36 +7136,36 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Course</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -7183,12 +7175,12 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Course</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -7197,7 +7189,7 @@
         </is>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -7216,17 +7208,17 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -7255,12 +7247,12 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -7288,36 +7280,32 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>DS302</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -7327,12 +7315,12 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>DS302</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -7341,7 +7329,7 @@
         </is>
       </c>
       <c r="P15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -7360,36 +7348,36 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>DS302</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>DS303</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -7399,12 +7387,12 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>DS303</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -7413,7 +7401,7 @@
         </is>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -7432,32 +7420,32 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>DS303</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>DS302 (Lab)</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J17" t="b">
@@ -7471,17 +7459,17 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>L107</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>DS302 (Lab)</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P17" t="b">
@@ -7504,36 +7492,36 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>DS302 (Lab)</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -7543,21 +7531,21 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>DS302 (Lab)</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -7576,32 +7564,32 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>DS302 (Lab)</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J19" t="b">
@@ -7615,17 +7603,17 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>DS302 (Lab)</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Lab</t>
         </is>
       </c>
       <c r="P19" t="b">
@@ -7648,36 +7636,36 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
+          <t>DS302 (Lab)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -7687,21 +7675,21 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
+          <t>DS302 (Lab)</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Lab</t>
         </is>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -7720,17 +7708,17 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>3-0-2-0-4</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -7759,12 +7747,12 @@
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>3-0-2-0-4</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -7792,34 +7780,30 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>DS302</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>3-1-2-0-5</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="b">
         <v>0</v>
       </c>
@@ -7831,12 +7815,12 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>3-1-2-0-5</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -7864,17 +7848,17 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>DS303</t>
+          <t>DS302</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -7903,12 +7887,12 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -7936,36 +7920,36 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>DS303</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -7975,12 +7959,12 @@
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -7989,7 +7973,7 @@
         </is>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -8008,7 +7992,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -8018,7 +8002,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -8047,12 +8031,12 @@
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -8080,36 +8064,36 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -8119,12 +8103,12 @@
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -8133,7 +8117,7 @@
         </is>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -8152,34 +8136,30 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="b">
         <v>0</v>
       </c>
@@ -8191,12 +8171,12 @@
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -8224,36 +8204,36 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>DS302</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Term Type</t>
+          <t>1/1</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -8263,12 +8243,12 @@
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Term Type</t>
+          <t>1/1</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -8277,7 +8257,7 @@
         </is>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -8296,17 +8276,17 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>DS303</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>1/1</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -8321,7 +8301,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J29" t="b">
@@ -8335,12 +8315,12 @@
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>1/1</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -8368,17 +8348,17 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>DS302</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>DS303</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -8388,7 +8368,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -8401,25 +8381,21 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
+          <t>Global Tracking (from internal map)</t>
         </is>
       </c>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Full Sem</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>DS303</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr"/>
       <c r="P30" t="b">
         <v>0</v>
       </c>
@@ -8440,17 +8416,17 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>DS303</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>DS302</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -8460,7 +8436,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -8473,25 +8449,21 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
+          <t>Global Tracking (from internal map)</t>
         </is>
       </c>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Full Sem</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>DS302</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr"/>
       <c r="P31" t="b">
         <v>0</v>
       </c>
@@ -8512,60 +8484,56 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Lecture Slot - Classroom</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
+          <t>Global Tracking (from internal map)</t>
         </is>
       </c>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Lecture Slot - Classroom</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr"/>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -8584,17 +8552,17 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>DS302 (Tutorial)</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -8609,7 +8577,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J33" t="b">
@@ -8617,25 +8585,21 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
+          <t>Global Tracking (from internal map)</t>
         </is>
       </c>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>DS302 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr"/>
       <c r="P33" t="b">
         <v>0</v>
       </c>
@@ -8656,7 +8620,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -8666,22 +8630,22 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>CS307 (Lab)</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J34" t="b">
@@ -8689,23 +8653,27 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>CS307 (Lab)</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P34" t="b">
@@ -8728,60 +8696,64 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>CS307 (Lab)</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>CS307 (Lab)</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -8800,17 +8772,17 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>EC364</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -8833,18 +8805,22 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>EC364</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -8872,51 +8848,55 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Lectures Hrs</t>
+          <t>CS352</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Lectures Hrs</t>
+          <t>CS352</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -8925,7 +8905,7 @@
         </is>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -8944,17 +8924,17 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -8969,7 +8949,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J38" t="b">
@@ -8977,18 +8957,22 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -9016,17 +9000,17 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>DS302</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>EC365</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -9049,10 +9033,14 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="M39" t="inlineStr">
         <is>
           <t>C204</t>
@@ -9060,7 +9048,7 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>EC365</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -9088,17 +9076,17 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>DS303</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>Course Name</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -9108,7 +9096,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -9121,25 +9109,21 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
+          <t>Global Tracking (from internal map)</t>
         </is>
       </c>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>3/3</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr"/>
       <c r="P40" t="b">
         <v>0</v>
       </c>
@@ -9160,7 +9144,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -9170,50 +9154,46 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Tutorial Slot - Classroom</t>
+          <t>Course</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
+          <t>Global Tracking (from internal map)</t>
         </is>
       </c>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Tutorial Slot - Classroom</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>Course</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr"/>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -9232,17 +9212,17 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>DS303</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -9252,12 +9232,12 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J42" t="b">
@@ -9265,25 +9245,21 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
+          <t>Global Tracking (from internal map)</t>
         </is>
       </c>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>DS303</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr"/>
       <c r="P42" t="b">
         <v>0</v>
       </c>
@@ -9304,58 +9280,50 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>DS302</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="b">
         <v>0</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
+          <t>Global Tracking (from internal map)</t>
         </is>
       </c>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>DS302</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr"/>
       <c r="P43" t="b">
         <v>0</v>
       </c>
@@ -9376,51 +9344,55 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Tutorials Hrs</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Tutorials Hrs</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -9429,7 +9401,7 @@
         </is>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -9448,17 +9420,17 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>CS308</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -9481,10 +9453,14 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
       <c r="M45" t="inlineStr">
         <is>
           <t>C102</t>
@@ -9492,7 +9468,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>CS308</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -9520,17 +9496,17 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>DS302</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>1/1</t>
+          <t>DS301</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -9545,7 +9521,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J46" t="b">
@@ -9553,18 +9529,22 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>1/1</t>
+          <t>DS301</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -9592,17 +9572,17 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>DS303</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>1/1</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -9617,7 +9597,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J47" t="b">
@@ -9625,18 +9605,22 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>1/1</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -9664,60 +9648,56 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
+          <t>DS303 (Tutorial)</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
+          <t>Global Tracking (from internal map)</t>
         </is>
       </c>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>DS303 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr"/>
       <c r="P48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -9736,7 +9716,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -9746,7 +9726,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -9772,26 +9752,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>DS359</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr"/>
       <c r="P49" t="b">
         <v>0</v>
       </c>
@@ -9812,17 +9784,17 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>DS303 (Tutorial)</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -9848,26 +9820,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>EC355</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>DS303 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr"/>
       <c r="P50" t="b">
         <v>0</v>
       </c>
@@ -9888,17 +9852,17 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>L-T-P-S-C</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -9924,26 +9888,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>EC364</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>L-T-P-S-C</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr"/>
       <c r="P51" t="b">
         <v>0</v>
       </c>
@@ -9964,17 +9920,17 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -10000,26 +9956,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>CS352</t>
-        </is>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr"/>
       <c r="P52" t="b">
         <v>0</v>
       </c>
@@ -10040,17 +9988,17 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>DS303</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -10076,26 +10024,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>DS303</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr"/>
       <c r="P53" t="b">
         <v>0</v>
       </c>
@@ -10116,17 +10056,17 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -10154,22 +10094,22 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P54" t="b">
@@ -10192,56 +10132,64 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Parallel computing</t>
+          <t>CS308</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Parallel computing</t>
-        </is>
-      </c>
-      <c r="O55" t="inlineStr"/>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
       <c r="P55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -10260,56 +10208,64 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Full Stack Development</t>
+          <t>DS301</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Full Stack Development</t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr"/>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
       <c r="P56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -10328,17 +10284,17 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -10376,12 +10332,12 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P57" t="b">
@@ -10404,27 +10360,27 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -10442,17 +10398,17 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -10480,17 +10436,17 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -10500,12 +10456,12 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J59" t="b">
@@ -10518,17 +10474,17 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -10556,17 +10512,17 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>EC364</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -10576,12 +10532,12 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J60" t="b">
@@ -10594,17 +10550,17 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>EC364</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -10632,56 +10588,64 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>CS352</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>CS463</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr"/>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -10700,56 +10664,64 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>DS359</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr"/>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -10773,12 +10745,12 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>EC365</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -10793,7 +10765,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J63" t="b">
@@ -10806,22 +10778,22 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>EC365</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P63" t="b">
@@ -10849,12 +10821,12 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>Term Type</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -10864,12 +10836,12 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J64" t="b">
@@ -10880,26 +10852,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>CS308</t>
-        </is>
-      </c>
-      <c r="O64" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>Term Type</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr"/>
       <c r="P64" t="b">
         <v>0</v>
       </c>
@@ -10925,12 +10889,12 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>Lecture Slot - Classroom</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -10940,12 +10904,12 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J65" t="b">
@@ -10956,26 +10920,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>DS301</t>
-        </is>
-      </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>Lecture Slot - Classroom</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr"/>
       <c r="P65" t="b">
         <v>0</v>
       </c>
@@ -10996,17 +10952,17 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -11016,7 +10972,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -11039,17 +10995,17 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P66" t="b">
@@ -11072,17 +11028,17 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>CS308</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -11097,7 +11053,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J67" t="b">
@@ -11110,17 +11066,17 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>CS308</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -11148,30 +11104,34 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>DS301</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J68" t="b">
         <v>0</v>
       </c>
@@ -11182,17 +11142,17 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>DS301</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -11220,27 +11180,27 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -11258,17 +11218,17 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -11296,27 +11256,27 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -11339,17 +11299,17 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P70" t="b">
@@ -11372,17 +11332,17 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -11392,12 +11352,12 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J71" t="b">
@@ -11415,17 +11375,17 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P71" t="b">
@@ -11448,17 +11408,17 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>EC364</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -11468,12 +11428,12 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J72" t="b">
@@ -11491,17 +11451,17 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>EC364</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P72" t="b">
@@ -11524,56 +11484,64 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C101], Thu 13:00-14:30</t>
+          <t>CS352</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C101], Thu 13:00-14:30</t>
-        </is>
-      </c>
-      <c r="O73" t="inlineStr"/>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
       <c r="P73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -11592,56 +11560,64 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C101], Wed 15:30-17:00</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C101], Wed 15:30-17:00</t>
-        </is>
-      </c>
-      <c r="O74" t="inlineStr"/>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
       <c r="P74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -11665,12 +11641,12 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>EC365</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -11685,7 +11661,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J75" t="b">
@@ -11698,22 +11674,22 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>EC365</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P75" t="b">
@@ -11741,12 +11717,12 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>Lectures Hrs</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -11756,12 +11732,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J76" t="b">
@@ -11772,26 +11748,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>CS308</t>
-        </is>
-      </c>
-      <c r="O76" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>Lectures Hrs</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr"/>
       <c r="P76" t="b">
         <v>0</v>
       </c>
@@ -11817,12 +11785,12 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>Tutorial Slot - Classroom</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -11832,12 +11800,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J77" t="b">
@@ -11848,26 +11816,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>DS301</t>
-        </is>
-      </c>
-      <c r="O77" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>Tutorial Slot - Classroom</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr"/>
       <c r="P77" t="b">
         <v>0</v>
       </c>
@@ -11888,7 +11848,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -11898,22 +11858,22 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>CS307 (Lab)</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J78" t="b">
@@ -11924,26 +11884,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>L208</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>CS366</t>
-        </is>
-      </c>
-      <c r="O78" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>CS307 (Lab)</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr"/>
       <c r="P78" t="b">
         <v>0</v>
       </c>
@@ -11964,7 +11916,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -11974,7 +11926,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>CS307 (Lab)</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -11984,12 +11936,12 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J79" t="b">
@@ -12000,26 +11952,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>DS359</t>
-        </is>
-      </c>
-      <c r="O79" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>CS307 (Lab)</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr"/>
       <c r="P79" t="b">
         <v>0</v>
       </c>
@@ -12040,17 +11984,17 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>Tutorials Hrs</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -12060,12 +12004,12 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J80" t="b">
@@ -12076,26 +12020,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>EC355</t>
-        </is>
-      </c>
-      <c r="O80" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>Tutorials Hrs</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr"/>
       <c r="P80" t="b">
         <v>0</v>
       </c>
@@ -12116,17 +12052,17 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>L-T-P-S-C</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -12136,12 +12072,12 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J81" t="b">
@@ -12152,26 +12088,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>EC364</t>
-        </is>
-      </c>
-      <c r="O81" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>L-T-P-S-C</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr"/>
       <c r="P81" t="b">
         <v>0</v>
       </c>
@@ -12192,17 +12120,17 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>DS302 (Tutorial)</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -12212,12 +12140,12 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J82" t="b">
@@ -12228,384 +12156,20 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>CS352</t>
-        </is>
-      </c>
-      <c r="O82" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>DS302 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr"/>
       <c r="P82" t="b">
         <v>0</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>5</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="J83" t="b">
-        <v>0</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
-      <c r="N83" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="O83" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-      <c r="P83" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>5</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>EC365</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J84" t="b">
-        <v>0</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>C203</t>
-        </is>
-      </c>
-      <c r="N84" t="inlineStr">
-        <is>
-          <t>EC365</t>
-        </is>
-      </c>
-      <c r="O84" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-      <c r="P84" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>5</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>ELECTIVE</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Wed 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="J85" t="b">
-        <v>1</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="N85" t="inlineStr">
-        <is>
-          <t>Wed 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>5</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>ELECTIVE</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Thu 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="J86" t="b">
-        <v>1</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="N86" t="inlineStr">
-        <is>
-          <t>Thu 14:30-15:30</t>
-        </is>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>5</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>ELECTIVE</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>3-1-0-0-4</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="J87" t="b">
-        <v>1</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="N87" t="inlineStr">
-        <is>
-          <t>3-1-0-0-4</t>
-        </is>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="b">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -12657,7 +12221,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C004, C101, C104</t>
+          <t>C101, L406, L408</t>
         </is>
       </c>
     </row>
@@ -12674,7 +12238,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C002, C102</t>
+          <t>C101, C102</t>
         </is>
       </c>
     </row>
@@ -12691,7 +12255,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C104, L402</t>
+          <t>C102, C104</t>
         </is>
       </c>
     </row>
@@ -12708,7 +12272,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C202, C203, L403</t>
+          <t>C104, C202</t>
         </is>
       </c>
     </row>
@@ -12725,7 +12289,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C004, C101, C305</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -12742,7 +12306,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C001, C102, L402</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -12759,7 +12323,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C002, C104, L403</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -12776,7 +12340,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C003, C202, L404</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -12793,7 +12357,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C104, L402, L405</t>
+          <t>C203</t>
         </is>
       </c>
     </row>
@@ -12810,7 +12374,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C203, L403, L406</t>
+          <t>C204</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem5_DSAI_timetable.xlsx
+++ b/backend/output_timetables/sem5_DSAI_timetable.xlsx
@@ -1484,7 +1484,7 @@
       </c>
       <c r="F6" s="11" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L208]</t>
+          <t>CS307 (Lab) [L106]</t>
         </is>
       </c>
       <c r="G6" s="8" t="n"/>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="B7" s="9" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial) [C002]</t>
+          <t>DS302 (Tutorial) [C304]</t>
         </is>
       </c>
       <c r="C7" s="10" t="inlineStr">
@@ -1517,7 +1517,7 @@
       </c>
       <c r="F7" s="11" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L208]</t>
+          <t>CS307 (Lab) [L106]</t>
         </is>
       </c>
       <c r="G7" s="8" t="n"/>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="C9" s="9" t="inlineStr">
         <is>
-          <t>DS302 (Lab) [C303]</t>
+          <t>DS302 (Lab) [C205]</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
@@ -1606,7 +1606,7 @@
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C202]</t>
+          <t>MINOR: Generative Ai [C104]</t>
         </is>
       </c>
       <c r="E10" s="8" t="inlineStr">
@@ -1886,7 +1886,7 @@
       </c>
       <c r="D22" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C205], Thu 13:00-14:30 [C205]</t>
+          <t>Tue 13:00-14:30 [C204], Thu 13:00-14:30 [C204]</t>
         </is>
       </c>
       <c r="E22" s="8" t="inlineStr">
@@ -1919,7 +1919,7 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C302], Thu 13:00-14:30 [C302]</t>
+          <t>Tue 13:00-14:30 [C205], Thu 13:00-14:30 [C205]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
@@ -1952,7 +1952,7 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C303], Thu 13:00-14:30 [C303]</t>
+          <t>Tue 13:00-14:30 [C302], Thu 13:00-14:30 [C302]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
@@ -1985,7 +1985,7 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C304], Thu 13:00-14:30 [C304]</t>
+          <t>Tue 13:00-14:30 [C303], Thu 13:00-14:30 [C303]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
@@ -2018,7 +2018,7 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C304], Wed 15:30-17:00 [C304]</t>
+          <t>Mon 15:30-17:00 [C305], Wed 15:30-17:00 [C305]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
@@ -2051,7 +2051,7 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C305], Wed 15:30-17:00 [C305]</t>
+          <t>Mon 15:30-17:00 [L402], Wed 15:30-17:00 [L402]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
@@ -2084,7 +2084,7 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C002], Wed 15:30-17:00 [C002]</t>
+          <t>Mon 15:30-17:00 [L404], Wed 15:30-17:00 [L404]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
@@ -2117,7 +2117,7 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C003], Wed 15:30-17:00 [C003]</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
@@ -2150,12 +2150,12 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L403], Wed 15:30-17:00 [L403]</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [L402]</t>
+          <t>Thu 14:30-15:30 [C001]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -2183,12 +2183,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L404], Wed 15:30-17:00 [L404]</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [L403]</t>
+          <t>Thu 14:30-15:30 [L402]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -2313,9 +2313,9 @@
           <t>DS303</t>
         </is>
       </c>
-      <c r="D3" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
+      <c r="D3" s="11" t="inlineStr">
+        <is>
+          <t>CS307</t>
         </is>
       </c>
       <c r="E3" s="8" t="inlineStr">
@@ -2356,9 +2356,9 @@
           <t>Free</t>
         </is>
       </c>
-      <c r="F4" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
+      <c r="F4" s="11" t="inlineStr">
+        <is>
+          <t>CS307 [C305]</t>
         </is>
       </c>
       <c r="G4" s="8" t="n"/>
@@ -2412,9 +2412,9 @@
           <t>ELECTIVE_B4</t>
         </is>
       </c>
-      <c r="D6" s="11" t="inlineStr">
-        <is>
-          <t>CS307 [L407]</t>
+      <c r="D6" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
         </is>
       </c>
       <c r="E6" s="13" t="inlineStr">
@@ -2473,9 +2473,9 @@
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="C8" s="11" t="inlineStr">
-        <is>
-          <t>CS307 [L406]</t>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
         </is>
       </c>
       <c r="D8" s="14" t="inlineStr">
@@ -2485,12 +2485,12 @@
       </c>
       <c r="E8" s="9" t="inlineStr">
         <is>
-          <t>DS302 (Lab) [C303]</t>
-        </is>
-      </c>
-      <c r="F8" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
+          <t>DS302 (Lab)</t>
+        </is>
+      </c>
+      <c r="F8" s="11" t="inlineStr">
+        <is>
+          <t>CS307 (Lab) [L208]</t>
         </is>
       </c>
       <c r="G8" s="8" t="n"/>
@@ -2503,12 +2503,12 @@
       </c>
       <c r="B9" s="9" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial) [L403]</t>
+          <t>DS302 (Tutorial) [C003]</t>
         </is>
       </c>
       <c r="C9" s="10" t="inlineStr">
         <is>
-          <t>DS303 (Tutorial) [L406]</t>
+          <t>DS303 (Tutorial) [C303]</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
@@ -2518,12 +2518,12 @@
       </c>
       <c r="E9" s="9" t="inlineStr">
         <is>
-          <t>DS302 (Lab) [C303]</t>
-        </is>
-      </c>
-      <c r="F9" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
+          <t>DS302 (Lab) [C205]</t>
+        </is>
+      </c>
+      <c r="F9" s="11" t="inlineStr">
+        <is>
+          <t>CS307 (Lab) [L208]</t>
         </is>
       </c>
       <c r="G9" s="8" t="n"/>
@@ -2546,7 +2546,7 @@
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C202]</t>
+          <t>MINOR: Generative Ai [C104]</t>
         </is>
       </c>
       <c r="E10" s="8" t="inlineStr">
@@ -2826,7 +2826,7 @@
       </c>
       <c r="D22" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C205], Thu 13:00-14:30 [C205]</t>
+          <t>Tue 13:00-14:30 [C204], Thu 13:00-14:30 [C204]</t>
         </is>
       </c>
       <c r="E22" s="8" t="inlineStr">
@@ -2859,7 +2859,7 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C302], Thu 13:00-14:30 [C302]</t>
+          <t>Tue 13:00-14:30 [C205], Thu 13:00-14:30 [C205]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
@@ -2892,7 +2892,7 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C303], Thu 13:00-14:30 [C303]</t>
+          <t>Tue 13:00-14:30 [C302], Thu 13:00-14:30 [C302]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
@@ -2925,7 +2925,7 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C304], Thu 13:00-14:30 [C304]</t>
+          <t>Tue 13:00-14:30 [C303], Thu 13:00-14:30 [C303]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
@@ -2958,7 +2958,7 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C304], Wed 15:30-17:00 [C304]</t>
+          <t>Mon 15:30-17:00 [C305], Wed 15:30-17:00 [C305]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
@@ -2991,7 +2991,7 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C305], Wed 15:30-17:00 [C305]</t>
+          <t>Mon 15:30-17:00 [L402], Wed 15:30-17:00 [L402]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
@@ -3024,7 +3024,7 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C002], Wed 15:30-17:00 [C002]</t>
+          <t>Mon 15:30-17:00 [L404], Wed 15:30-17:00 [L404]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
@@ -3057,7 +3057,7 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C003], Wed 15:30-17:00 [C003]</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
@@ -3090,12 +3090,12 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L403], Wed 15:30-17:00 [L403]</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [L402]</t>
+          <t>Thu 14:30-15:30 [C001]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -3123,12 +3123,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L404], Wed 15:30-17:00 [L404]</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [L403]</t>
+          <t>Thu 14:30-15:30 [L402]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -3253,9 +3253,9 @@
           <t>DS303</t>
         </is>
       </c>
-      <c r="D3" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
+      <c r="D3" s="11" t="inlineStr">
+        <is>
+          <t>CS307</t>
         </is>
       </c>
       <c r="E3" s="8" t="inlineStr">
@@ -3296,9 +3296,9 @@
           <t>Free</t>
         </is>
       </c>
-      <c r="F4" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
+      <c r="F4" s="11" t="inlineStr">
+        <is>
+          <t>CS307 [C205]</t>
         </is>
       </c>
       <c r="G4" s="8" t="n"/>
@@ -3352,9 +3352,9 @@
           <t>ELECTIVE_B4</t>
         </is>
       </c>
-      <c r="D6" s="11" t="inlineStr">
-        <is>
-          <t>CS307 [L408]</t>
+      <c r="D6" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
         </is>
       </c>
       <c r="E6" s="13" t="inlineStr">
@@ -3413,9 +3413,9 @@
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="C8" s="11" t="inlineStr">
-        <is>
-          <t>CS307</t>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
         </is>
       </c>
       <c r="D8" s="14" t="inlineStr">
@@ -3428,9 +3428,9 @@
           <t>DS302 (Lab)</t>
         </is>
       </c>
-      <c r="F8" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
+      <c r="F8" s="11" t="inlineStr">
+        <is>
+          <t>CS307 (Lab) [L107]</t>
         </is>
       </c>
       <c r="G8" s="8" t="n"/>
@@ -3443,12 +3443,12 @@
       </c>
       <c r="B9" s="9" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial) [L404]</t>
+          <t>DS302 (Tutorial) [C004]</t>
         </is>
       </c>
       <c r="C9" s="10" t="inlineStr">
         <is>
-          <t>DS303 (Tutorial) [C305]</t>
+          <t>DS303 (Tutorial) [C304]</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
@@ -3458,12 +3458,12 @@
       </c>
       <c r="E9" s="9" t="inlineStr">
         <is>
-          <t>DS302 (Lab) [C002]</t>
-        </is>
-      </c>
-      <c r="F9" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
+          <t>DS302 (Lab) [C104]</t>
+        </is>
+      </c>
+      <c r="F9" s="11" t="inlineStr">
+        <is>
+          <t>CS307 (Lab) [L107]</t>
         </is>
       </c>
       <c r="G9" s="8" t="n"/>
@@ -3486,7 +3486,7 @@
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C202]</t>
+          <t>MINOR: Generative Ai [C104]</t>
         </is>
       </c>
       <c r="E10" s="8" t="inlineStr">
@@ -3766,7 +3766,7 @@
       </c>
       <c r="D22" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C205], Thu 13:00-14:30 [C205]</t>
+          <t>Tue 13:00-14:30 [C204], Thu 13:00-14:30 [C204]</t>
         </is>
       </c>
       <c r="E22" s="8" t="inlineStr">
@@ -3799,7 +3799,7 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C302], Thu 13:00-14:30 [C302]</t>
+          <t>Tue 13:00-14:30 [C205], Thu 13:00-14:30 [C205]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C303], Thu 13:00-14:30 [C303]</t>
+          <t>Tue 13:00-14:30 [C302], Thu 13:00-14:30 [C302]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C304], Thu 13:00-14:30 [C304]</t>
+          <t>Tue 13:00-14:30 [C303], Thu 13:00-14:30 [C303]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
@@ -3898,7 +3898,7 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C304], Wed 15:30-17:00 [C304]</t>
+          <t>Mon 15:30-17:00 [C305], Wed 15:30-17:00 [C305]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
@@ -3931,7 +3931,7 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C305], Wed 15:30-17:00 [C305]</t>
+          <t>Mon 15:30-17:00 [L402], Wed 15:30-17:00 [L402]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
@@ -3964,7 +3964,7 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C002], Wed 15:30-17:00 [C002]</t>
+          <t>Mon 15:30-17:00 [L404], Wed 15:30-17:00 [L404]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
@@ -3997,7 +3997,7 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C003], Wed 15:30-17:00 [C003]</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
@@ -4030,12 +4030,12 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L403], Wed 15:30-17:00 [L403]</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [L402]</t>
+          <t>Thu 14:30-15:30 [C001]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -4063,12 +4063,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L404], Wed 15:30-17:00 [L404]</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [L403]</t>
+          <t>Thu 14:30-15:30 [L402]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -4184,7 +4184,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -4226,7 +4226,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS307 [C205]</t>
         </is>
       </c>
     </row>
@@ -4280,7 +4280,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CS307 [L403]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -4339,7 +4339,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -4349,12 +4349,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>DS302 (Lab) [C004]</t>
+          <t>DS302 (Lab) [C001]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS307 (Lab) [L107]</t>
         </is>
       </c>
     </row>
@@ -4366,12 +4366,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial)</t>
+          <t>DS302 (Tutorial) [C004]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DS303 (Tutorial)</t>
+          <t>DS303 (Tutorial) [C304]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -4381,12 +4381,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>DS302 (Lab) [C101]</t>
+          <t>DS302 (Lab) [C104]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS307 (Lab) [L107]</t>
         </is>
       </c>
     </row>
@@ -4408,7 +4408,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C202]</t>
+          <t>MINOR: Generative Ai [C104]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -4510,27 +4510,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Machine Learning [C001]</t>
+          <t>Machine Learning [C102]</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>3-0-2-0-4 [C001]</t>
+          <t>3-0-2-0-4 [C102]</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Full Sem [C001]</t>
+          <t>Full Sem [C102]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3/3 [C001]</t>
+          <t>3/3 [C102]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0/0 [C001]</t>
+          <t>0/0 [C102]</t>
         </is>
       </c>
     </row>
@@ -4542,27 +4542,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Computer Communication [C303]</t>
+          <t>Computer Communication [C204]</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>3-1-2-0-5 [C303]</t>
+          <t>3-1-2-0-5 [C204]</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Full Sem [C303]</t>
+          <t>Full Sem [C204]</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3/3 [C303]</t>
+          <t>3/3 [C204]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1/1 [C303]</t>
+          <t>1/1 [C204]</t>
         </is>
       </c>
     </row>
@@ -4574,7 +4574,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Algorithms and Data Structures [C303]</t>
+          <t>Algorithms and Data Structures [C204]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -4584,17 +4584,17 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Full Sem [C303]</t>
+          <t>Full Sem [C204]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3/3 [C303]</t>
+          <t>3/3 [C204]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1/1 [C303]</t>
+          <t>1/1 [C204]</t>
         </is>
       </c>
     </row>
@@ -4672,7 +4672,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C205], Thu 13:00-14:30</t>
+          <t>Tue 13:00-14:30 [C204], Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -4704,7 +4704,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C205], Thu 13:00-14:30</t>
+          <t>Tue 13:00-14:30 [C204], Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -4736,7 +4736,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C205], Thu 13:00-14:30</t>
+          <t>Tue 13:00-14:30 [C204], Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -4768,7 +4768,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C205], Thu 13:00-14:30</t>
+          <t>Tue 13:00-14:30 [C204], Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -4800,7 +4800,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C304], Wed 15:30-17:00</t>
+          <t>Mon 15:30-17:00 [C305], Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -4832,7 +4832,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C304], Wed 15:30-17:00</t>
+          <t>Mon 15:30-17:00 [C305], Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -4864,7 +4864,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C304], Wed 15:30-17:00</t>
+          <t>Mon 15:30-17:00 [C305], Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -4896,7 +4896,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C304], Wed 15:30-17:00</t>
+          <t>Mon 15:30-17:00 [C305], Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -4928,7 +4928,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C304], Wed 15:30-17:00</t>
+          <t>Mon 15:30-17:00 [C305], Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -4960,7 +4960,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C304], Wed 15:30-17:00</t>
+          <t>Mon 15:30-17:00 [C305], Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -5052,10 +5052,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>7.5</v>
+        <v>1.5</v>
       </c>
       <c r="E2" t="n">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -5184,10 +5184,10 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -5218,10 +5218,10 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -5286,10 +5286,10 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>13.5</v>
+        <v>16.5</v>
       </c>
       <c r="E9" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -5388,10 +5388,10 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -5456,10 +5456,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -5524,10 +5524,10 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -5558,10 +5558,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="E17" t="n">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -5796,10 +5796,10 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -5830,10 +5830,10 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>9</v>
+        <v>1.5</v>
       </c>
       <c r="E25" t="n">
-        <v>1.8</v>
+        <v>0.3</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -5864,10 +5864,10 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -6048,10 +6048,10 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -6246,7 +6246,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P82"/>
+  <dimension ref="A1:P69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6429,27 +6429,27 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>DS302 (Tutorial)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J3" t="b">
@@ -6463,17 +6463,17 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>DS302 (Tutorial)</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P3" t="b">
@@ -6501,25 +6501,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Machine Learning</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J4" t="b">
         <v>0</v>
       </c>
@@ -6531,12 +6535,12 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Machine Learning</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -6569,12 +6573,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>DS302</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Computer Communication</t>
+          <t>Machine Learning</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -6589,7 +6593,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J5" t="b">
@@ -6603,12 +6607,12 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Computer Communication</t>
+          <t>Machine Learning</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -6641,12 +6645,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>DS303</t>
+          <t>DS302</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Algorithms and Data Structures</t>
+          <t>Computer Communication</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -6675,12 +6679,12 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Algorithms and Data Structures</t>
+          <t>Computer Communication</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -6708,17 +6712,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>DS303</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>Algorithms and Data Structures</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -6733,7 +6737,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J7" t="b">
@@ -6747,12 +6751,12 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>Algorithms and Data Structures</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -6785,12 +6789,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -6824,7 +6828,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -6857,25 +6861,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3-0-2-0-4</t>
+          <t>DS303 (Tutorial)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="J9" t="b">
         <v>0</v>
       </c>
@@ -6887,17 +6895,17 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>3-0-2-0-4</t>
+          <t>DS303 (Tutorial)</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P9" t="b">
@@ -6925,12 +6933,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>DS302</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3-1-2-0-5</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -6945,7 +6953,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J10" t="b">
@@ -6959,12 +6967,12 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>3-1-2-0-5</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -6997,12 +7005,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>DS303</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3-0-2-0-4</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -7017,7 +7025,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J11" t="b">
@@ -7031,12 +7039,12 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3-0-2-0-4</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -7064,17 +7072,17 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>DS302</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>3-1-2-0-5</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -7089,7 +7097,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J12" t="b">
@@ -7103,12 +7111,12 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>3-1-2-0-5</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -7136,17 +7144,17 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>DS303</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -7156,7 +7164,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -7175,12 +7183,12 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -7213,12 +7221,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -7247,12 +7255,12 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -7285,25 +7293,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J15" t="b">
         <v>0</v>
       </c>
@@ -7315,12 +7327,12 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -7353,7 +7365,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>DS302</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -7373,7 +7385,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J16" t="b">
@@ -7387,7 +7399,7 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -7425,7 +7437,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>DS303</t>
+          <t>DS302</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -7459,7 +7471,7 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -7492,17 +7504,17 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>DS303</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -7517,7 +7529,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J18" t="b">
@@ -7531,12 +7543,12 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -7569,27 +7581,27 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>DS302 (Lab)</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J19" t="b">
@@ -7603,17 +7615,17 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>DS302 (Lab)</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P19" t="b">
@@ -7641,7 +7653,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -7651,19 +7663,15 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="b">
         <v>0</v>
       </c>
@@ -7675,7 +7683,7 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -7713,12 +7721,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>DS302 (Lab)</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -7752,12 +7760,12 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>DS302 (Lab)</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Lab</t>
         </is>
       </c>
       <c r="P21" t="b">
@@ -7785,25 +7793,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J22" t="b">
         <v>0</v>
       </c>
@@ -7815,12 +7827,12 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -7853,7 +7865,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>DS302</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -7873,7 +7885,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J23" t="b">
@@ -7887,7 +7899,7 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -7925,7 +7937,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>DS303</t>
+          <t>DS302</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -7959,7 +7971,7 @@
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -7992,17 +8004,17 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>DS303</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -8017,7 +8029,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J25" t="b">
@@ -8031,12 +8043,12 @@
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -8069,12 +8081,12 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -8108,7 +8120,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -8141,25 +8153,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
           <t>CS307</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>0/0</t>
-        </is>
-      </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="J27" t="b">
         <v>0</v>
       </c>
@@ -8171,12 +8187,12 @@
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -8209,27 +8225,27 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>DS302</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>1/1</t>
+          <t>CS307 (Lab)</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J28" t="b">
@@ -8243,17 +8259,17 @@
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>1/1</t>
+          <t>CS307 (Lab)</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Lab</t>
         </is>
       </c>
       <c r="P28" t="b">
@@ -8281,27 +8297,27 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>DS303</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>1/1</t>
+          <t>CS307 (Lab)</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J29" t="b">
@@ -8315,17 +8331,17 @@
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>1/1</t>
+          <t>CS307 (Lab)</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Lab</t>
         </is>
       </c>
       <c r="P29" t="b">
@@ -8348,17 +8364,17 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>DS303</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -8368,12 +8384,12 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J30" t="b">
@@ -8381,21 +8397,25 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
+          <t>Global Tracking</t>
         </is>
       </c>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>DS303</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr"/>
+          <t>MINOR: Design</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P30" t="b">
         <v>0</v>
       </c>
@@ -8416,17 +8436,17 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>DS302</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -8436,12 +8456,12 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J31" t="b">
@@ -8449,21 +8469,25 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
+          <t>Global Tracking</t>
         </is>
       </c>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>DS302</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr"/>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P31" t="b">
         <v>0</v>
       </c>
@@ -8484,17 +8508,17 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>DS302</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>1/1</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -8504,7 +8528,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -8517,21 +8541,25 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
+          <t>Global Tracking</t>
         </is>
       </c>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>CS307</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr"/>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P32" t="b">
         <v>0</v>
       </c>
@@ -8552,17 +8580,17 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>DS303</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial)</t>
+          <t>1/1</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -8585,21 +8613,25 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
+          <t>Global Tracking</t>
         </is>
       </c>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr"/>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P33" t="b">
         <v>0</v>
       </c>
@@ -8625,12 +8657,12 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -8640,12 +8672,12 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J34" t="b">
@@ -8656,26 +8688,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>DS359</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr"/>
       <c r="P34" t="b">
         <v>0</v>
       </c>
@@ -8701,12 +8725,12 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>DS302 (Tutorial)</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -8721,7 +8745,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J35" t="b">
@@ -8732,26 +8756,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>EC355</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>DS302 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr"/>
       <c r="P35" t="b">
         <v>0</v>
       </c>
@@ -8782,7 +8798,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -8820,7 +8836,7 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -8858,7 +8874,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -8896,7 +8912,7 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -8934,7 +8950,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>EC364</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -8949,7 +8965,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J38" t="b">
@@ -8967,12 +8983,12 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>EC364</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -9010,7 +9026,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>CS352</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -9043,12 +9059,12 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>CS352</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -9081,12 +9097,12 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Course Name</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -9112,18 +9128,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Course Name</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr"/>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P40" t="b">
         <v>0</v>
       </c>
@@ -9149,12 +9173,12 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Course</t>
+          <t>EC365</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -9180,18 +9204,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Course</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr"/>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P41" t="b">
         <v>0</v>
       </c>
@@ -9217,12 +9249,12 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>DS303</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -9232,12 +9264,12 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J42" t="b">
@@ -9248,18 +9280,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>DS303</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr"/>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P42" t="b">
         <v>0</v>
       </c>
@@ -9285,25 +9325,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>DS302</t>
+          <t>CS308</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="J43" t="b">
         <v>0</v>
       </c>
@@ -9312,18 +9356,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>DS302</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr"/>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P43" t="b">
         <v>0</v>
       </c>
@@ -9354,17 +9406,17 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>DS301</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -9387,12 +9439,12 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>DS301</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -9430,7 +9482,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -9440,12 +9492,12 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J45" t="b">
@@ -9463,12 +9515,12 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -9501,12 +9553,12 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>DS303 (Tutorial)</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -9516,12 +9568,12 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J46" t="b">
@@ -9532,26 +9584,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>DS301</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>DS303 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr"/>
       <c r="P46" t="b">
         <v>0</v>
       </c>
@@ -9577,12 +9621,12 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>DS302 (Lab)</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -9592,12 +9636,12 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J47" t="b">
@@ -9608,26 +9652,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>CS366</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>DS302 (Lab)</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr"/>
       <c r="P47" t="b">
         <v>0</v>
       </c>
@@ -9648,7 +9684,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -9658,22 +9694,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>DS303 (Tutorial)</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J48" t="b">
@@ -9684,18 +9720,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>DS303 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr"/>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
       <c r="P48" t="b">
         <v>0</v>
       </c>
@@ -9716,17 +9760,17 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>CS308</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -9736,7 +9780,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -9752,18 +9796,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>CS307</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr"/>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
       <c r="P49" t="b">
         <v>0</v>
       </c>
@@ -9784,17 +9836,17 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>DS303 (Tutorial)</t>
+          <t>DS301</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -9820,18 +9872,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>DS303 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr"/>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
       <c r="P50" t="b">
         <v>0</v>
       </c>
@@ -9852,17 +9912,17 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -9888,18 +9948,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr"/>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
       <c r="P51" t="b">
         <v>0</v>
       </c>
@@ -9920,17 +9988,17 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -9940,7 +10008,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -9956,18 +10024,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Course Code</t>
-        </is>
-      </c>
-      <c r="O52" t="inlineStr"/>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P52" t="b">
         <v>0</v>
       </c>
@@ -9993,12 +10069,12 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>DS303</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -10008,7 +10084,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -10024,18 +10100,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>DS303</t>
-        </is>
-      </c>
-      <c r="O53" t="inlineStr"/>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P53" t="b">
         <v>0</v>
       </c>
@@ -10061,12 +10145,12 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>EC364</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -10076,12 +10160,12 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J54" t="b">
@@ -10094,22 +10178,22 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>EC364</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P54" t="b">
@@ -10137,12 +10221,12 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>CS352</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -10157,7 +10241,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J55" t="b">
@@ -10170,22 +10254,22 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>CS352</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P55" t="b">
@@ -10213,12 +10297,12 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -10233,7 +10317,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J56" t="b">
@@ -10246,22 +10330,22 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P56" t="b">
@@ -10289,12 +10373,12 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>EC365</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -10309,7 +10393,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J57" t="b">
@@ -10322,22 +10406,22 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>EC365</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P57" t="b">
@@ -10360,27 +10444,27 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -10398,17 +10482,17 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -10436,27 +10520,27 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>CS308</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -10474,17 +10558,17 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>CS308</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -10512,32 +10596,32 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>DS301</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J60" t="b">
@@ -10550,17 +10634,17 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>DS301</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -10588,17 +10672,17 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -10608,12 +10692,12 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J61" t="b">
@@ -10626,17 +10710,17 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -10664,17 +10748,17 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -10684,7 +10768,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -10707,17 +10791,17 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P62" t="b">
@@ -10740,17 +10824,17 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -10760,7 +10844,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -10783,17 +10867,17 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P63" t="b">
@@ -10816,17 +10900,17 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Term Type</t>
+          <t>EC364</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -10852,18 +10936,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>Term Type</t>
-        </is>
-      </c>
-      <c r="O64" t="inlineStr"/>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
       <c r="P64" t="b">
         <v>0</v>
       </c>
@@ -10884,17 +10976,17 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Lecture Slot - Classroom</t>
+          <t>CS352</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -10920,18 +11012,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>Lecture Slot - Classroom</t>
-        </is>
-      </c>
-      <c r="O65" t="inlineStr"/>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
       <c r="P65" t="b">
         <v>0</v>
       </c>
@@ -10957,12 +11057,12 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -10990,22 +11090,22 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P66" t="b">
@@ -11033,12 +11133,12 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>EC365</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -11048,12 +11148,12 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J67" t="b">
@@ -11066,22 +11166,22 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>EC365</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P67" t="b">
@@ -11104,7 +11204,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -11114,22 +11214,22 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>CS307 (Lab)</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J68" t="b">
@@ -11140,26 +11240,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>DS301</t>
-        </is>
-      </c>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>CS307 (Lab)</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr"/>
       <c r="P68" t="b">
         <v>0</v>
       </c>
@@ -11180,32 +11272,32 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>CS307 (Lab)</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J69" t="b">
@@ -11216,959 +11308,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>CS366</t>
-        </is>
-      </c>
-      <c r="O69" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>CS307 (Lab)</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr"/>
       <c r="P69" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>5</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>DS359</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="J70" t="b">
-        <v>0</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>DS359</t>
-        </is>
-      </c>
-      <c r="O70" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-      <c r="P70" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>5</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>EC355</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="J71" t="b">
-        <v>0</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>EC355</t>
-        </is>
-      </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-      <c r="P71" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>5</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>EC364</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="J72" t="b">
-        <v>0</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
-      <c r="N72" t="inlineStr">
-        <is>
-          <t>EC364</t>
-        </is>
-      </c>
-      <c r="O72" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-      <c r="P72" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>5</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>CS352</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="J73" t="b">
-        <v>0</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
-      <c r="N73" t="inlineStr">
-        <is>
-          <t>CS352</t>
-        </is>
-      </c>
-      <c r="O73" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-      <c r="P73" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>5</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J74" t="b">
-        <v>0</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>C203</t>
-        </is>
-      </c>
-      <c r="N74" t="inlineStr">
-        <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="O74" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-      <c r="P74" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>5</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>EC365</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J75" t="b">
-        <v>0</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>C204</t>
-        </is>
-      </c>
-      <c r="N75" t="inlineStr">
-        <is>
-          <t>EC365</t>
-        </is>
-      </c>
-      <c r="O75" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-      <c r="P75" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>5</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>Course Code</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Lectures Hrs</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J76" t="b">
-        <v>0</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>L407</t>
-        </is>
-      </c>
-      <c r="N76" t="inlineStr">
-        <is>
-          <t>Lectures Hrs</t>
-        </is>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>5</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>Basket Name</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Tutorial Slot - Classroom</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J77" t="b">
-        <v>0</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>L407</t>
-        </is>
-      </c>
-      <c r="N77" t="inlineStr">
-        <is>
-          <t>Tutorial Slot - Classroom</t>
-        </is>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>5</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>13:00-14:30</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>CS307 (Lab)</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>Software Lab</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>Computers</t>
-        </is>
-      </c>
-      <c r="J78" t="b">
-        <v>0</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>L208</t>
-        </is>
-      </c>
-      <c r="N78" t="inlineStr">
-        <is>
-          <t>CS307 (Lab)</t>
-        </is>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>5</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>CS307 (Lab)</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J79" t="b">
-        <v>0</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>L408</t>
-        </is>
-      </c>
-      <c r="N79" t="inlineStr">
-        <is>
-          <t>CS307 (Lab)</t>
-        </is>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>5</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>Course Code</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Tutorials Hrs</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J80" t="b">
-        <v>0</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>L407</t>
-        </is>
-      </c>
-      <c r="N80" t="inlineStr">
-        <is>
-          <t>Tutorials Hrs</t>
-        </is>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>5</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>Basket Name</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>L-T-P-S-C</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J81" t="b">
-        <v>0</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>L407</t>
-        </is>
-      </c>
-      <c r="N81" t="inlineStr">
-        <is>
-          <t>L-T-P-S-C</t>
-        </is>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>5</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>17:00-18:00</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>DS302 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J82" t="b">
-        <v>0</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>L406</t>
-        </is>
-      </c>
-      <c r="N82" t="inlineStr">
-        <is>
-          <t>DS302 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="b">
         <v>0</v>
       </c>
     </row>
@@ -12221,7 +11373,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C101, L406, L408</t>
+          <t>C002, C004, C302</t>
         </is>
       </c>
     </row>
@@ -12238,7 +11390,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C101, C102</t>
+          <t>C003, C305, L402</t>
         </is>
       </c>
     </row>
@@ -12255,7 +11407,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C102, C104</t>
+          <t>C002, C004, L403</t>
         </is>
       </c>
     </row>
@@ -12272,7 +11424,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C104, C202</t>
+          <t>L402, L404</t>
         </is>
       </c>
     </row>
@@ -12289,7 +11441,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C104, C203, L403</t>
         </is>
       </c>
     </row>
@@ -12306,7 +11458,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C202, C204, L404</t>
         </is>
       </c>
     </row>
@@ -12323,7 +11475,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C302, L405</t>
         </is>
       </c>
     </row>
@@ -12340,7 +11492,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C303, L406</t>
         </is>
       </c>
     </row>
@@ -12357,7 +11509,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C304, L404, L407</t>
         </is>
       </c>
     </row>
@@ -12374,7 +11526,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C305, L406, L408</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem5_DSAI_timetable.xlsx
+++ b/backend/output_timetables/sem5_DSAI_timetable.xlsx
@@ -1484,7 +1484,7 @@
       </c>
       <c r="F6" s="11" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L106]</t>
+          <t>CS307 (Lab) [L207]</t>
         </is>
       </c>
       <c r="G6" s="8" t="n"/>
@@ -1497,12 +1497,12 @@
       </c>
       <c r="B7" s="9" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial) [C304]</t>
+          <t>DS302 (Tutorial)</t>
         </is>
       </c>
       <c r="C7" s="10" t="inlineStr">
         <is>
-          <t>DS303 (Tutorial) [L406]</t>
+          <t>DS303 (Tutorial)</t>
         </is>
       </c>
       <c r="D7" s="13" t="inlineStr">
@@ -1517,7 +1517,7 @@
       </c>
       <c r="F7" s="11" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L106]</t>
+          <t>CS307 (Lab) [L207]</t>
         </is>
       </c>
       <c r="G7" s="8" t="n"/>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="C9" s="9" t="inlineStr">
         <is>
-          <t>DS302 (Lab) [C205]</t>
+          <t>DS302 (Lab) [C001]</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
@@ -1886,12 +1886,12 @@
       </c>
       <c r="D22" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C204], Thu 13:00-14:30 [C204]</t>
+          <t>Tue 13:00-14:30 [C205], Thu 13:00-14:30 [C205]</t>
         </is>
       </c>
       <c r="E22" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C304]</t>
+          <t>Wed 14:30-15:30 [C303]</t>
         </is>
       </c>
       <c r="F22" s="8" t="inlineStr">
@@ -1919,12 +1919,12 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C205], Thu 13:00-14:30 [C205]</t>
+          <t>Tue 13:00-14:30 [C302], Thu 13:00-14:30 [C302]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C305]</t>
+          <t>Wed 14:30-15:30 [C304]</t>
         </is>
       </c>
       <c r="F23" s="8" t="inlineStr">
@@ -1952,12 +1952,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C302], Thu 13:00-14:30 [C302]</t>
+          <t>Tue 13:00-14:30 [C303], Thu 13:00-14:30 [C303]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C001]</t>
+          <t>Wed 14:30-15:30 [C305]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -1985,12 +1985,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C303], Thu 13:00-14:30 [C303]</t>
+          <t>Tue 13:00-14:30 [C304], Thu 13:00-14:30 [C304]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C002]</t>
+          <t>Wed 14:30-15:30 [C001]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -2018,12 +2018,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C305], Wed 15:30-17:00 [C305]</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C302]</t>
+          <t>Thu 14:30-15:30 [C304]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -2051,12 +2051,12 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L402], Wed 15:30-17:00 [L402]</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C303]</t>
+          <t>Thu 14:30-15:30 [C305]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -2084,12 +2084,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L404], Wed 15:30-17:00 [L404]</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C304]</t>
+          <t>Thu 14:30-15:30 [L402]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -2122,7 +2122,7 @@
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C305]</t>
+          <t>Thu 14:30-15:30 [L403]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -2155,7 +2155,7 @@
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C001]</t>
+          <t>Thu 14:30-15:30 [L404]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -2188,7 +2188,7 @@
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [L402]</t>
+          <t>Thu 14:30-15:30 [L405]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -2358,7 +2358,7 @@
       </c>
       <c r="F4" s="11" t="inlineStr">
         <is>
-          <t>CS307 [C305]</t>
+          <t>CS307 [C204]</t>
         </is>
       </c>
       <c r="G4" s="8" t="n"/>
@@ -2490,7 +2490,7 @@
       </c>
       <c r="F8" s="11" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L208]</t>
+          <t>CS307 (Lab) [L207]</t>
         </is>
       </c>
       <c r="G8" s="8" t="n"/>
@@ -2503,12 +2503,12 @@
       </c>
       <c r="B9" s="9" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial) [C003]</t>
+          <t>DS302 (Tutorial) [L405]</t>
         </is>
       </c>
       <c r="C9" s="10" t="inlineStr">
         <is>
-          <t>DS303 (Tutorial) [C303]</t>
+          <t>DS303 (Tutorial) [C302]</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
@@ -2518,12 +2518,12 @@
       </c>
       <c r="E9" s="9" t="inlineStr">
         <is>
-          <t>DS302 (Lab) [C205]</t>
+          <t>DS302 (Lab) [C302]</t>
         </is>
       </c>
       <c r="F9" s="11" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L208]</t>
+          <t>CS307 (Lab) [L207]</t>
         </is>
       </c>
       <c r="G9" s="8" t="n"/>
@@ -2826,12 +2826,12 @@
       </c>
       <c r="D22" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C204], Thu 13:00-14:30 [C204]</t>
+          <t>Tue 13:00-14:30 [C205], Thu 13:00-14:30 [C205]</t>
         </is>
       </c>
       <c r="E22" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C304]</t>
+          <t>Wed 14:30-15:30 [C303]</t>
         </is>
       </c>
       <c r="F22" s="8" t="inlineStr">
@@ -2859,12 +2859,12 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C205], Thu 13:00-14:30 [C205]</t>
+          <t>Tue 13:00-14:30 [C302], Thu 13:00-14:30 [C302]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C305]</t>
+          <t>Wed 14:30-15:30 [C304]</t>
         </is>
       </c>
       <c r="F23" s="8" t="inlineStr">
@@ -2892,12 +2892,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C302], Thu 13:00-14:30 [C302]</t>
+          <t>Tue 13:00-14:30 [C303], Thu 13:00-14:30 [C303]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C001]</t>
+          <t>Wed 14:30-15:30 [C305]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -2925,12 +2925,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C303], Thu 13:00-14:30 [C303]</t>
+          <t>Tue 13:00-14:30 [C304], Thu 13:00-14:30 [C304]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C002]</t>
+          <t>Wed 14:30-15:30 [C001]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -2958,12 +2958,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C305], Wed 15:30-17:00 [C305]</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C302]</t>
+          <t>Thu 14:30-15:30 [C304]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -2991,12 +2991,12 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L402], Wed 15:30-17:00 [L402]</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C303]</t>
+          <t>Thu 14:30-15:30 [C305]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -3024,12 +3024,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L404], Wed 15:30-17:00 [L404]</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C304]</t>
+          <t>Thu 14:30-15:30 [L402]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -3062,7 +3062,7 @@
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C305]</t>
+          <t>Thu 14:30-15:30 [L403]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -3095,7 +3095,7 @@
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C001]</t>
+          <t>Thu 14:30-15:30 [L404]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -3128,7 +3128,7 @@
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [L402]</t>
+          <t>Thu 14:30-15:30 [L405]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -3298,7 +3298,7 @@
       </c>
       <c r="F4" s="11" t="inlineStr">
         <is>
-          <t>CS307 [C205]</t>
+          <t>CS307 [C304]</t>
         </is>
       </c>
       <c r="G4" s="8" t="n"/>
@@ -3430,7 +3430,7 @@
       </c>
       <c r="F8" s="11" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L107]</t>
+          <t>CS307 (Lab) [L106]</t>
         </is>
       </c>
       <c r="G8" s="8" t="n"/>
@@ -3443,7 +3443,7 @@
       </c>
       <c r="B9" s="9" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial) [C004]</t>
+          <t>DS302 (Tutorial) [L406]</t>
         </is>
       </c>
       <c r="C9" s="10" t="inlineStr">
@@ -3458,12 +3458,12 @@
       </c>
       <c r="E9" s="9" t="inlineStr">
         <is>
-          <t>DS302 (Lab) [C104]</t>
+          <t>DS302 (Lab) [C303]</t>
         </is>
       </c>
       <c r="F9" s="11" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L107]</t>
+          <t>CS307 (Lab) [L106]</t>
         </is>
       </c>
       <c r="G9" s="8" t="n"/>
@@ -3766,12 +3766,12 @@
       </c>
       <c r="D22" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C204], Thu 13:00-14:30 [C204]</t>
+          <t>Tue 13:00-14:30 [C205], Thu 13:00-14:30 [C205]</t>
         </is>
       </c>
       <c r="E22" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C304]</t>
+          <t>Wed 14:30-15:30 [C303]</t>
         </is>
       </c>
       <c r="F22" s="8" t="inlineStr">
@@ -3799,12 +3799,12 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C205], Thu 13:00-14:30 [C205]</t>
+          <t>Tue 13:00-14:30 [C302], Thu 13:00-14:30 [C302]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C305]</t>
+          <t>Wed 14:30-15:30 [C304]</t>
         </is>
       </c>
       <c r="F23" s="8" t="inlineStr">
@@ -3832,12 +3832,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C302], Thu 13:00-14:30 [C302]</t>
+          <t>Tue 13:00-14:30 [C303], Thu 13:00-14:30 [C303]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C001]</t>
+          <t>Wed 14:30-15:30 [C305]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -3865,12 +3865,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C303], Thu 13:00-14:30 [C303]</t>
+          <t>Tue 13:00-14:30 [C304], Thu 13:00-14:30 [C304]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C002]</t>
+          <t>Wed 14:30-15:30 [C001]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -3898,12 +3898,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C305], Wed 15:30-17:00 [C305]</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C302]</t>
+          <t>Thu 14:30-15:30 [C304]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -3931,12 +3931,12 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L402], Wed 15:30-17:00 [L402]</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C303]</t>
+          <t>Thu 14:30-15:30 [C305]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -3964,12 +3964,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L404], Wed 15:30-17:00 [L404]</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C304]</t>
+          <t>Thu 14:30-15:30 [L402]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -4002,7 +4002,7 @@
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C305]</t>
+          <t>Thu 14:30-15:30 [L403]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -4035,7 +4035,7 @@
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C001]</t>
+          <t>Thu 14:30-15:30 [L404]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -4068,7 +4068,7 @@
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [L402]</t>
+          <t>Thu 14:30-15:30 [L405]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -4226,7 +4226,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>CS307 [C205]</t>
+          <t>CS307 [C302]</t>
         </is>
       </c>
     </row>
@@ -4349,7 +4349,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>DS302 (Lab) [C001]</t>
+          <t>DS302 (Lab) [C102]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -4366,12 +4366,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial) [C004]</t>
+          <t>DS302 (Tutorial) [C204]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DS303 (Tutorial) [C304]</t>
+          <t>DS303 (Tutorial) [C303]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -4381,7 +4381,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>DS302 (Lab) [C104]</t>
+          <t>DS302 (Lab) [L106]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -4510,27 +4510,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Machine Learning [C102]</t>
+          <t>Machine Learning [C001]</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>3-0-2-0-4 [C102]</t>
+          <t>3-0-2-0-4 [C001]</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Full Sem [C102]</t>
+          <t>Full Sem [C001]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3/3 [C102]</t>
+          <t>3/3 [C001]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0/0 [C102]</t>
+          <t>0/0 [C001]</t>
         </is>
       </c>
     </row>
@@ -4542,27 +4542,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Computer Communication [C204]</t>
+          <t>Computer Communication [C303]</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>3-1-2-0-5 [C204]</t>
+          <t>3-1-2-0-5 [C303]</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Full Sem [C204]</t>
+          <t>Full Sem [C303]</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3/3 [C204]</t>
+          <t>3/3 [C303]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1/1 [C204]</t>
+          <t>1/1 [C303]</t>
         </is>
       </c>
     </row>
@@ -4574,27 +4574,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Algorithms and Data Structures [C204]</t>
+          <t>Algorithms and Data Structures [C303]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [C203]</t>
+          <t>3-1-0-0-4 [C303]</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Full Sem [C204]</t>
+          <t>Full Sem [C303]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3/3 [C204]</t>
+          <t>3/3 [C303]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1/1 [C204]</t>
+          <t>1/1 [C303]</t>
         </is>
       </c>
     </row>
@@ -4672,7 +4672,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C204], Thu 13:00-14:30</t>
+          <t>Tue 13:00-14:30 [C205], Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -4704,7 +4704,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C204], Thu 13:00-14:30</t>
+          <t>Tue 13:00-14:30 [C205], Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -4736,7 +4736,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C204], Thu 13:00-14:30</t>
+          <t>Tue 13:00-14:30 [C205], Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -4768,7 +4768,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C204], Thu 13:00-14:30</t>
+          <t>Tue 13:00-14:30 [C205], Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -4800,7 +4800,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C305], Wed 15:30-17:00</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -4832,7 +4832,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C305], Wed 15:30-17:00</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -4864,7 +4864,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C305], Wed 15:30-17:00</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -4896,7 +4896,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C305], Wed 15:30-17:00</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -4928,7 +4928,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C305], Wed 15:30-17:00</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -4960,7 +4960,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C305], Wed 15:30-17:00</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -5052,10 +5052,10 @@
         </is>
       </c>
       <c r="D2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E2" t="n">
         <v>1.5</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.3</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -5150,10 +5150,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -5218,10 +5218,10 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>7.5</v>
+        <v>1.5</v>
       </c>
       <c r="E7" t="n">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -5286,10 +5286,10 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="E9" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -5354,10 +5354,10 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -5490,10 +5490,10 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -5524,10 +5524,10 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>19.5</v>
+        <v>1.5</v>
       </c>
       <c r="E16" t="n">
-        <v>3.9</v>
+        <v>0.3</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -5558,10 +5558,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3</v>
+        <v>1.2</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -5694,10 +5694,10 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -5762,10 +5762,10 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -5796,10 +5796,10 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -5830,10 +5830,10 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -5864,10 +5864,10 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -6246,7 +6246,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P69"/>
+  <dimension ref="A1:P93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6439,17 +6439,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J3" t="b">
@@ -6463,7 +6463,7 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -6583,19 +6583,15 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="b">
         <v>0</v>
       </c>
@@ -6607,7 +6603,7 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -6679,7 +6675,7 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -6751,7 +6747,7 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -6895,7 +6891,7 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -7015,19 +7011,15 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="b">
         <v>0</v>
       </c>
@@ -7039,7 +7031,7 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -7111,7 +7103,7 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -7183,7 +7175,7 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -7375,19 +7367,15 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="b">
         <v>0</v>
       </c>
@@ -7399,7 +7387,7 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -7471,7 +7459,7 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -7543,7 +7531,7 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -7663,15 +7651,19 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J20" t="b">
         <v>0</v>
       </c>
@@ -7683,7 +7675,7 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -7731,17 +7723,17 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J21" t="b">
@@ -7755,7 +7747,7 @@
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -7875,19 +7867,15 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="b">
         <v>0</v>
       </c>
@@ -7899,7 +7887,7 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -7971,7 +7959,7 @@
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -8043,7 +8031,7 @@
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -8173,7 +8161,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J27" t="b">
@@ -8187,7 +8175,7 @@
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -8451,19 +8439,15 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="b">
         <v>0</v>
       </c>
@@ -8475,7 +8459,7 @@
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -8547,7 +8531,7 @@
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -8619,7 +8603,7 @@
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -8657,12 +8641,12 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>DS303</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -8691,12 +8675,12 @@
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>DS303</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
@@ -8725,12 +8709,12 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial)</t>
+          <t>DS302</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -8759,12 +8743,12 @@
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial)</t>
+          <t>DS302</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
@@ -8793,12 +8777,12 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -8808,12 +8792,12 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J36" t="b">
@@ -8824,26 +8808,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>DS359</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr"/>
       <c r="P36" t="b">
         <v>0</v>
       </c>
@@ -8869,12 +8845,12 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>DS302 (Tutorial)</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -8900,26 +8876,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>EC355</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>DS302 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr"/>
       <c r="P37" t="b">
         <v>0</v>
       </c>
@@ -8950,7 +8918,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -8983,12 +8951,12 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -9026,7 +8994,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -9041,7 +9009,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J39" t="b">
@@ -9059,12 +9027,12 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -9102,7 +9070,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>EC364</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -9112,12 +9080,12 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J40" t="b">
@@ -9135,12 +9103,12 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>EC364</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -9178,7 +9146,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>CS352</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -9188,12 +9156,12 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J41" t="b">
@@ -9211,12 +9179,12 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>CS352</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -9244,17 +9212,17 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -9269,7 +9237,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J42" t="b">
@@ -9282,17 +9250,17 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -9320,17 +9288,17 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>EC365</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -9358,17 +9326,17 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>EC365</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -9396,32 +9364,32 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>Course Name</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J44" t="b">
@@ -9432,26 +9400,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>DS301</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr"/>
       <c r="P44" t="b">
         <v>0</v>
       </c>
@@ -9472,17 +9432,17 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>Course</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -9492,7 +9452,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -9508,26 +9468,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>CS366</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>Course</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr"/>
       <c r="P45" t="b">
         <v>0</v>
       </c>
@@ -9548,17 +9500,17 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>DS303 (Tutorial)</t>
+          <t>Parallel computing</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -9568,12 +9520,12 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J46" t="b">
@@ -9587,12 +9539,12 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>DS303 (Tutorial)</t>
+          <t>Parallel computing</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
@@ -9616,17 +9568,17 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>DS302 (Lab)</t>
+          <t>Full Stack Development</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -9655,12 +9607,12 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>DS302 (Lab)</t>
+          <t>Full Stack Development</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
@@ -9684,32 +9636,32 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>DS303</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J48" t="b">
@@ -9720,26 +9672,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>CS463</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>DS303</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr"/>
       <c r="P48" t="b">
         <v>0</v>
       </c>
@@ -9760,17 +9704,17 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>DS302</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -9780,12 +9724,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J49" t="b">
@@ -9796,26 +9740,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>CS308</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>DS302</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr"/>
       <c r="P49" t="b">
         <v>0</v>
       </c>
@@ -9836,17 +9772,17 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -9856,12 +9792,12 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J50" t="b">
@@ -9879,17 +9815,17 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P50" t="b">
@@ -9912,17 +9848,17 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>CS308</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -9932,12 +9868,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J51" t="b">
@@ -9955,17 +9891,17 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>CS308</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P51" t="b">
@@ -9988,17 +9924,17 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>DS301</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -10013,7 +9949,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J52" t="b">
@@ -10026,17 +9962,17 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>DS301</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -10064,17 +10000,17 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -10089,7 +10025,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J53" t="b">
@@ -10102,17 +10038,17 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -10140,27 +10076,27 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>DS303 (Tutorial)</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -10176,26 +10112,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>EC364</t>
-        </is>
-      </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>DS303 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr"/>
       <c r="P54" t="b">
         <v>0</v>
       </c>
@@ -10216,7 +10144,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -10226,7 +10154,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>DS302 (Lab)</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -10236,7 +10164,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -10252,26 +10180,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>CS352</t>
-        </is>
-      </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>DS302 (Lab)</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr"/>
       <c r="P55" t="b">
         <v>0</v>
       </c>
@@ -10292,17 +10212,17 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>L-T-P-S-C</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -10328,26 +10248,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>L-T-P-S-C</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr"/>
       <c r="P56" t="b">
         <v>0</v>
       </c>
@@ -10368,17 +10280,17 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -10404,11 +10316,7 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
           <t>C305</t>
@@ -10416,14 +10324,10 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>EC365</t>
-        </is>
-      </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr"/>
       <c r="P57" t="b">
         <v>0</v>
       </c>
@@ -10444,12 +10348,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -10459,12 +10363,12 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -10480,14 +10384,10 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -10495,11 +10395,7 @@
           <t>CS463</t>
         </is>
       </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+      <c r="O58" t="inlineStr"/>
       <c r="P58" t="b">
         <v>0</v>
       </c>
@@ -10520,32 +10416,32 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J59" t="b">
@@ -10556,26 +10452,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>CS308</t>
-        </is>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr"/>
       <c r="P59" t="b">
         <v>0</v>
       </c>
@@ -10596,32 +10484,32 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J60" t="b">
@@ -10632,26 +10520,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>DS301</t>
-        </is>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr"/>
       <c r="P60" t="b">
         <v>0</v>
       </c>
@@ -10672,17 +10552,17 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -10715,17 +10595,17 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P61" t="b">
@@ -10748,7 +10628,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -10758,7 +10638,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>CS308</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -10786,17 +10666,17 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>CS308</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -10824,7 +10704,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -10834,7 +10714,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>DS301</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -10862,17 +10742,17 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>DS301</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -10900,7 +10780,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -10910,7 +10790,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -10938,17 +10818,17 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -10976,17 +10856,17 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -10996,12 +10876,12 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J65" t="b">
@@ -11019,17 +10899,17 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P65" t="b">
@@ -11052,17 +10932,17 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -11072,12 +10952,12 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J66" t="b">
@@ -11095,17 +10975,17 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P66" t="b">
@@ -11128,17 +11008,17 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>EC364</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -11148,12 +11028,12 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J67" t="b">
@@ -11171,17 +11051,17 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>EC364</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P67" t="b">
@@ -11204,32 +11084,32 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>CS307 (Lab)</t>
+          <t>CS352</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J68" t="b">
@@ -11240,18 +11120,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>CS307 (Lab)</t>
-        </is>
-      </c>
-      <c r="O68" t="inlineStr"/>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P68" t="b">
         <v>0</v>
       </c>
@@ -11272,55 +11160,1779 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J69" t="b">
+        <v>0</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>5</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J70" t="b">
+        <v>0</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>5</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Term Type</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J71" t="b">
+        <v>0</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>Term Type</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>5</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Lecture Slot - Classroom</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J72" t="b">
+        <v>0</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>Lecture Slot - Classroom</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>5</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Tue 13:00-14:30 [C205], Thu 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J73" t="b">
+        <v>0</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>Tue 13:00-14:30 [C205], Thu 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>5</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J74" t="b">
+        <v>0</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>L404</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>5</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J75" t="b">
+        <v>0</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>L402</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>5</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J76" t="b">
+        <v>0</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>L403</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>5</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J77" t="b">
+        <v>0</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>L404</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>5</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J78" t="b">
+        <v>0</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>L405</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>5</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J79" t="b">
+        <v>0</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>5</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J80" t="b">
+        <v>0</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P80" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>5</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J81" t="b">
+        <v>0</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P81" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>5</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J82" t="b">
+        <v>0</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P82" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>5</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J83" t="b">
+        <v>0</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P83" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>5</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J84" t="b">
+        <v>0</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P84" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>5</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Lectures Hrs</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J85" t="b">
+        <v>0</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>Lectures Hrs</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr"/>
+      <c r="P85" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>5</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Tutorial Slot - Classroom</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J86" t="b">
+        <v>0</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>Tutorial Slot - Classroom</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr"/>
+      <c r="P86" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>5</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Wed 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J87" t="b">
+        <v>0</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>Wed 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr"/>
+      <c r="P87" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>5</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Thu 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J88" t="b">
+        <v>0</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>L404</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>Thu 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr"/>
+      <c r="P88" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>5</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
           <t>Fri</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>CS307 (Lab)</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="J89" t="b">
+        <v>0</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>L207</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>CS307 (Lab)</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr"/>
+      <c r="P89" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>5</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
         <is>
           <t>14:30-15:30</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>CS307 (Lab)</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>Software Lab</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="I69" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>Computers</t>
         </is>
       </c>
-      <c r="J69" t="b">
-        <v>0</v>
-      </c>
-      <c r="K69" t="inlineStr">
+      <c r="J90" t="b">
+        <v>0</v>
+      </c>
+      <c r="K90" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>L106</t>
-        </is>
-      </c>
-      <c r="N69" t="inlineStr">
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>L208</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
         <is>
           <t>CS307 (Lab)</t>
         </is>
       </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="b">
+      <c r="O90" t="inlineStr"/>
+      <c r="P90" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>5</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Tutorials Hrs</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J91" t="b">
+        <v>0</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>Tutorials Hrs</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr"/>
+      <c r="P91" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>5</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>L-T-P-S-C</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J92" t="b">
+        <v>0</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>L-T-P-S-C</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr"/>
+      <c r="P92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>5</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="b">
+        <v>0</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr"/>
+      <c r="P93" t="b">
         <v>0</v>
       </c>
     </row>
@@ -11373,7 +12985,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C002, C004, C302</t>
+          <t>C101, L402, L404</t>
         </is>
       </c>
     </row>
@@ -11390,7 +13002,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C003, C305, L402</t>
+          <t>C102, L403, L405</t>
         </is>
       </c>
     </row>
@@ -11407,7 +13019,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C002, C004, L403</t>
+          <t>C104, L404, L406</t>
         </is>
       </c>
     </row>
@@ -11424,7 +13036,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>L402, L404</t>
+          <t>C202, L405, L407</t>
         </is>
       </c>
     </row>
@@ -11441,7 +13053,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C104, C203, L403</t>
+          <t>C101, C204, L404</t>
         </is>
       </c>
     </row>
@@ -11458,7 +13070,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C202, C204, L404</t>
+          <t>C102, C205</t>
         </is>
       </c>
     </row>
@@ -11475,7 +13087,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C302, L405</t>
+          <t>C104, C302</t>
         </is>
       </c>
     </row>
@@ -11492,7 +13104,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C303, L406</t>
+          <t>C202, C303</t>
         </is>
       </c>
     </row>
@@ -11509,7 +13121,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C304, L404, L407</t>
+          <t>C104, C203</t>
         </is>
       </c>
     </row>
@@ -11526,7 +13138,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C305, L406, L408</t>
+          <t>C204, C304</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem5_DSAI_timetable.xlsx
+++ b/backend/output_timetables/sem5_DSAI_timetable.xlsx
@@ -1332,22 +1332,22 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C104]</t>
+          <t>MINOR: Generative Ai [C205]</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C104]</t>
+          <t>MINOR: Cybersecurity [C202]</t>
         </is>
       </c>
       <c r="D2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C104]</t>
+          <t>MINOR: Design [C302]</t>
         </is>
       </c>
       <c r="E2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C104]</t>
+          <t>MINOR: VLSI [C205]</t>
         </is>
       </c>
       <c r="F2" s="8" t="inlineStr">
@@ -1365,17 +1365,17 @@
       </c>
       <c r="B3" s="9" t="inlineStr">
         <is>
-          <t>DS302</t>
+          <t>DS302 [L404]</t>
         </is>
       </c>
       <c r="C3" s="9" t="inlineStr">
         <is>
-          <t>DS302</t>
-        </is>
-      </c>
-      <c r="D3" s="10" t="inlineStr">
-        <is>
-          <t>DS303</t>
+          <t>DS302 [L404]</t>
+        </is>
+      </c>
+      <c r="D3" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
         </is>
       </c>
       <c r="E3" s="8" t="inlineStr">
@@ -1398,12 +1398,12 @@
       </c>
       <c r="B4" s="10" t="inlineStr">
         <is>
-          <t>DS303</t>
+          <t>DS303 [L404]</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>CS307 [C308]</t>
         </is>
       </c>
       <c r="D4" s="8" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="B6" s="11" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>CS307 [L405]</t>
         </is>
       </c>
       <c r="C6" s="13" t="inlineStr">
@@ -1472,9 +1472,9 @@
           <t>ELECTIVE_B4</t>
         </is>
       </c>
-      <c r="D6" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
+      <c r="D6" s="10" t="inlineStr">
+        <is>
+          <t>DS303 [L405]</t>
         </is>
       </c>
       <c r="E6" s="13" t="inlineStr">
@@ -1484,7 +1484,7 @@
       </c>
       <c r="F6" s="11" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L207]</t>
+          <t>CS307 (Lab) [L107]</t>
         </is>
       </c>
       <c r="G6" s="8" t="n"/>
@@ -1497,12 +1497,12 @@
       </c>
       <c r="B7" s="9" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial)</t>
+          <t>DS302 (Tutorial) [C205]</t>
         </is>
       </c>
       <c r="C7" s="10" t="inlineStr">
         <is>
-          <t>DS303 (Tutorial)</t>
+          <t>DS303 (Tutorial) [L405]</t>
         </is>
       </c>
       <c r="D7" s="13" t="inlineStr">
@@ -1517,7 +1517,7 @@
       </c>
       <c r="F7" s="11" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L207]</t>
+          <t>CS307 (Lab) [L107]</t>
         </is>
       </c>
       <c r="G7" s="8" t="n"/>
@@ -1535,7 +1535,7 @@
       </c>
       <c r="C8" s="9" t="inlineStr">
         <is>
-          <t>DS302 (Lab)</t>
+          <t>DS302 (Lab) [C308]</t>
         </is>
       </c>
       <c r="D8" s="14" t="inlineStr">
@@ -1568,7 +1568,7 @@
       </c>
       <c r="C9" s="9" t="inlineStr">
         <is>
-          <t>DS302 (Lab) [C001]</t>
+          <t>DS302 (Lab) [C308]</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
@@ -1596,27 +1596,27 @@
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C104]</t>
+          <t>MINOR: VLSI [C303]</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C104]</t>
+          <t>MINOR: DSAI [C102]</t>
         </is>
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C104]</t>
+          <t>MINOR: Generative Ai [C303]</t>
         </is>
       </c>
       <c r="E10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C104]</t>
+          <t>MINOR: Cybersecurity [C303]</t>
         </is>
       </c>
       <c r="F10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C104]</t>
+          <t>MINOR: Design [C205]</t>
         </is>
       </c>
       <c r="G10" s="8" t="n"/>
@@ -1886,12 +1886,12 @@
       </c>
       <c r="D22" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C205], Thu 13:00-14:30 [C205]</t>
+          <t>Tue 13:00-14:30 [L408], Thu 13:00-14:30 [L408]</t>
         </is>
       </c>
       <c r="E22" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C303]</t>
+          <t>Wed 14:30-15:30 [L407]</t>
         </is>
       </c>
       <c r="F22" s="8" t="inlineStr">
@@ -1919,12 +1919,12 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C302], Thu 13:00-14:30 [C302]</t>
+          <t>Tue 13:00-14:30 [L403], Thu 13:00-14:30 [L403]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C304]</t>
+          <t>Wed 14:30-15:30 [L404]</t>
         </is>
       </c>
       <c r="F23" s="8" t="inlineStr">
@@ -1952,12 +1952,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C303], Thu 13:00-14:30 [C303]</t>
+          <t>Tue 13:00-14:30 [L405], Thu 13:00-14:30 [L405]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C305]</t>
+          <t>Wed 14:30-15:30 [L408]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -1985,12 +1985,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C304], Thu 13:00-14:30 [C304]</t>
+          <t>Tue 13:00-14:30 [L407], Thu 13:00-14:30 [L407]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C001]</t>
+          <t>Wed 14:30-15:30 [L402]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -2018,12 +2018,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+          <t>Mon 15:30-17:00 [L402], Wed 15:30-17:00 [L402]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C304]</t>
+          <t>Thu 14:30-15:30 [L405]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -2051,12 +2051,12 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+          <t>Mon 15:30-17:00 [L406], Wed 15:30-17:00 [L406]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C305]</t>
+          <t>Thu 14:30-15:30 [L408]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -2084,7 +2084,7 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+          <t>Mon 15:30-17:00 [C001], Wed 15:30-17:00 [C001]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
@@ -2117,7 +2117,7 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+          <t>Mon 15:30-17:00 [C002], Wed 15:30-17:00 [C002]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
@@ -2150,12 +2150,12 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+          <t>Mon 15:30-17:00 [C003], Wed 15:30-17:00 [C003]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [L404]</t>
+          <t>Thu 14:30-15:30 [L406]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -2183,12 +2183,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+          <t>Mon 15:30-17:00 [L403], Wed 15:30-17:00 [L403]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [L405]</t>
+          <t>Thu 14:30-15:30 [L407]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -2272,22 +2272,22 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C104]</t>
+          <t>MINOR: Generative Ai [C205]</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C104]</t>
+          <t>MINOR: Cybersecurity [C202]</t>
         </is>
       </c>
       <c r="D2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C104]</t>
+          <t>MINOR: Design [C302]</t>
         </is>
       </c>
       <c r="E2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C104]</t>
+          <t>MINOR: VLSI [C205]</t>
         </is>
       </c>
       <c r="F2" s="8" t="inlineStr">
@@ -2305,17 +2305,17 @@
       </c>
       <c r="B3" s="10" t="inlineStr">
         <is>
-          <t>DS303</t>
+          <t>DS303 [L404]</t>
         </is>
       </c>
       <c r="C3" s="10" t="inlineStr">
         <is>
-          <t>DS303</t>
+          <t>DS303 [L404]</t>
         </is>
       </c>
       <c r="D3" s="11" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>CS307 [L404]</t>
         </is>
       </c>
       <c r="E3" s="8" t="inlineStr">
@@ -2338,12 +2338,12 @@
       </c>
       <c r="B4" s="9" t="inlineStr">
         <is>
-          <t>DS302</t>
+          <t>DS302 [L404]</t>
         </is>
       </c>
       <c r="C4" s="9" t="inlineStr">
         <is>
-          <t>DS302</t>
+          <t>DS302 [L208]</t>
         </is>
       </c>
       <c r="D4" s="8" t="inlineStr">
@@ -2356,9 +2356,9 @@
           <t>Free</t>
         </is>
       </c>
-      <c r="F4" s="11" t="inlineStr">
-        <is>
-          <t>CS307 [C204]</t>
+      <c r="F4" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
         </is>
       </c>
       <c r="G4" s="8" t="n"/>
@@ -2473,24 +2473,24 @@
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="C8" s="8" t="inlineStr">
+      <c r="C8" s="11" t="inlineStr">
+        <is>
+          <t>CS307 [L402]</t>
+        </is>
+      </c>
+      <c r="D8" s="14" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="E8" s="9" t="inlineStr">
+        <is>
+          <t>DS302 (Lab) [C308]</t>
+        </is>
+      </c>
+      <c r="F8" s="8" t="inlineStr">
         <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="D8" s="14" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="E8" s="9" t="inlineStr">
-        <is>
-          <t>DS302 (Lab)</t>
-        </is>
-      </c>
-      <c r="F8" s="11" t="inlineStr">
-        <is>
-          <t>CS307 (Lab) [L207]</t>
         </is>
       </c>
       <c r="G8" s="8" t="n"/>
@@ -2503,12 +2503,12 @@
       </c>
       <c r="B9" s="9" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial) [L405]</t>
+          <t>DS302 (Tutorial) [C001]</t>
         </is>
       </c>
       <c r="C9" s="10" t="inlineStr">
         <is>
-          <t>DS303 (Tutorial) [C302]</t>
+          <t>DS303 (Tutorial) [L405]</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
@@ -2518,12 +2518,12 @@
       </c>
       <c r="E9" s="9" t="inlineStr">
         <is>
-          <t>DS302 (Lab) [C302]</t>
-        </is>
-      </c>
-      <c r="F9" s="11" t="inlineStr">
-        <is>
-          <t>CS307 (Lab) [L207]</t>
+          <t>DS302 (Lab) [C308]</t>
+        </is>
+      </c>
+      <c r="F9" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
         </is>
       </c>
       <c r="G9" s="8" t="n"/>
@@ -2536,27 +2536,27 @@
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C104]</t>
+          <t>MINOR: VLSI [C303]</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C104]</t>
+          <t>MINOR: DSAI [C102]</t>
         </is>
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C104]</t>
+          <t>MINOR: Generative Ai [C303]</t>
         </is>
       </c>
       <c r="E10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C104]</t>
+          <t>MINOR: Cybersecurity [C303]</t>
         </is>
       </c>
       <c r="F10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C104]</t>
+          <t>MINOR: Design [C205]</t>
         </is>
       </c>
       <c r="G10" s="8" t="n"/>
@@ -2826,12 +2826,12 @@
       </c>
       <c r="D22" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C205], Thu 13:00-14:30 [C205]</t>
+          <t>Tue 13:00-14:30 [L408], Thu 13:00-14:30 [L408]</t>
         </is>
       </c>
       <c r="E22" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C303]</t>
+          <t>Wed 14:30-15:30 [L407]</t>
         </is>
       </c>
       <c r="F22" s="8" t="inlineStr">
@@ -2859,12 +2859,12 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C302], Thu 13:00-14:30 [C302]</t>
+          <t>Tue 13:00-14:30 [L403], Thu 13:00-14:30 [L403]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C304]</t>
+          <t>Wed 14:30-15:30 [L404]</t>
         </is>
       </c>
       <c r="F23" s="8" t="inlineStr">
@@ -2892,12 +2892,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C303], Thu 13:00-14:30 [C303]</t>
+          <t>Tue 13:00-14:30 [L405], Thu 13:00-14:30 [L405]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C305]</t>
+          <t>Wed 14:30-15:30 [L408]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -2925,12 +2925,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C304], Thu 13:00-14:30 [C304]</t>
+          <t>Tue 13:00-14:30 [L407], Thu 13:00-14:30 [L407]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C001]</t>
+          <t>Wed 14:30-15:30 [L402]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -2958,12 +2958,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+          <t>Mon 15:30-17:00 [L402], Wed 15:30-17:00 [L402]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C304]</t>
+          <t>Thu 14:30-15:30 [L405]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -2991,12 +2991,12 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+          <t>Mon 15:30-17:00 [L406], Wed 15:30-17:00 [L406]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C305]</t>
+          <t>Thu 14:30-15:30 [L408]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -3024,7 +3024,7 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+          <t>Mon 15:30-17:00 [C001], Wed 15:30-17:00 [C001]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
@@ -3057,7 +3057,7 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+          <t>Mon 15:30-17:00 [C002], Wed 15:30-17:00 [C002]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
@@ -3090,12 +3090,12 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+          <t>Mon 15:30-17:00 [C003], Wed 15:30-17:00 [C003]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [L404]</t>
+          <t>Thu 14:30-15:30 [L406]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -3123,12 +3123,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+          <t>Mon 15:30-17:00 [L403], Wed 15:30-17:00 [L403]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [L405]</t>
+          <t>Thu 14:30-15:30 [L407]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -3212,22 +3212,22 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C104]</t>
+          <t>MINOR: Generative Ai [C205]</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C104]</t>
+          <t>MINOR: Cybersecurity [C202]</t>
         </is>
       </c>
       <c r="D2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C104]</t>
+          <t>MINOR: Design [C302]</t>
         </is>
       </c>
       <c r="E2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C104]</t>
+          <t>MINOR: VLSI [C205]</t>
         </is>
       </c>
       <c r="F2" s="8" t="inlineStr">
@@ -3245,17 +3245,17 @@
       </c>
       <c r="B3" s="10" t="inlineStr">
         <is>
-          <t>DS303</t>
+          <t>DS303 [L404]</t>
         </is>
       </c>
       <c r="C3" s="10" t="inlineStr">
         <is>
-          <t>DS303</t>
+          <t>DS303 [L404]</t>
         </is>
       </c>
       <c r="D3" s="11" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>CS307 [L404]</t>
         </is>
       </c>
       <c r="E3" s="8" t="inlineStr">
@@ -3278,12 +3278,12 @@
       </c>
       <c r="B4" s="9" t="inlineStr">
         <is>
-          <t>DS302</t>
+          <t>DS302 [L404]</t>
         </is>
       </c>
       <c r="C4" s="9" t="inlineStr">
         <is>
-          <t>DS302</t>
+          <t>DS302 [L105]</t>
         </is>
       </c>
       <c r="D4" s="8" t="inlineStr">
@@ -3296,9 +3296,9 @@
           <t>Free</t>
         </is>
       </c>
-      <c r="F4" s="11" t="inlineStr">
-        <is>
-          <t>CS307 [C304]</t>
+      <c r="F4" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
         </is>
       </c>
       <c r="G4" s="8" t="n"/>
@@ -3413,24 +3413,24 @@
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="C8" s="8" t="inlineStr">
+      <c r="C8" s="11" t="inlineStr">
+        <is>
+          <t>CS307 [L403]</t>
+        </is>
+      </c>
+      <c r="D8" s="14" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="E8" s="9" t="inlineStr">
+        <is>
+          <t>DS302 (Lab)</t>
+        </is>
+      </c>
+      <c r="F8" s="8" t="inlineStr">
         <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="D8" s="14" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="E8" s="9" t="inlineStr">
-        <is>
-          <t>DS302 (Lab)</t>
-        </is>
-      </c>
-      <c r="F8" s="11" t="inlineStr">
-        <is>
-          <t>CS307 (Lab) [L106]</t>
         </is>
       </c>
       <c r="G8" s="8" t="n"/>
@@ -3443,12 +3443,12 @@
       </c>
       <c r="B9" s="9" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial) [L406]</t>
+          <t>DS302 (Tutorial) [C002]</t>
         </is>
       </c>
       <c r="C9" s="10" t="inlineStr">
         <is>
-          <t>DS303 (Tutorial) [C304]</t>
+          <t>DS303 (Tutorial) [C102]</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
@@ -3458,12 +3458,12 @@
       </c>
       <c r="E9" s="9" t="inlineStr">
         <is>
-          <t>DS302 (Lab) [C303]</t>
-        </is>
-      </c>
-      <c r="F9" s="11" t="inlineStr">
-        <is>
-          <t>CS307 (Lab) [L106]</t>
+          <t>DS302 (Lab) [C004]</t>
+        </is>
+      </c>
+      <c r="F9" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
         </is>
       </c>
       <c r="G9" s="8" t="n"/>
@@ -3476,27 +3476,27 @@
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C104]</t>
+          <t>MINOR: VLSI [C303]</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C104]</t>
+          <t>MINOR: DSAI [C102]</t>
         </is>
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C104]</t>
+          <t>MINOR: Generative Ai [C303]</t>
         </is>
       </c>
       <c r="E10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C104]</t>
+          <t>MINOR: Cybersecurity [C303]</t>
         </is>
       </c>
       <c r="F10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C104]</t>
+          <t>MINOR: Design [C205]</t>
         </is>
       </c>
       <c r="G10" s="8" t="n"/>
@@ -3766,12 +3766,12 @@
       </c>
       <c r="D22" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C205], Thu 13:00-14:30 [C205]</t>
+          <t>Tue 13:00-14:30 [L408], Thu 13:00-14:30 [L408]</t>
         </is>
       </c>
       <c r="E22" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C303]</t>
+          <t>Wed 14:30-15:30 [L407]</t>
         </is>
       </c>
       <c r="F22" s="8" t="inlineStr">
@@ -3799,12 +3799,12 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C302], Thu 13:00-14:30 [C302]</t>
+          <t>Tue 13:00-14:30 [L403], Thu 13:00-14:30 [L403]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C304]</t>
+          <t>Wed 14:30-15:30 [L404]</t>
         </is>
       </c>
       <c r="F23" s="8" t="inlineStr">
@@ -3832,12 +3832,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C303], Thu 13:00-14:30 [C303]</t>
+          <t>Tue 13:00-14:30 [L405], Thu 13:00-14:30 [L405]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C305]</t>
+          <t>Wed 14:30-15:30 [L408]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -3865,12 +3865,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C304], Thu 13:00-14:30 [C304]</t>
+          <t>Tue 13:00-14:30 [L407], Thu 13:00-14:30 [L407]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C001]</t>
+          <t>Wed 14:30-15:30 [L402]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -3898,12 +3898,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+          <t>Mon 15:30-17:00 [L402], Wed 15:30-17:00 [L402]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C304]</t>
+          <t>Thu 14:30-15:30 [L405]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -3931,12 +3931,12 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+          <t>Mon 15:30-17:00 [L406], Wed 15:30-17:00 [L406]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C305]</t>
+          <t>Thu 14:30-15:30 [L408]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -3964,7 +3964,7 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+          <t>Mon 15:30-17:00 [C001], Wed 15:30-17:00 [C001]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
@@ -3997,7 +3997,7 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+          <t>Mon 15:30-17:00 [C002], Wed 15:30-17:00 [C002]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
@@ -4030,12 +4030,12 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+          <t>Mon 15:30-17:00 [C003], Wed 15:30-17:00 [C003]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [L404]</t>
+          <t>Thu 14:30-15:30 [L406]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -4063,12 +4063,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+          <t>Mon 15:30-17:00 [L403], Wed 15:30-17:00 [L403]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [L405]</t>
+          <t>Thu 14:30-15:30 [L407]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -4142,22 +4142,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C104]</t>
+          <t>MINOR: Generative Ai [C205]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C104]</t>
+          <t>MINOR: Cybersecurity [C202]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MINOR: Design [C104]</t>
+          <t>MINOR: Design [C302]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C104]</t>
+          <t>MINOR: VLSI [C205]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -4174,17 +4174,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DS303</t>
+          <t>DS303 [L407]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DS303</t>
+          <t>DS303 [L403]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>CS307 [L403]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -4206,12 +4206,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DS302</t>
+          <t>DS302 [L407]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DS302</t>
+          <t>DS302 [L403]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -4226,7 +4226,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>CS307 [C302]</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -4339,22 +4339,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>CS307 [L403]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>DS302 (Lab) [L404]</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>DS302 (Lab) [C102]</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>CS307 (Lab) [L107]</t>
         </is>
       </c>
     </row>
@@ -4366,12 +4366,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial) [C204]</t>
+          <t>DS302 (Tutorial) [L407]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DS303 (Tutorial) [C303]</t>
+          <t>DS303 (Tutorial) [C305]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -4381,12 +4381,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>DS302 (Lab) [L106]</t>
+          <t>DS302 (Lab) [L403]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L107]</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -4398,27 +4398,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C104]</t>
+          <t>MINOR: VLSI [C303]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C104]</t>
+          <t>MINOR: DSAI [C102]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C104]</t>
+          <t>MINOR: Generative Ai [C303]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C104]</t>
+          <t>MINOR: Cybersecurity [C303]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MINOR: Design [C104]</t>
+          <t>MINOR: Design [C205]</t>
         </is>
       </c>
     </row>
@@ -4478,27 +4478,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Course Name</t>
+          <t>Course Name [L407]</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
+          <t>L-T-P-S-C [L403]</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Term Type</t>
+          <t>Term Type [L403]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Lectures Hrs</t>
+          <t>Lectures Hrs [L406]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tutorials Hrs</t>
+          <t>Tutorials Hrs [L407]</t>
         </is>
       </c>
     </row>
@@ -4510,27 +4510,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Machine Learning [C001]</t>
+          <t>Machine Learning [L407]</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>3-0-2-0-4 [C001]</t>
+          <t>3-0-2-0-4 [L405]</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Full Sem [C001]</t>
+          <t>Full Sem [L403]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3/3 [C001]</t>
+          <t>3/3 [L406]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0/0 [C001]</t>
+          <t>0/0 [L404]</t>
         </is>
       </c>
     </row>
@@ -4542,27 +4542,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Computer Communication [C303]</t>
+          <t>Computer Communication [C305]</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>3-1-2-0-5 [C303]</t>
+          <t>3-1-2-0-5 [C202]</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Full Sem [C303]</t>
+          <t>Full Sem [C202]</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3/3 [C303]</t>
+          <t>3/3 [C202]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1/1 [C303]</t>
+          <t>1/1 [C305]</t>
         </is>
       </c>
     </row>
@@ -4574,27 +4574,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Algorithms and Data Structures [C303]</t>
+          <t>Algorithms and Data Structures [C305]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [C303]</t>
+          <t>3-1-0-0-4 [C202]</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Full Sem [C303]</t>
+          <t>Full Sem [C305]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3/3 [C303]</t>
+          <t>3/3 [C202]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1/1 [C303]</t>
+          <t>1/1 [C203]</t>
         </is>
       </c>
     </row>
@@ -4630,27 +4630,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Course</t>
+          <t>Course [L403]</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>Course Code [L403]</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Lecture Slot - Classroom</t>
+          <t>Lecture Slot - Classroom [L404]</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Tutorial Slot - Classroom</t>
+          <t>Tutorial Slot - Classroom [L407]</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
+          <t>L-T-P-S-C [L407]</t>
         </is>
       </c>
     </row>
@@ -4662,27 +4662,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Parallel computing</t>
+          <t>Parallel computing [L403]</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>CS463 [L403]</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C205], Thu 13:00-14:30</t>
+          <t>Tue 13:00-14:30 [L408], Thu 13:00-14:30 [L404]</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [L407]</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3-1-0-0-4 [L407]</t>
         </is>
       </c>
     </row>
@@ -4694,27 +4694,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Parallel computing</t>
+          <t>Parallel computing [L403]</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>CS463 [L403]</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C205], Thu 13:00-14:30</t>
+          <t>Tue 13:00-14:30 [L408], Thu 13:00-14:30 [L404]</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [L407]</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3-1-0-0-4 [L407]</t>
         </is>
       </c>
     </row>
@@ -4726,27 +4726,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Parallel computing</t>
+          <t>Parallel computing [L403]</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>CS463 [L403]</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C205], Thu 13:00-14:30</t>
+          <t>Tue 13:00-14:30 [L408], Thu 13:00-14:30 [L404]</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [L407]</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3-1-0-0-4 [L407]</t>
         </is>
       </c>
     </row>
@@ -4758,27 +4758,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Parallel computing</t>
+          <t>Parallel computing [L403]</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>CS463 [L403]</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C205], Thu 13:00-14:30</t>
+          <t>Tue 13:00-14:30 [L408], Thu 13:00-14:30 [L404]</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Wed 14:30-15:30 [L407]</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3-1-0-0-4 [L407]</t>
         </is>
       </c>
     </row>
@@ -4790,27 +4790,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Full Stack Development</t>
+          <t>Full Stack Development [L403]</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>DS359 [L403]</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+          <t>Mon 15:30-17:00 [L402], Wed 15:30-17:00 [L404]</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [L407]</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3-1-0-0-4 [L407]</t>
         </is>
       </c>
     </row>
@@ -4822,27 +4822,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Full Stack Development</t>
+          <t>Full Stack Development [L403]</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>DS359 [L403]</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+          <t>Mon 15:30-17:00 [L402], Wed 15:30-17:00 [L404]</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [L407]</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3-1-0-0-4 [L407]</t>
         </is>
       </c>
     </row>
@@ -4854,27 +4854,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Full Stack Development</t>
+          <t>Full Stack Development [L403]</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>DS359 [L403]</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+          <t>Mon 15:30-17:00 [L402], Wed 15:30-17:00 [L404]</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [L407]</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3-1-0-0-4 [L407]</t>
         </is>
       </c>
     </row>
@@ -4886,27 +4886,27 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Full Stack Development</t>
+          <t>Full Stack Development [L403]</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>DS359 [L403]</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+          <t>Mon 15:30-17:00 [L402], Wed 15:30-17:00 [L404]</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [L407]</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3-1-0-0-4 [L407]</t>
         </is>
       </c>
     </row>
@@ -4918,27 +4918,27 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Full Stack Development</t>
+          <t>Full Stack Development [L403]</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>DS359 [L403]</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+          <t>Mon 15:30-17:00 [L402], Wed 15:30-17:00 [L404]</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [L407]</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3-1-0-0-4 [L407]</t>
         </is>
       </c>
     </row>
@@ -4950,27 +4950,27 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Full Stack Development</t>
+          <t>Full Stack Development [L403]</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>DS359 [L403]</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+          <t>Mon 15:30-17:00 [L402], Wed 15:30-17:00 [L404]</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>Thu 14:30-15:30 [L407]</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3-1-0-0-4 [L407]</t>
         </is>
       </c>
     </row>
@@ -5052,10 +5052,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -5286,10 +5286,10 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>15</v>
+        <v>1.5</v>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -5354,10 +5354,10 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -5388,10 +5388,10 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -5456,10 +5456,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -5490,10 +5490,10 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -5524,10 +5524,10 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -5558,10 +5558,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="E17" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -5694,10 +5694,10 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -5796,10 +5796,10 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>16.5</v>
+        <v>4.5</v>
       </c>
       <c r="E24" t="n">
-        <v>3.3</v>
+        <v>0.9</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -5864,10 +5864,10 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -6014,10 +6014,10 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -6048,10 +6048,10 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -6082,10 +6082,10 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -6116,10 +6116,10 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -6150,10 +6150,10 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -6184,10 +6184,10 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -6218,10 +6218,10 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -6246,7 +6246,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P93"/>
+  <dimension ref="A1:P91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6377,7 +6377,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J2" t="b">
@@ -6391,7 +6391,7 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -6429,12 +6429,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial)</t>
+          <t>DS303</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -6444,7 +6444,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="J3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -6463,21 +6463,21 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial)</t>
+          <t>DS303</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -6501,12 +6501,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>DS302</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -6516,16 +6516,16 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -6535,12 +6535,12 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>DS302</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -6549,7 +6549,7 @@
         </is>
       </c>
       <c r="P4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -6573,27 +6573,31 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Machine Learning</t>
+          <t>DS302 (Tutorial)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="J5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -6603,21 +6607,21 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Machine Learning</t>
+          <t>DS302 (Tutorial)</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -6641,12 +6645,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>DS302</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Computer Communication</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -6680,7 +6684,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Computer Communication</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -6713,12 +6717,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>DS303</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Algorithms and Data Structures</t>
+          <t>Course Name</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -6728,7 +6732,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -6737,7 +6741,7 @@
         </is>
       </c>
       <c r="J7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -6747,12 +6751,12 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Algorithms and Data Structures</t>
+          <t>Course Name</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -6761,7 +6765,7 @@
         </is>
       </c>
       <c r="P7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -6780,17 +6784,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>Machine Learning</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -6800,12 +6804,12 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J8" t="b">
@@ -6819,12 +6823,12 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>Machine Learning</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -6852,17 +6856,17 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>DS302</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>DS303 (Tutorial)</t>
+          <t>Computer Communication</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -6891,17 +6895,17 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>DS303 (Tutorial)</t>
+          <t>Computer Communication</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P9" t="b">
@@ -6924,17 +6928,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>DS303</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>Algorithms and Data Structures</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -6949,7 +6953,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J10" t="b">
@@ -6963,12 +6967,12 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>Algorithms and Data Structures</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -6996,32 +7000,36 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3-0-2-0-4</t>
+          <t>Course</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="J11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -7031,12 +7039,12 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>3-0-2-0-4</t>
+          <t>Course</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -7045,7 +7053,7 @@
         </is>
       </c>
       <c r="P11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -7069,12 +7077,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>DS302</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3-1-2-0-5</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -7089,7 +7097,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J12" t="b">
@@ -7103,12 +7111,12 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>3-1-2-0-5</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -7141,14 +7149,14 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>DS303</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3-1-0-0-4</t>
-        </is>
-      </c>
       <c r="G13" t="inlineStr">
         <is>
           <t>classroom</t>
@@ -7156,7 +7164,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -7165,7 +7173,7 @@
         </is>
       </c>
       <c r="J13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -7175,12 +7183,12 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>DS303</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -7189,7 +7197,7 @@
         </is>
       </c>
       <c r="P13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -7208,17 +7216,17 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>DS302</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -7228,16 +7236,16 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -7247,12 +7255,12 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>DS302</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -7261,7 +7269,7 @@
         </is>
       </c>
       <c r="P14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -7280,17 +7288,17 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -7300,16 +7308,16 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -7319,12 +7327,12 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -7333,7 +7341,7 @@
         </is>
       </c>
       <c r="P15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -7352,30 +7360,34 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>DS303 (Tutorial)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="J16" t="b">
         <v>0</v>
       </c>
@@ -7387,17 +7399,17 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>DS303 (Tutorial)</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P16" t="b">
@@ -7420,17 +7432,17 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>DS302</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -7445,7 +7457,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J17" t="b">
@@ -7459,12 +7471,12 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -7492,17 +7504,17 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>DS303</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>L-T-P-S-C</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -7512,7 +7524,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -7521,7 +7533,7 @@
         </is>
       </c>
       <c r="J18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -7531,12 +7543,12 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>L-T-P-S-C</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -7545,7 +7557,7 @@
         </is>
       </c>
       <c r="P18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -7564,17 +7576,17 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>3-0-2-0-4</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -7584,12 +7596,12 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J19" t="b">
@@ -7603,12 +7615,12 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>3-0-2-0-4</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -7636,17 +7648,17 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>DS302</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>DS302 (Lab)</t>
+          <t>3-1-2-0-5</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -7675,17 +7687,17 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>DS302 (Lab)</t>
+          <t>3-1-2-0-5</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P20" t="b">
@@ -7708,32 +7720,32 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>DS303</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>DS302 (Lab)</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J21" t="b">
@@ -7747,17 +7759,17 @@
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>DS302 (Lab)</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P21" t="b">
@@ -7780,17 +7792,17 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -7800,16 +7812,16 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -7819,12 +7831,12 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -7833,7 +7845,7 @@
         </is>
       </c>
       <c r="P22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -7852,30 +7864,34 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
       <c r="J23" t="b">
         <v>0</v>
       </c>
@@ -7887,12 +7903,12 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -7920,17 +7936,17 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>DS302</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -7940,7 +7956,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -7949,7 +7965,7 @@
         </is>
       </c>
       <c r="J24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -7959,12 +7975,12 @@
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -7973,7 +7989,7 @@
         </is>
       </c>
       <c r="P24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -7992,17 +8008,17 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>DS303</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -8036,7 +8052,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -8064,17 +8080,17 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>Term Type</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -8084,16 +8100,16 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -8103,12 +8119,12 @@
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>Term Type</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -8117,7 +8133,7 @@
         </is>
       </c>
       <c r="P26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -8136,17 +8152,17 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -8156,12 +8172,12 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J27" t="b">
@@ -8175,12 +8191,12 @@
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -8208,32 +8224,32 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>DS302</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>CS307 (Lab)</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J28" t="b">
@@ -8247,17 +8263,17 @@
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>L107</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>CS307 (Lab)</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P28" t="b">
@@ -8280,32 +8296,32 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>DS303</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>CS307 (Lab)</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J29" t="b">
@@ -8319,17 +8335,17 @@
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>L107</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>CS307 (Lab)</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P29" t="b">
@@ -8352,17 +8368,17 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>Lecture Slot - Classroom</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -8372,16 +8388,16 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -8391,12 +8407,12 @@
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>Lecture Slot - Classroom</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -8405,7 +8421,7 @@
         </is>
       </c>
       <c r="P30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -8424,30 +8440,34 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
       <c r="J31" t="b">
         <v>0</v>
       </c>
@@ -8459,12 +8479,12 @@
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -8492,17 +8512,17 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>DS302</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>1/1</t>
+          <t>DS302 (Lab)</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -8512,7 +8532,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -8531,17 +8551,17 @@
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>1/1</t>
+          <t>DS302 (Lab)</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Lab</t>
         </is>
       </c>
       <c r="P32" t="b">
@@ -8564,17 +8584,17 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>DS303</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>1/1</t>
+          <t>DS302 (Lab)</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -8584,7 +8604,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -8603,17 +8623,17 @@
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>1/1</t>
+          <t>DS302 (Lab)</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Lab</t>
         </is>
       </c>
       <c r="P33" t="b">
@@ -8636,17 +8656,17 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>DS303</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -8656,7 +8676,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -8669,21 +8689,25 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
+          <t>Global Tracking</t>
         </is>
       </c>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>DS303</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr"/>
+          <t>MINOR: Cybersecurity</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P34" t="b">
         <v>0</v>
       </c>
@@ -8704,17 +8728,17 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>DS302</t>
+          <t>Lectures Hrs</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -8724,7 +8748,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -8733,27 +8757,31 @@
         </is>
       </c>
       <c r="J35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
+          <t>Global Tracking</t>
         </is>
       </c>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>DS302</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr"/>
+          <t>Lectures Hrs</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -8772,17 +8800,17 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -8805,21 +8833,25 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
+          <t>Global Tracking</t>
         </is>
       </c>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>CS307</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr"/>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P36" t="b">
         <v>0</v>
       </c>
@@ -8840,17 +8872,17 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>DS302</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial)</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -8873,21 +8905,25 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
+          <t>Global Tracking</t>
         </is>
       </c>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr"/>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P37" t="b">
         <v>0</v>
       </c>
@@ -8908,17 +8944,17 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>DS303</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -8941,22 +8977,18 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -8984,17 +9016,17 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>Tutorial Slot - Classroom</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -9004,35 +9036,31 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>Tutorial Slot - Classroom</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -9041,7 +9069,7 @@
         </is>
       </c>
       <c r="P39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -9060,17 +9088,17 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -9093,14 +9121,10 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
           <t>C104</t>
@@ -9108,7 +9132,7 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -9136,17 +9160,17 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -9161,7 +9185,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J41" t="b">
@@ -9169,22 +9193,18 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -9212,17 +9232,17 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>Tutorials Hrs</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -9232,7 +9252,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -9241,26 +9261,22 @@
         </is>
       </c>
       <c r="J42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>Tutorials Hrs</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -9269,7 +9285,7 @@
         </is>
       </c>
       <c r="P42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -9288,17 +9304,17 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -9308,7 +9324,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -9321,22 +9337,18 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -9364,17 +9376,17 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>DS302</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Course Name</t>
+          <t>1/1</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -9397,7 +9409,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
+          <t>Global Tracking</t>
         </is>
       </c>
       <c r="L44" t="inlineStr"/>
@@ -9408,10 +9420,14 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Course Name</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr"/>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P44" t="b">
         <v>0</v>
       </c>
@@ -9432,17 +9448,17 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>DS303</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Course</t>
+          <t>1/1</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -9465,21 +9481,25 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
+          <t>Global Tracking</t>
         </is>
       </c>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Course</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr"/>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P45" t="b">
         <v>0</v>
       </c>
@@ -9500,17 +9520,17 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Parallel computing</t>
+          <t>L-T-P-S-C</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -9520,36 +9540,40 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Global Tracking (from internal map)</t>
+          <t>Global Tracking</t>
         </is>
       </c>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Parallel computing</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr"/>
+          <t>L-T-P-S-C</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -9573,12 +9597,12 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Full Stack Development</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -9597,7 +9621,7 @@
         </is>
       </c>
       <c r="J47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -9612,12 +9636,12 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Full Stack Development</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -9636,17 +9660,17 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>DS303</t>
+          <t>DS302 (Tutorial)</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -9656,7 +9680,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -9665,7 +9689,7 @@
         </is>
       </c>
       <c r="J48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -9675,17 +9699,17 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>DS303</t>
+          <t>DS302 (Tutorial)</t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -9704,17 +9728,17 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>DS302</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -9729,7 +9753,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J49" t="b">
@@ -9740,18 +9764,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>DS302</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr"/>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P49" t="b">
         <v>0</v>
       </c>
@@ -9772,17 +9804,17 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -9797,7 +9829,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J50" t="b">
@@ -9810,17 +9842,17 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -9848,17 +9880,17 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>EC364</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -9886,17 +9918,17 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>EC364</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -9924,17 +9956,17 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>CS352</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -9962,17 +9994,17 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>CS352</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -10000,17 +10032,17 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -10038,17 +10070,17 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -10076,32 +10108,32 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>DS303 (Tutorial)</t>
+          <t>EC365</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J54" t="b">
@@ -10112,18 +10144,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>DS303 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="O54" t="inlineStr"/>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P54" t="b">
         <v>0</v>
       </c>
@@ -10144,17 +10184,17 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>DS302 (Lab)</t>
+          <t>Parallel computing</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -10173,7 +10213,7 @@
         </is>
       </c>
       <c r="J55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -10183,17 +10223,17 @@
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>DS302 (Lab)</t>
+          <t>Parallel computing</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -10212,17 +10252,17 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
+          <t>Full Stack Development</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -10232,7 +10272,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -10241,7 +10281,7 @@
         </is>
       </c>
       <c r="J56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -10251,17 +10291,17 @@
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
+          <t>Full Stack Development</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -10285,12 +10325,12 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -10305,7 +10345,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J57" t="b">
@@ -10316,18 +10356,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Course Code</t>
-        </is>
-      </c>
-      <c r="O57" t="inlineStr"/>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P57" t="b">
         <v>0</v>
       </c>
@@ -10353,12 +10401,12 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>CS308</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -10384,18 +10432,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>CS463</t>
-        </is>
-      </c>
-      <c r="O58" t="inlineStr"/>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P58" t="b">
         <v>0</v>
       </c>
@@ -10421,12 +10477,12 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>DS301</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -10436,7 +10492,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -10452,18 +10508,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>DS359</t>
-        </is>
-      </c>
-      <c r="O59" t="inlineStr"/>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P59" t="b">
         <v>0</v>
       </c>
@@ -10484,32 +10548,32 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J60" t="b">
@@ -10520,18 +10584,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>CS307</t>
-        </is>
-      </c>
-      <c r="O60" t="inlineStr"/>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P60" t="b">
         <v>0</v>
       </c>
@@ -10552,7 +10624,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -10562,7 +10634,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>DS303 (Tutorial)</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -10588,26 +10660,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>CS463</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>DS303 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr"/>
       <c r="P61" t="b">
         <v>0</v>
       </c>
@@ -10628,17 +10692,17 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -10657,35 +10721,27 @@
         </is>
       </c>
       <c r="J62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>CS308</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr"/>
       <c r="P62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -10704,17 +10760,17 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -10733,35 +10789,27 @@
         </is>
       </c>
       <c r="J63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>DS301</t>
-        </is>
-      </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr"/>
       <c r="P63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -10785,27 +10833,27 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>DS303</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J64" t="b">
@@ -10816,26 +10864,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>CS366</t>
-        </is>
-      </c>
-      <c r="O64" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>DS303</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr"/>
       <c r="P64" t="b">
         <v>0</v>
       </c>
@@ -10861,12 +10901,12 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -10894,7 +10934,7 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
@@ -10904,12 +10944,12 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P65" t="b">
@@ -10937,12 +10977,12 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>CS308</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -10970,22 +11010,22 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>CS308</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P66" t="b">
@@ -11013,12 +11053,12 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>DS301</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -11046,22 +11086,22 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>DS301</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P67" t="b">
@@ -11089,12 +11129,12 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -11109,7 +11149,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J68" t="b">
@@ -11122,22 +11162,22 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P68" t="b">
@@ -11170,7 +11210,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -11203,12 +11243,12 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -11246,7 +11286,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -11284,7 +11324,7 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -11317,12 +11357,12 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Term Type</t>
+          <t>EC364</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -11348,18 +11388,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>Term Type</t>
-        </is>
-      </c>
-      <c r="O71" t="inlineStr"/>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P71" t="b">
         <v>0</v>
       </c>
@@ -11385,12 +11433,12 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Lecture Slot - Classroom</t>
+          <t>CS352</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -11416,18 +11464,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>Lecture Slot - Classroom</t>
-        </is>
-      </c>
-      <c r="O72" t="inlineStr"/>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P72" t="b">
         <v>0</v>
       </c>
@@ -11453,12 +11509,12 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C205], Thu 13:00-14:30</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -11484,18 +11540,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C205], Thu 13:00-14:30</t>
-        </is>
-      </c>
-      <c r="O73" t="inlineStr"/>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P73" t="b">
         <v>0</v>
       </c>
@@ -11521,12 +11585,12 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
+          <t>EC365</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -11536,12 +11600,12 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J74" t="b">
@@ -11552,18 +11616,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
-        </is>
-      </c>
-      <c r="O74" t="inlineStr"/>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P74" t="b">
         <v>0</v>
       </c>
@@ -11584,17 +11656,17 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>Tue 13:00-14:30 [L408], Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -11613,35 +11685,27 @@
         </is>
       </c>
       <c r="J75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>CS463</t>
-        </is>
-      </c>
-      <c r="O75" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>Tue 13:00-14:30 [L408], Thu 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr"/>
       <c r="P75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -11660,17 +11724,17 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>Mon 15:30-17:00 [L402], Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -11689,35 +11753,27 @@
         </is>
       </c>
       <c r="J76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>CS308</t>
-        </is>
-      </c>
-      <c r="O76" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>Mon 15:30-17:00 [L402], Wed 15:30-17:00</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr"/>
       <c r="P76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -11746,7 +11802,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -11756,12 +11812,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J77" t="b">
@@ -11779,12 +11835,12 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -11822,7 +11878,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>CS308</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -11832,12 +11888,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J78" t="b">
@@ -11855,12 +11911,12 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>CS308</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -11893,12 +11949,12 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>DS301</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -11913,7 +11969,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J79" t="b">
@@ -11926,22 +11982,22 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>DS301</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P79" t="b">
@@ -11969,12 +12025,12 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -12002,22 +12058,22 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P80" t="b">
@@ -12050,7 +12106,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -12083,12 +12139,12 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -12126,7 +12182,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -12141,7 +12197,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J82" t="b">
@@ -12159,12 +12215,12 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -12202,7 +12258,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>EC364</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -12217,7 +12273,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J83" t="b">
@@ -12235,12 +12291,12 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>EC364</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
@@ -12278,7 +12334,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>CS352</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -12316,7 +12372,7 @@
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>CS352</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -12349,12 +12405,12 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Lectures Hrs</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -12380,7 +12436,11 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="M85" t="inlineStr">
         <is>
           <t>C305</t>
@@ -12388,10 +12448,14 @@
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>Lectures Hrs</t>
-        </is>
-      </c>
-      <c r="O85" t="inlineStr"/>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
       <c r="P85" t="b">
         <v>0</v>
       </c>
@@ -12417,12 +12481,12 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Tutorial Slot - Classroom</t>
+          <t>EC365</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -12448,18 +12512,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>Tutorial Slot - Classroom</t>
-        </is>
-      </c>
-      <c r="O86" t="inlineStr"/>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
       <c r="P86" t="b">
         <v>0</v>
       </c>
@@ -12500,16 +12572,16 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -12519,7 +12591,7 @@
       <c r="L87" t="inlineStr"/>
       <c r="M87" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
@@ -12529,7 +12601,7 @@
       </c>
       <c r="O87" t="inlineStr"/>
       <c r="P87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -12577,7 +12649,7 @@
         </is>
       </c>
       <c r="J88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -12587,7 +12659,7 @@
       <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
@@ -12597,7 +12669,7 @@
       </c>
       <c r="O88" t="inlineStr"/>
       <c r="P88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -12655,7 +12727,7 @@
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
@@ -12723,7 +12795,7 @@
       <c r="L90" t="inlineStr"/>
       <c r="M90" t="inlineStr">
         <is>
-          <t>L208</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
@@ -12757,12 +12829,12 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Tutorials Hrs</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -12772,7 +12844,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -12781,7 +12853,7 @@
         </is>
       </c>
       <c r="J91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -12791,149 +12863,17 @@
       <c r="L91" t="inlineStr"/>
       <c r="M91" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>Tutorials Hrs</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="O91" t="inlineStr"/>
       <c r="P91" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>5</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>Basket Name</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>L-T-P-S-C</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J92" t="b">
-        <v>0</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>C305</t>
-        </is>
-      </c>
-      <c r="N92" t="inlineStr">
-        <is>
-          <t>L-T-P-S-C</t>
-        </is>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>5</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>ELECTIVE</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>3-1-0-0-4</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="b">
-        <v>0</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
-      <c r="N93" t="inlineStr">
-        <is>
-          <t>3-1-0-0-4</t>
-        </is>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -12985,7 +12925,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C101, L402, L404</t>
+          <t>C101, C102, L403</t>
         </is>
       </c>
     </row>
@@ -13002,7 +12942,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C102, L403, L405</t>
+          <t>C102, C104</t>
         </is>
       </c>
     </row>
@@ -13019,7 +12959,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C104, L404, L406</t>
+          <t>C202, C303</t>
         </is>
       </c>
     </row>
@@ -13036,7 +12976,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C202, L405, L407</t>
+          <t>C203, C204, C304</t>
         </is>
       </c>
     </row>
@@ -13053,7 +12993,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C101, C204, L404</t>
+          <t>C104, C204, C305, L403</t>
         </is>
       </c>
     </row>
@@ -13070,7 +13010,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C102, C205</t>
+          <t>C204, C302, C305</t>
         </is>
       </c>
     </row>
@@ -13087,7 +13027,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C104, C302</t>
+          <t>C101, C205, C303</t>
         </is>
       </c>
     </row>
@@ -13104,7 +13044,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C202, C303</t>
+          <t>C102, C303, C304</t>
         </is>
       </c>
     </row>
@@ -13121,7 +13061,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C104, C203</t>
+          <t>C102, C104, C305</t>
         </is>
       </c>
     </row>
@@ -13138,7 +13078,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C204, C304</t>
+          <t>C203, C302, C304</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem5_DSAI_timetable.xlsx
+++ b/backend/output_timetables/sem5_DSAI_timetable.xlsx
@@ -1332,27 +1332,27 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C205]</t>
+          <t>MINOR: Generative Ai [C303]</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C202]</t>
+          <t>MINOR: Cybersecurity [C304]</t>
         </is>
       </c>
       <c r="D2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C302]</t>
+          <t>MINOR: Design [C102]</t>
         </is>
       </c>
       <c r="E2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C205]</t>
+          <t>MINOR: VLSI [C305]</t>
         </is>
       </c>
       <c r="F2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C104]</t>
+          <t>MINOR: DSAI [C305]</t>
         </is>
       </c>
       <c r="G2" s="8" t="n"/>
@@ -1365,17 +1365,17 @@
       </c>
       <c r="B3" s="9" t="inlineStr">
         <is>
-          <t>DS302 [L404]</t>
+          <t>DS302</t>
         </is>
       </c>
       <c r="C3" s="9" t="inlineStr">
         <is>
-          <t>DS302 [L404]</t>
-        </is>
-      </c>
-      <c r="D3" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
+          <t>DS302</t>
+        </is>
+      </c>
+      <c r="D3" s="10" t="inlineStr">
+        <is>
+          <t>DS303</t>
         </is>
       </c>
       <c r="E3" s="8" t="inlineStr">
@@ -1398,12 +1398,12 @@
       </c>
       <c r="B4" s="10" t="inlineStr">
         <is>
-          <t>DS303 [L404]</t>
+          <t>DS303</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
         <is>
-          <t>CS307 [C308]</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="D4" s="8" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="B6" s="11" t="inlineStr">
         <is>
-          <t>CS307 [L405]</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="C6" s="13" t="inlineStr">
@@ -1472,9 +1472,9 @@
           <t>ELECTIVE_B4</t>
         </is>
       </c>
-      <c r="D6" s="10" t="inlineStr">
-        <is>
-          <t>DS303 [L405]</t>
+      <c r="D6" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
         </is>
       </c>
       <c r="E6" s="13" t="inlineStr">
@@ -1484,7 +1484,7 @@
       </c>
       <c r="F6" s="11" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L107]</t>
+          <t>CS307 (Lab) [L207]</t>
         </is>
       </c>
       <c r="G6" s="8" t="n"/>
@@ -1497,12 +1497,12 @@
       </c>
       <c r="B7" s="9" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial) [C205]</t>
+          <t>DS302 (Tutorial) [C202]</t>
         </is>
       </c>
       <c r="C7" s="10" t="inlineStr">
         <is>
-          <t>DS303 (Tutorial) [L405]</t>
+          <t>DS303 (Tutorial) [L403]</t>
         </is>
       </c>
       <c r="D7" s="13" t="inlineStr">
@@ -1517,7 +1517,7 @@
       </c>
       <c r="F7" s="11" t="inlineStr">
         <is>
-          <t>CS307 (Lab) [L107]</t>
+          <t>CS307 (Lab) [L207]</t>
         </is>
       </c>
       <c r="G7" s="8" t="n"/>
@@ -1535,7 +1535,7 @@
       </c>
       <c r="C8" s="9" t="inlineStr">
         <is>
-          <t>DS302 (Lab) [C308]</t>
+          <t>DS302 (Lab)</t>
         </is>
       </c>
       <c r="D8" s="14" t="inlineStr">
@@ -1568,7 +1568,7 @@
       </c>
       <c r="C9" s="9" t="inlineStr">
         <is>
-          <t>DS302 (Lab) [C308]</t>
+          <t>DS302 (Lab) [C004]</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
@@ -1601,22 +1601,22 @@
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C102]</t>
+          <t>MINOR: DSAI [C305]</t>
         </is>
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C303]</t>
+          <t>MINOR: Generative Ai [C304]</t>
         </is>
       </c>
       <c r="E10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C303]</t>
+          <t>MINOR: Cybersecurity [C304]</t>
         </is>
       </c>
       <c r="F10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C205]</t>
+          <t>MINOR: Design [C203]</t>
         </is>
       </c>
       <c r="G10" s="8" t="n"/>
@@ -1886,12 +1886,12 @@
       </c>
       <c r="D22" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [L408], Thu 13:00-14:30 [L408]</t>
+          <t>Tue 13:00-14:30 [C104], Thu 13:00-14:30 [C104]</t>
         </is>
       </c>
       <c r="E22" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L407]</t>
+          <t>Wed 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F22" s="8" t="inlineStr">
@@ -1919,12 +1919,12 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [L403], Thu 13:00-14:30 [L403]</t>
+          <t>Tue 13:00-14:30 [C304], Thu 13:00-14:30 [C304]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L404]</t>
+          <t>Wed 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F23" s="8" t="inlineStr">
@@ -1952,12 +1952,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [L405], Thu 13:00-14:30 [L405]</t>
+          <t>Tue 13:00-14:30 [C203], Thu 13:00-14:30 [C203]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L408]</t>
+          <t>Wed 14:30-15:30 [C205]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -1985,12 +1985,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [L407], Thu 13:00-14:30 [L407]</t>
+          <t>Tue 13:00-14:30 [C202], Thu 13:00-14:30 [C202]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L402]</t>
+          <t>Wed 14:30-15:30 [C001]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -2023,7 +2023,7 @@
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [L405]</t>
+          <t>Thu 14:30-15:30 [C204]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -2051,12 +2051,12 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L406], Wed 15:30-17:00 [L406]</t>
+          <t>Mon 15:30-17:00 [L403], Wed 15:30-17:00 [L403]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [L408]</t>
+          <t>Thu 14:30-15:30 [C302]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -2084,12 +2084,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C001], Wed 15:30-17:00 [C001]</t>
+          <t>Mon 15:30-17:00 [L406], Wed 15:30-17:00 [L406]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [L402]</t>
+          <t>Thu 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -2117,12 +2117,12 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C002], Wed 15:30-17:00 [C002]</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [L403]</t>
+          <t>Thu 14:30-15:30 [C203]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -2150,12 +2150,12 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C003], Wed 15:30-17:00 [C003]</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [L406]</t>
+          <t>Thu 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -2183,12 +2183,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L403], Wed 15:30-17:00 [L403]</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [L407]</t>
+          <t>Thu 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -2272,27 +2272,27 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C205]</t>
+          <t>MINOR: Generative Ai [C303]</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C202]</t>
+          <t>MINOR: Cybersecurity [C304]</t>
         </is>
       </c>
       <c r="D2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C302]</t>
+          <t>MINOR: Design [C102]</t>
         </is>
       </c>
       <c r="E2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C205]</t>
+          <t>MINOR: VLSI [C305]</t>
         </is>
       </c>
       <c r="F2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C104]</t>
+          <t>MINOR: DSAI [C305]</t>
         </is>
       </c>
       <c r="G2" s="8" t="n"/>
@@ -2305,17 +2305,17 @@
       </c>
       <c r="B3" s="10" t="inlineStr">
         <is>
-          <t>DS303 [L404]</t>
+          <t>DS303</t>
         </is>
       </c>
       <c r="C3" s="10" t="inlineStr">
         <is>
-          <t>DS303 [L404]</t>
+          <t>DS303</t>
         </is>
       </c>
       <c r="D3" s="11" t="inlineStr">
         <is>
-          <t>CS307 [L404]</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="E3" s="8" t="inlineStr">
@@ -2338,12 +2338,12 @@
       </c>
       <c r="B4" s="9" t="inlineStr">
         <is>
-          <t>DS302 [L404]</t>
+          <t>DS302</t>
         </is>
       </c>
       <c r="C4" s="9" t="inlineStr">
         <is>
-          <t>DS302 [L208]</t>
+          <t>DS302</t>
         </is>
       </c>
       <c r="D4" s="8" t="inlineStr">
@@ -2356,9 +2356,9 @@
           <t>Free</t>
         </is>
       </c>
-      <c r="F4" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
+      <c r="F4" s="11" t="inlineStr">
+        <is>
+          <t>CS307 [C204]</t>
         </is>
       </c>
       <c r="G4" s="8" t="n"/>
@@ -2473,9 +2473,9 @@
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="C8" s="11" t="inlineStr">
-        <is>
-          <t>CS307 [L402]</t>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
         </is>
       </c>
       <c r="D8" s="14" t="inlineStr">
@@ -2485,12 +2485,12 @@
       </c>
       <c r="E8" s="9" t="inlineStr">
         <is>
-          <t>DS302 (Lab) [C308]</t>
-        </is>
-      </c>
-      <c r="F8" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
+          <t>DS302 (Lab)</t>
+        </is>
+      </c>
+      <c r="F8" s="11" t="inlineStr">
+        <is>
+          <t>CS307 (Lab) [L207]</t>
         </is>
       </c>
       <c r="G8" s="8" t="n"/>
@@ -2508,7 +2508,7 @@
       </c>
       <c r="C9" s="10" t="inlineStr">
         <is>
-          <t>DS303 (Tutorial) [L405]</t>
+          <t>DS303 (Tutorial) [L403]</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
@@ -2518,12 +2518,12 @@
       </c>
       <c r="E9" s="9" t="inlineStr">
         <is>
-          <t>DS302 (Lab) [C308]</t>
-        </is>
-      </c>
-      <c r="F9" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
+          <t>DS302 (Lab) [L404]</t>
+        </is>
+      </c>
+      <c r="F9" s="11" t="inlineStr">
+        <is>
+          <t>CS307 (Lab) [L207]</t>
         </is>
       </c>
       <c r="G9" s="8" t="n"/>
@@ -2541,22 +2541,22 @@
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C102]</t>
+          <t>MINOR: DSAI [C305]</t>
         </is>
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C303]</t>
+          <t>MINOR: Generative Ai [C304]</t>
         </is>
       </c>
       <c r="E10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C303]</t>
+          <t>MINOR: Cybersecurity [C304]</t>
         </is>
       </c>
       <c r="F10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C205]</t>
+          <t>MINOR: Design [C203]</t>
         </is>
       </c>
       <c r="G10" s="8" t="n"/>
@@ -2826,12 +2826,12 @@
       </c>
       <c r="D22" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [L408], Thu 13:00-14:30 [L408]</t>
+          <t>Tue 13:00-14:30 [C104], Thu 13:00-14:30 [C104]</t>
         </is>
       </c>
       <c r="E22" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L407]</t>
+          <t>Wed 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F22" s="8" t="inlineStr">
@@ -2859,12 +2859,12 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [L403], Thu 13:00-14:30 [L403]</t>
+          <t>Tue 13:00-14:30 [C304], Thu 13:00-14:30 [C304]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L404]</t>
+          <t>Wed 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F23" s="8" t="inlineStr">
@@ -2892,12 +2892,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [L405], Thu 13:00-14:30 [L405]</t>
+          <t>Tue 13:00-14:30 [C203], Thu 13:00-14:30 [C203]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L408]</t>
+          <t>Wed 14:30-15:30 [C205]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -2925,12 +2925,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [L407], Thu 13:00-14:30 [L407]</t>
+          <t>Tue 13:00-14:30 [C202], Thu 13:00-14:30 [C202]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L402]</t>
+          <t>Wed 14:30-15:30 [C001]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [L405]</t>
+          <t>Thu 14:30-15:30 [C204]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -2991,12 +2991,12 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L406], Wed 15:30-17:00 [L406]</t>
+          <t>Mon 15:30-17:00 [L403], Wed 15:30-17:00 [L403]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [L408]</t>
+          <t>Thu 14:30-15:30 [C302]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -3024,12 +3024,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C001], Wed 15:30-17:00 [C001]</t>
+          <t>Mon 15:30-17:00 [L406], Wed 15:30-17:00 [L406]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [L402]</t>
+          <t>Thu 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -3057,12 +3057,12 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C002], Wed 15:30-17:00 [C002]</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [L403]</t>
+          <t>Thu 14:30-15:30 [C203]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -3090,12 +3090,12 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C003], Wed 15:30-17:00 [C003]</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [L406]</t>
+          <t>Thu 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -3123,12 +3123,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L403], Wed 15:30-17:00 [L403]</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [L407]</t>
+          <t>Thu 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -3212,27 +3212,27 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C205]</t>
+          <t>MINOR: Generative Ai [C303]</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C202]</t>
+          <t>MINOR: Cybersecurity [C304]</t>
         </is>
       </c>
       <c r="D2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C302]</t>
+          <t>MINOR: Design [C102]</t>
         </is>
       </c>
       <c r="E2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C205]</t>
+          <t>MINOR: VLSI [C305]</t>
         </is>
       </c>
       <c r="F2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C104]</t>
+          <t>MINOR: DSAI [C305]</t>
         </is>
       </c>
       <c r="G2" s="8" t="n"/>
@@ -3245,17 +3245,17 @@
       </c>
       <c r="B3" s="10" t="inlineStr">
         <is>
-          <t>DS303 [L404]</t>
+          <t>DS303</t>
         </is>
       </c>
       <c r="C3" s="10" t="inlineStr">
         <is>
-          <t>DS303 [L404]</t>
+          <t>DS303</t>
         </is>
       </c>
       <c r="D3" s="11" t="inlineStr">
         <is>
-          <t>CS307 [L404]</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="E3" s="8" t="inlineStr">
@@ -3278,12 +3278,12 @@
       </c>
       <c r="B4" s="9" t="inlineStr">
         <is>
-          <t>DS302 [L404]</t>
+          <t>DS302</t>
         </is>
       </c>
       <c r="C4" s="9" t="inlineStr">
         <is>
-          <t>DS302 [L105]</t>
+          <t>DS302</t>
         </is>
       </c>
       <c r="D4" s="8" t="inlineStr">
@@ -3296,9 +3296,9 @@
           <t>Free</t>
         </is>
       </c>
-      <c r="F4" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
+      <c r="F4" s="11" t="inlineStr">
+        <is>
+          <t>CS307 [C104]</t>
         </is>
       </c>
       <c r="G4" s="8" t="n"/>
@@ -3413,9 +3413,9 @@
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="C8" s="11" t="inlineStr">
-        <is>
-          <t>CS307 [L403]</t>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
         </is>
       </c>
       <c r="D8" s="14" t="inlineStr">
@@ -3428,9 +3428,9 @@
           <t>DS302 (Lab)</t>
         </is>
       </c>
-      <c r="F8" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
+      <c r="F8" s="11" t="inlineStr">
+        <is>
+          <t>CS307 (Lab) [L208]</t>
         </is>
       </c>
       <c r="G8" s="8" t="n"/>
@@ -3443,12 +3443,12 @@
       </c>
       <c r="B9" s="9" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial) [C002]</t>
+          <t>DS302 (Tutorial) [C003]</t>
         </is>
       </c>
       <c r="C9" s="10" t="inlineStr">
         <is>
-          <t>DS303 (Tutorial) [C102]</t>
+          <t>DS303 (Tutorial) [C203]</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
@@ -3458,12 +3458,12 @@
       </c>
       <c r="E9" s="9" t="inlineStr">
         <is>
-          <t>DS302 (Lab) [C004]</t>
-        </is>
-      </c>
-      <c r="F9" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
+          <t>DS302 (Lab) [L405]</t>
+        </is>
+      </c>
+      <c r="F9" s="11" t="inlineStr">
+        <is>
+          <t>CS307 (Lab) [L208]</t>
         </is>
       </c>
       <c r="G9" s="8" t="n"/>
@@ -3481,22 +3481,22 @@
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C102]</t>
+          <t>MINOR: DSAI [C305]</t>
         </is>
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C303]</t>
+          <t>MINOR: Generative Ai [C304]</t>
         </is>
       </c>
       <c r="E10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C303]</t>
+          <t>MINOR: Cybersecurity [C304]</t>
         </is>
       </c>
       <c r="F10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C205]</t>
+          <t>MINOR: Design [C203]</t>
         </is>
       </c>
       <c r="G10" s="8" t="n"/>
@@ -3766,12 +3766,12 @@
       </c>
       <c r="D22" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [L408], Thu 13:00-14:30 [L408]</t>
+          <t>Tue 13:00-14:30 [C104], Thu 13:00-14:30 [C104]</t>
         </is>
       </c>
       <c r="E22" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L407]</t>
+          <t>Wed 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F22" s="8" t="inlineStr">
@@ -3799,12 +3799,12 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [L403], Thu 13:00-14:30 [L403]</t>
+          <t>Tue 13:00-14:30 [C304], Thu 13:00-14:30 [C304]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L404]</t>
+          <t>Wed 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F23" s="8" t="inlineStr">
@@ -3832,12 +3832,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [L405], Thu 13:00-14:30 [L405]</t>
+          <t>Tue 13:00-14:30 [C203], Thu 13:00-14:30 [C203]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L408]</t>
+          <t>Wed 14:30-15:30 [C205]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -3865,12 +3865,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [L407], Thu 13:00-14:30 [L407]</t>
+          <t>Tue 13:00-14:30 [C202], Thu 13:00-14:30 [C202]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L402]</t>
+          <t>Wed 14:30-15:30 [C001]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -3903,7 +3903,7 @@
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [L405]</t>
+          <t>Thu 14:30-15:30 [C204]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -3931,12 +3931,12 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L406], Wed 15:30-17:00 [L406]</t>
+          <t>Mon 15:30-17:00 [L403], Wed 15:30-17:00 [L403]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [L408]</t>
+          <t>Thu 14:30-15:30 [C302]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -3964,12 +3964,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C001], Wed 15:30-17:00 [C001]</t>
+          <t>Mon 15:30-17:00 [L406], Wed 15:30-17:00 [L406]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [L402]</t>
+          <t>Thu 14:30-15:30 [C104]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -3997,12 +3997,12 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C002], Wed 15:30-17:00 [C002]</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [L403]</t>
+          <t>Thu 14:30-15:30 [C203]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -4030,12 +4030,12 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C003], Wed 15:30-17:00 [C003]</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [L406]</t>
+          <t>Thu 14:30-15:30 [C101]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -4063,12 +4063,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L403], Wed 15:30-17:00 [L403]</t>
+          <t>Mon 15:30-17:00, Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [L407]</t>
+          <t>Thu 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -4142,27 +4142,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C205]</t>
+          <t>MINOR: Generative Ai [C303]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C202]</t>
+          <t>MINOR: Cybersecurity [C304]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MINOR: Design [C302]</t>
+          <t>MINOR: Design [C102]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C205]</t>
+          <t>MINOR: VLSI [C305]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C104]</t>
+          <t>MINOR: DSAI [C305]</t>
         </is>
       </c>
     </row>
@@ -4174,17 +4174,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DS303 [L407]</t>
+          <t>DS303</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DS303 [L403]</t>
+          <t>DS303</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CS307 [L403]</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -4206,12 +4206,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DS302 [L407]</t>
+          <t>DS302</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DS302 [L403]</t>
+          <t>DS302</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -4226,7 +4226,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS307 [C305]</t>
         </is>
       </c>
     </row>
@@ -4339,7 +4339,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CS307 [L403]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -4349,12 +4349,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>DS302 (Lab) [L404]</t>
+          <t>DS302 (Lab) [L407]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS307 (Lab) [L208]</t>
         </is>
       </c>
     </row>
@@ -4366,12 +4366,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial) [L407]</t>
+          <t>DS302 (Tutorial)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DS303 (Tutorial) [C305]</t>
+          <t>DS303 (Tutorial)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -4381,12 +4381,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>DS302 (Lab) [L403]</t>
+          <t>DS302 (Lab) [C202]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>CS307 (Lab) [C001]</t>
         </is>
       </c>
     </row>
@@ -4403,22 +4403,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C102]</t>
+          <t>MINOR: DSAI [C305]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C303]</t>
+          <t>MINOR: Generative Ai [C304]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C303]</t>
+          <t>MINOR: Cybersecurity [C304]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MINOR: Design [C205]</t>
+          <t>MINOR: Design [C203]</t>
         </is>
       </c>
     </row>
@@ -4478,27 +4478,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Course Name [L407]</t>
+          <t>Course Name</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>L-T-P-S-C [L403]</t>
+          <t>L-T-P-S-C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Term Type [L403]</t>
+          <t>Term Type</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Lectures Hrs [L406]</t>
+          <t>Lectures Hrs</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tutorials Hrs [L407]</t>
+          <t>Tutorials Hrs</t>
         </is>
       </c>
     </row>
@@ -4515,12 +4515,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>3-0-2-0-4 [L405]</t>
+          <t>3-0-2-0-4 [L406]</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Full Sem [L403]</t>
+          <t>Full Sem [L407]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -4530,7 +4530,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0/0 [L404]</t>
+          <t>0/0 [L406]</t>
         </is>
       </c>
     </row>
@@ -4542,27 +4542,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Computer Communication [C305]</t>
+          <t>Computer Communication [C204]</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>3-1-2-0-5 [C202]</t>
+          <t>3-1-2-0-5 [C204]</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Full Sem [C202]</t>
+          <t>Full Sem [C102]</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3/3 [C202]</t>
+          <t>3/3 [C303]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1/1 [C305]</t>
+          <t>1/1 [C203]</t>
         </is>
       </c>
     </row>
@@ -4574,27 +4574,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Algorithms and Data Structures [C305]</t>
+          <t>Algorithms and Data Structures [C102]</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [C202]</t>
+          <t>3-1-0-0-4 [C102]</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Full Sem [C305]</t>
+          <t>Full Sem [C204]</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3/3 [C202]</t>
+          <t>3/3 [C303]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1/1 [C203]</t>
+          <t>1/1 [C102]</t>
         </is>
       </c>
     </row>
@@ -4630,27 +4630,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Course [L403]</t>
+          <t>Course</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Course Code [L403]</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Lecture Slot - Classroom [L404]</t>
+          <t>Lecture Slot - Classroom</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Tutorial Slot - Classroom [L407]</t>
+          <t>Tutorial Slot - Classroom</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>L-T-P-S-C [L407]</t>
+          <t>L-T-P-S-C</t>
         </is>
       </c>
     </row>
@@ -4662,27 +4662,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Parallel computing [L403]</t>
+          <t>Parallel computing</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CS463 [L403]</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [L408], Thu 13:00-14:30 [L404]</t>
+          <t>Tue 13:00-14:30 [C104], Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L407]</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [L407]</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
     </row>
@@ -4694,27 +4694,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Parallel computing [L403]</t>
+          <t>Parallel computing</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CS463 [L403]</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [L408], Thu 13:00-14:30 [L404]</t>
+          <t>Tue 13:00-14:30 [C104], Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L407]</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [L407]</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
     </row>
@@ -4726,27 +4726,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Parallel computing [L403]</t>
+          <t>Parallel computing</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CS463 [L403]</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [L408], Thu 13:00-14:30 [L404]</t>
+          <t>Tue 13:00-14:30 [C104], Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L407]</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [L407]</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
     </row>
@@ -4758,27 +4758,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Parallel computing [L403]</t>
+          <t>Parallel computing</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CS463 [L403]</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [L408], Thu 13:00-14:30 [L404]</t>
+          <t>Tue 13:00-14:30 [C104], Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [L407]</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [L407]</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
     </row>
@@ -4790,27 +4790,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Full Stack Development [L403]</t>
+          <t>Full Stack Development</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>DS359 [L403]</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L402], Wed 15:30-17:00 [L404]</t>
+          <t>Mon 15:30-17:00 [L402], Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [L407]</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [L407]</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
     </row>
@@ -4822,27 +4822,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Full Stack Development [L403]</t>
+          <t>Full Stack Development</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>DS359 [L403]</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L402], Wed 15:30-17:00 [L404]</t>
+          <t>Mon 15:30-17:00 [L402], Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [L407]</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [L407]</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
     </row>
@@ -4854,27 +4854,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Full Stack Development [L403]</t>
+          <t>Full Stack Development</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>DS359 [L403]</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L402], Wed 15:30-17:00 [L404]</t>
+          <t>Mon 15:30-17:00 [L402], Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [L407]</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [L407]</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
     </row>
@@ -4886,27 +4886,27 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Full Stack Development [L403]</t>
+          <t>Full Stack Development</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>DS359 [L403]</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L402], Wed 15:30-17:00 [L404]</t>
+          <t>Mon 15:30-17:00 [L402], Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [L407]</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [L407]</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
     </row>
@@ -4918,27 +4918,27 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Full Stack Development [L403]</t>
+          <t>Full Stack Development</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>DS359 [L403]</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L402], Wed 15:30-17:00 [L404]</t>
+          <t>Mon 15:30-17:00 [L402], Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [L407]</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [L407]</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
     </row>
@@ -4950,27 +4950,27 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Full Stack Development [L403]</t>
+          <t>Full Stack Development</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>DS359 [L403]</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L402], Wed 15:30-17:00 [L404]</t>
+          <t>Mon 15:30-17:00 [L402], Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [L407]</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>3-1-0-0-4 [L407]</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
     </row>
@@ -5052,10 +5052,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -5218,10 +5218,10 @@
         </is>
       </c>
       <c r="D7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E7" t="n">
         <v>1.5</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.3</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -5286,10 +5286,10 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3</v>
+        <v>1.2</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -5456,10 +5456,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>9</v>
+        <v>1.5</v>
       </c>
       <c r="E14" t="n">
-        <v>1.8</v>
+        <v>0.3</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -5490,10 +5490,10 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -5524,10 +5524,10 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -5558,10 +5558,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -5660,10 +5660,10 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -5694,10 +5694,10 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -5762,10 +5762,10 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -5796,10 +5796,10 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -5830,10 +5830,10 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -5864,10 +5864,10 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="E26" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -6048,10 +6048,10 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -6082,10 +6082,10 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -6116,10 +6116,10 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -6150,10 +6150,10 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="E35" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -6184,10 +6184,10 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>42</v>
+        <v>4.5</v>
       </c>
       <c r="E36" t="n">
-        <v>8.4</v>
+        <v>0.9</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -6218,10 +6218,10 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -6246,7 +6246,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P91"/>
+  <dimension ref="A1:P93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6391,7 +6391,7 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -6429,12 +6429,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>DS303</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -6444,7 +6444,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -6453,7 +6453,7 @@
         </is>
       </c>
       <c r="J3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -6463,12 +6463,12 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>DS303</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -6477,7 +6477,7 @@
         </is>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -6501,12 +6501,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>DS302</t>
+          <t>Machine Learning</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="J4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -6540,7 +6540,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>DS302</t>
+          <t>Machine Learning</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -6549,7 +6549,7 @@
         </is>
       </c>
       <c r="P4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -6573,12 +6573,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>DS302</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial)</t>
+          <t>Computer Communication</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -6588,7 +6588,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="J5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -6607,21 +6607,21 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial)</t>
+          <t>Computer Communication</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -6645,12 +6645,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>DS303</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>Algorithms and Data Structures</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -6665,7 +6665,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J6" t="b">
@@ -6679,12 +6679,12 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>Algorithms and Data Structures</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -6712,17 +6712,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Course Name</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -6732,7 +6732,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="J7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -6751,12 +6751,12 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Course Name</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -6765,7 +6765,7 @@
         </is>
       </c>
       <c r="P7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -6784,17 +6784,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Machine Learning</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -6804,7 +6804,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -6823,12 +6823,12 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Machine Learning</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -6856,17 +6856,17 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>DS302</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Computer Communication</t>
+          <t>3-0-2-0-4</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -6876,7 +6876,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -6895,12 +6895,12 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Computer Communication</t>
+          <t>3-0-2-0-4</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -6928,17 +6928,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>DS303</t>
+          <t>DS302</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Algorithms and Data Structures</t>
+          <t>3-1-2-0-5</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -6967,12 +6967,12 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Algorithms and Data Structures</t>
+          <t>3-1-2-0-5</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -7000,17 +7000,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>DS303</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Course</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -7020,16 +7020,16 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -7039,12 +7039,12 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Course</t>
+          <t>3-1-0-0-4</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -7053,7 +7053,7 @@
         </is>
       </c>
       <c r="P11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -7072,7 +7072,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -7082,7 +7082,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -7111,12 +7111,12 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -7144,17 +7144,17 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>DS303</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -7164,7 +7164,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="J13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -7183,12 +7183,12 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>DS303</t>
+          <t>MINOR: Generative Ai</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -7197,7 +7197,7 @@
         </is>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -7216,17 +7216,17 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>DS302</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="J14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -7255,12 +7255,12 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>DS302</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -7269,7 +7269,7 @@
         </is>
       </c>
       <c r="P14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -7288,17 +7288,17 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>DS302</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -7308,16 +7308,16 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -7327,12 +7327,12 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -7341,7 +7341,7 @@
         </is>
       </c>
       <c r="P15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -7360,17 +7360,17 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>DS303</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>DS303 (Tutorial)</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -7399,17 +7399,17 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>DS303 (Tutorial)</t>
+          <t>Full Sem</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P16" t="b">
@@ -7432,17 +7432,17 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -7457,7 +7457,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J17" t="b">
@@ -7471,12 +7471,12 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>MINOR: VLSI</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -7504,17 +7504,17 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
+          <t>DS302 (Lab)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -7533,7 +7533,7 @@
         </is>
       </c>
       <c r="J18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -7543,21 +7543,21 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>L407</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
+          <t>DS302 (Lab)</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Lab</t>
         </is>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -7576,17 +7576,17 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>3-0-2-0-4</t>
+          <t>DS302 (Lab)</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -7596,12 +7596,12 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J19" t="b">
@@ -7615,17 +7615,17 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>3-0-2-0-4</t>
+          <t>DS302 (Lab)</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Lab</t>
         </is>
       </c>
       <c r="P19" t="b">
@@ -7648,17 +7648,17 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>DS302</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>3-1-2-0-5</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -7673,7 +7673,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J20" t="b">
@@ -7687,12 +7687,12 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>3-1-2-0-5</t>
+          <t>MINOR: Cybersecurity</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -7720,17 +7720,17 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>DS303</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -7740,12 +7740,12 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J21" t="b">
@@ -7759,12 +7759,12 @@
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -7792,17 +7792,17 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>DS302</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -7812,7 +7812,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="J22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -7831,12 +7831,12 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -7845,7 +7845,7 @@
         </is>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -7864,17 +7864,17 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>DS303</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -7889,7 +7889,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J23" t="b">
@@ -7903,12 +7903,12 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>3/3</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -7936,17 +7936,17 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -7956,7 +7956,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="J24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -7975,12 +7975,12 @@
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>MINOR: DSAI</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -7989,7 +7989,7 @@
         </is>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -8008,17 +8008,17 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -8047,12 +8047,12 @@
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -8080,36 +8080,36 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Term Type</t>
+          <t>CS307 (Lab)</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -8119,21 +8119,21 @@
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>L208</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Term Type</t>
+          <t>CS307 (Lab)</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Lab</t>
         </is>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -8152,34 +8152,30 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>CS307 (Lab)</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="b">
         <v>0</v>
       </c>
@@ -8191,17 +8187,17 @@
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>CS307 (Lab)</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Lab</t>
         </is>
       </c>
       <c r="P27" t="b">
@@ -8224,17 +8220,17 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>DS302</t>
+          <t>18:30-20:00</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -8249,7 +8245,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J28" t="b">
@@ -8263,12 +8259,12 @@
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>MINOR: Design</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -8296,17 +8292,17 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>DS303</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -8316,7 +8312,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -8335,12 +8331,12 @@
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Full Sem</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -8368,17 +8364,17 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>DS302</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Lecture Slot - Classroom</t>
+          <t>1/1</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -8388,7 +8384,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -8397,7 +8393,7 @@
         </is>
       </c>
       <c r="J30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -8407,12 +8403,12 @@
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Lecture Slot - Classroom</t>
+          <t>1/1</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -8421,7 +8417,7 @@
         </is>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -8440,17 +8436,17 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>DS303</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>1/1</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -8465,7 +8461,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J31" t="b">
@@ -8479,12 +8475,12 @@
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>MINOR: VLSI</t>
+          <t>1/1</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -8512,32 +8508,32 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>DS302 (Lab)</t>
+          <t>DS303</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J32" t="b">
@@ -8545,25 +8541,21 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
+          <t>Global Tracking (from internal map)</t>
         </is>
       </c>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>DS302 (Lab)</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>Lab</t>
-        </is>
-      </c>
+          <t>DS303</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr"/>
       <c r="P32" t="b">
         <v>0</v>
       </c>
@@ -8584,32 +8576,32 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>17:00-18:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>DS302 (Lab)</t>
+          <t>DS302</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J33" t="b">
@@ -8617,25 +8609,21 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
+          <t>Global Tracking (from internal map)</t>
         </is>
       </c>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>DS302 (Lab)</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>Lab</t>
-        </is>
-      </c>
+          <t>DS302</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr"/>
       <c r="P33" t="b">
         <v>0</v>
       </c>
@@ -8656,17 +8644,17 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -8676,7 +8664,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -8689,25 +8677,21 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
+          <t>Global Tracking (from internal map)</t>
         </is>
       </c>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr"/>
       <c r="P34" t="b">
         <v>0</v>
       </c>
@@ -8728,60 +8712,56 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Course Code</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Lectures Hrs</t>
+          <t>DS302 (Tutorial)</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
+          <t>Global Tracking (from internal map)</t>
         </is>
       </c>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Lectures Hrs</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>DS302 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr"/>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -8800,17 +8780,17 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -8820,12 +8800,12 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J36" t="b">
@@ -8833,18 +8813,22 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -8872,17 +8856,17 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>DS302</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -8905,10 +8889,14 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="M37" t="inlineStr">
         <is>
           <t>C202</t>
@@ -8916,7 +8904,7 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -8944,17 +8932,17 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>DS303</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>EC364</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -8969,7 +8957,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J38" t="b">
@@ -8977,18 +8965,22 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>3/3</t>
+          <t>EC364</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -9016,17 +9008,17 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Tutorial Slot - Classroom</t>
+          <t>CS352</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -9036,7 +9028,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -9045,22 +9037,26 @@
         </is>
       </c>
       <c r="J39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Tutorial Slot - Classroom</t>
+          <t>CS352</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -9069,7 +9065,7 @@
         </is>
       </c>
       <c r="P39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -9088,17 +9084,17 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>07:30-09:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -9113,7 +9109,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J40" t="b">
@@ -9121,18 +9117,22 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>MINOR: DSAI</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -9160,17 +9160,17 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>18:30-20:00</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>EC365</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -9185,7 +9185,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J41" t="b">
@@ -9193,18 +9193,22 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>MINOR: Design</t>
+          <t>EC365</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -9232,7 +9236,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -9242,50 +9246,46 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Tutorials Hrs</t>
+          <t>Course Name</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
+          <t>Global Tracking (from internal map)</t>
         </is>
       </c>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Tutorials Hrs</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr"/>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -9304,32 +9304,32 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>Course</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J43" t="b">
@@ -9337,25 +9337,21 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
+          <t>Global Tracking (from internal map)</t>
         </is>
       </c>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>Course</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr"/>
       <c r="P43" t="b">
         <v>0</v>
       </c>
@@ -9376,17 +9372,17 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>DS302</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>1/1</t>
+          <t>Parallel computing</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -9396,7 +9392,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -9409,25 +9405,21 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
+          <t>Global Tracking (from internal map)</t>
         </is>
       </c>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>1/1</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>Parallel computing</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr"/>
       <c r="P44" t="b">
         <v>0</v>
       </c>
@@ -9448,60 +9440,56 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>DS303</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>1/1</t>
+          <t>Full Stack Development</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
+          <t>Global Tracking (from internal map)</t>
         </is>
       </c>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>1/1</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>Full Stack Development</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr"/>
       <c r="P45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -9520,17 +9508,17 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Basket Name</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
+          <t>DS303</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -9540,40 +9528,36 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
+          <t>Global Tracking (from internal map)</t>
         </is>
       </c>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>L-T-P-S-C</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>DS303</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr"/>
       <c r="P46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -9592,17 +9576,17 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>DS302</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -9612,16 +9596,16 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -9631,17 +9615,17 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>CS307</t>
+          <t>DS302</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -9660,17 +9644,17 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial)</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -9680,36 +9664,44 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr"/>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -9728,17 +9720,17 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>CS308</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -9766,17 +9758,17 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>CS308</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -9804,17 +9796,17 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>DS301</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -9829,7 +9821,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J50" t="b">
@@ -9842,17 +9834,17 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>DS301</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -9880,17 +9872,17 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -9905,7 +9897,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J51" t="b">
@@ -9918,17 +9910,17 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -9956,64 +9948,52 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>DS303 (Tutorial)</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>RESEARCH LAB</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>C308</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>CS352</t>
-        </is>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>DS303 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr"/>
       <c r="P52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -10032,7 +10012,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -10042,22 +10022,22 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>DS302 (Lab)</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J53" t="b">
@@ -10068,26 +10048,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>DS302 (Lab)</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr"/>
       <c r="P53" t="b">
         <v>0</v>
       </c>
@@ -10108,17 +10080,17 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>DS303 (Tutorial)</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -10133,7 +10105,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J54" t="b">
@@ -10144,26 +10116,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>EC365</t>
-        </is>
-      </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>DS303 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr"/>
       <c r="P54" t="b">
         <v>0</v>
       </c>
@@ -10184,36 +10148,36 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Parallel computing</t>
+          <t>L-T-P-S-C</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -10223,17 +10187,17 @@
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Parallel computing</t>
+          <t>L-T-P-S-C</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -10252,36 +10216,32 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Full Stack Development</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -10291,17 +10251,17 @@
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Full Stack Development</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -10325,7 +10285,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -10340,12 +10300,12 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J57" t="b">
@@ -10356,14 +10316,10 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -10371,11 +10327,7 @@
           <t>CS463</t>
         </is>
       </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+      <c r="O57" t="inlineStr"/>
       <c r="P57" t="b">
         <v>0</v>
       </c>
@@ -10401,59 +10353,51 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>CS308</t>
-        </is>
-      </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr"/>
       <c r="P58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -10472,64 +10416,56 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>CS307</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="J59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B4</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>DS301</t>
-        </is>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr"/>
       <c r="P59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -10548,17 +10484,17 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -10591,17 +10527,17 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P60" t="b">
@@ -10624,7 +10560,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -10634,7 +10570,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>DS303 (Tutorial)</t>
+          <t>CS308</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -10644,12 +10580,12 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J61" t="b">
@@ -10660,18 +10596,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>DS303 (Tutorial)</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr"/>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
       <c r="P61" t="b">
         <v>0</v>
       </c>
@@ -10692,17 +10636,17 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>DS301</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -10712,7 +10656,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -10721,27 +10665,35 @@
         </is>
       </c>
       <c r="J62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>CS463</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr"/>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
       <c r="P62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -10760,17 +10712,17 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -10780,36 +10732,44 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>DS359</t>
-        </is>
-      </c>
-      <c r="O63" t="inlineStr"/>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
       <c r="P63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -10833,27 +10793,27 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>DS303</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J64" t="b">
@@ -10864,18 +10824,26 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>DS303</t>
-        </is>
-      </c>
-      <c r="O64" t="inlineStr"/>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P64" t="b">
         <v>0</v>
       </c>
@@ -10901,12 +10869,12 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -10934,22 +10902,22 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P65" t="b">
@@ -10977,12 +10945,12 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>EC364</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -10997,7 +10965,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J66" t="b">
@@ -11010,22 +10978,22 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>EC364</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P66" t="b">
@@ -11053,12 +11021,12 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>CS352</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -11073,7 +11041,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J67" t="b">
@@ -11086,22 +11054,22 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>CS352</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P67" t="b">
@@ -11129,12 +11097,12 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>15:30-17:00</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -11162,22 +11130,22 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Tutorial</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P68" t="b">
@@ -11210,7 +11178,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>EC365</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -11243,12 +11211,12 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>EC365</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -11281,27 +11249,27 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>Term Type</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J70" t="b">
@@ -11312,26 +11280,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>EC355</t>
-        </is>
-      </c>
-      <c r="O70" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>Term Type</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr"/>
       <c r="P70" t="b">
         <v>0</v>
       </c>
@@ -11357,29 +11317,25 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>Lecture Slot - Classroom</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="b">
         <v>0</v>
       </c>
@@ -11388,26 +11344,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>EC364</t>
-        </is>
-      </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>Lecture Slot - Classroom</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr"/>
       <c r="P71" t="b">
         <v>0</v>
       </c>
@@ -11433,12 +11381,12 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>Tue 13:00-14:30 [C104], Thu 13:00-14:30</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -11448,7 +11396,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -11464,26 +11412,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>CS352</t>
-        </is>
-      </c>
-      <c r="O72" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>Tue 13:00-14:30 [C104], Thu 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr"/>
       <c r="P72" t="b">
         <v>0</v>
       </c>
@@ -11509,59 +11449,51 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>Mon 15:30-17:00 [L402], Wed 15:30-17:00</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="O73" t="inlineStr">
-        <is>
-          <t>Lecture</t>
-        </is>
-      </c>
+          <t>Mon 15:30-17:00 [L402], Wed 15:30-17:00</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr"/>
       <c r="P73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -11580,17 +11512,17 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -11618,17 +11550,17 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>ELECTIVE_B5</t>
+          <t>ELECTIVE_B4</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>CS463</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
@@ -11656,17 +11588,17 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [L408], Thu 13:00-14:30</t>
+          <t>CS308</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -11676,36 +11608,44 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [L408], Thu 13:00-14:30</t>
-        </is>
-      </c>
-      <c r="O75" t="inlineStr"/>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -11724,17 +11664,17 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L402], Wed 15:30-17:00</t>
+          <t>DS301</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -11744,7 +11684,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -11753,27 +11693,35 @@
         </is>
       </c>
       <c r="J76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [L402], Wed 15:30-17:00</t>
-        </is>
-      </c>
-      <c r="O76" t="inlineStr"/>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
       <c r="P76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -11802,7 +11750,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -11835,12 +11783,12 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>CS463</t>
+          <t>CS366</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -11873,12 +11821,12 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -11906,7 +11854,7 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
@@ -11916,12 +11864,12 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>CS308</t>
+          <t>DS359</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P78" t="b">
@@ -11949,12 +11897,12 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -11982,22 +11930,22 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>C202</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>DS301</t>
+          <t>EC355</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P79" t="b">
@@ -12025,12 +11973,12 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>EC364</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -12045,7 +11993,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J80" t="b">
@@ -12058,22 +12006,22 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>ELECTIVE_B4</t>
+          <t>ELECTIVE_B5</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>CS366</t>
+          <t>EC364</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P80" t="b">
@@ -12106,7 +12054,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>CS352</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -12121,7 +12069,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J81" t="b">
@@ -12139,12 +12087,12 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>DS359</t>
+          <t>CS352</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -12182,7 +12130,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -12197,7 +12145,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J82" t="b">
@@ -12215,12 +12163,12 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>EC355</t>
+          <t>ASD352</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -12258,7 +12206,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>EC365</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -12291,12 +12239,12 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>EC364</t>
+          <t>EC365</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
@@ -12329,27 +12277,27 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>CS352</t>
+          <t>Lectures Hrs</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J84" t="b">
@@ -12360,26 +12308,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>CS352</t>
-        </is>
-      </c>
-      <c r="O84" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>Lectures Hrs</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr"/>
       <c r="P84" t="b">
         <v>0</v>
       </c>
@@ -12405,29 +12345,25 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>ASD352</t>
+          <t>Tutorial Slot - Classroom</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="b">
         <v>0</v>
       </c>
@@ -12436,26 +12372,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>ASD352</t>
-        </is>
-      </c>
-      <c r="O85" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>Tutorial Slot - Classroom</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr"/>
       <c r="P85" t="b">
         <v>0</v>
       </c>
@@ -12481,12 +12409,12 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>ELECTIVE</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>EC365</t>
+          <t>Wed 14:30-15:30</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -12496,7 +12424,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -12512,26 +12440,18 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>EC365</t>
-        </is>
-      </c>
-      <c r="O86" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
+          <t>Wed 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr"/>
       <c r="P86" t="b">
         <v>0</v>
       </c>
@@ -12562,22 +12482,22 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J87" t="b">
@@ -12591,12 +12511,12 @@
       <c r="L87" t="inlineStr"/>
       <c r="M87" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30</t>
+          <t>Thu 14:30-15:30</t>
         </is>
       </c>
       <c r="O87" t="inlineStr"/>
@@ -12620,36 +12540,36 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>CS307 (Lab)</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="J88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -12659,17 +12579,17 @@
       <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>L208</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30</t>
+          <t>CS307 (Lab)</t>
         </is>
       </c>
       <c r="O88" t="inlineStr"/>
       <c r="P88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -12693,7 +12613,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -12703,17 +12623,17 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J89" t="b">
@@ -12727,7 +12647,7 @@
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
@@ -12761,27 +12681,27 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>Course Code</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>CS307 (Lab)</t>
+          <t>Tutorials Hrs</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J90" t="b">
@@ -12795,12 +12715,12 @@
       <c r="L90" t="inlineStr"/>
       <c r="M90" t="inlineStr">
         <is>
-          <t>L106</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>CS307 (Lab)</t>
+          <t>Tutorials Hrs</t>
         </is>
       </c>
       <c r="O90" t="inlineStr"/>
@@ -12829,31 +12749,31 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>ELECTIVE</t>
+          <t>Basket Name</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>L-T-P-S-C</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -12863,17 +12783,153 @@
       <c r="L91" t="inlineStr"/>
       <c r="M91" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>3-1-0-0-4</t>
+          <t>L-T-P-S-C</t>
         </is>
       </c>
       <c r="O91" t="inlineStr"/>
       <c r="P91" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>5</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J92" t="b">
+        <v>0</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>L402</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr"/>
+      <c r="P92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>5</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>DS302 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J93" t="b">
+        <v>0</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>L403</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>DS302 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr"/>
+      <c r="P93" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -12925,7 +12981,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C101, C102, L403</t>
+          <t>C102, C204, L408</t>
         </is>
       </c>
     </row>
@@ -12942,7 +12998,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C102, C104</t>
+          <t>C101, C203, C302</t>
         </is>
       </c>
     </row>
@@ -12959,7 +13015,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C202, C303</t>
+          <t>C104, C204, C304</t>
         </is>
       </c>
     </row>
@@ -12976,7 +13032,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C203, C204, C304</t>
+          <t>C104, C302, C303</t>
         </is>
       </c>
     </row>
@@ -12993,7 +13049,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C104, C204, C305, L403</t>
+          <t>C102, C104, C205, L106</t>
         </is>
       </c>
     </row>
@@ -13010,7 +13066,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C204, C302, C305</t>
+          <t>C102, C104, C202</t>
         </is>
       </c>
     </row>
@@ -13027,7 +13083,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C101, C205, C303</t>
+          <t>C202, C203, C204</t>
         </is>
       </c>
     </row>
@@ -13044,7 +13100,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C102, C303, C304</t>
+          <t>C203, C204, C205</t>
         </is>
       </c>
     </row>
@@ -13061,7 +13117,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C102, C104, C305</t>
+          <t>C303, C304</t>
         </is>
       </c>
     </row>
@@ -13078,7 +13134,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C203, C302, C304</t>
+          <t>C102, C204, C304</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem5_DSAI_timetable.xlsx
+++ b/backend/output_timetables/sem5_DSAI_timetable.xlsx
@@ -11,6 +11,10 @@
     <sheet name="Regular_Timetable" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="PreMid_Timetable" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="PostMid_Timetable" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Section_A" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Classroom_Utilization" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Classroom_Allocation" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Basket_Course_Allocations" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -199,7 +203,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -227,11 +231,55 @@
         <color rgb="00CCCCCC"/>
       </bottom>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="00CCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="00CCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="00CCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="00CCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00CCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="00CCCCCC"/>
+      </right>
+      <top style="thin">
+        <color rgb="00CCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00CCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -326,6 +374,8 @@
     <xf numFmtId="0" fontId="0" fillId="21" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -1282,27 +1332,27 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C304]</t>
+          <t>MINOR: Generative Ai [C002]</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C202]</t>
+          <t>MINOR: Cybersecurity [C003]</t>
         </is>
       </c>
       <c r="D2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C202]</t>
+          <t>MINOR: Design [C003]</t>
         </is>
       </c>
       <c r="E2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C003]</t>
         </is>
       </c>
       <c r="F2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C102]</t>
+          <t>MINOR: DSAI [C001]</t>
         </is>
       </c>
       <c r="G2" s="8" t="n"/>
@@ -1315,17 +1365,17 @@
       </c>
       <c r="B3" s="9" t="inlineStr">
         <is>
-          <t>DS302 [L408]</t>
+          <t>DS302 [L406]</t>
         </is>
       </c>
       <c r="C3" s="9" t="inlineStr">
         <is>
-          <t>DS302 [L408]</t>
-        </is>
-      </c>
-      <c r="D3" s="10" t="inlineStr">
-        <is>
-          <t>DS303 [L408]</t>
+          <t>DS302 [L406]</t>
+        </is>
+      </c>
+      <c r="D3" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
         </is>
       </c>
       <c r="E3" s="8" t="inlineStr">
@@ -1348,12 +1398,12 @@
       </c>
       <c r="B4" s="10" t="inlineStr">
         <is>
-          <t>DS303 [C104]</t>
+          <t>DS303 [C205]</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
         <is>
-          <t>CS307 [C302]</t>
+          <t>CS307 [C205]</t>
         </is>
       </c>
       <c r="D4" s="8" t="inlineStr">
@@ -1414,7 +1464,7 @@
       </c>
       <c r="B6" s="11" t="inlineStr">
         <is>
-          <t>CS307 [C302]</t>
+          <t>CS307 [C205]</t>
         </is>
       </c>
       <c r="C6" s="13" t="inlineStr">
@@ -1422,9 +1472,9 @@
           <t>ELECTIVE_B4</t>
         </is>
       </c>
-      <c r="D6" s="8" t="inlineStr">
-        <is>
-          <t>Free</t>
+      <c r="D6" s="10" t="inlineStr">
+        <is>
+          <t>DS303 [C205]</t>
         </is>
       </c>
       <c r="E6" s="13" t="inlineStr">
@@ -1447,12 +1497,12 @@
       </c>
       <c r="B7" s="9" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial) [C101]</t>
+          <t>DS302 (Tutorial) [C204]</t>
         </is>
       </c>
       <c r="C7" s="10" t="inlineStr">
         <is>
-          <t>DS303 (Tutorial) [C002]</t>
+          <t>DS303 (Tutorial) [C303]</t>
         </is>
       </c>
       <c r="D7" s="13" t="inlineStr">
@@ -1485,7 +1535,7 @@
       </c>
       <c r="C8" s="9" t="inlineStr">
         <is>
-          <t>DS302 (Lab) [L208]</t>
+          <t>DS302 (Lab) [L106]</t>
         </is>
       </c>
       <c r="D8" s="14" t="inlineStr">
@@ -1518,7 +1568,7 @@
       </c>
       <c r="C9" s="9" t="inlineStr">
         <is>
-          <t>DS302 (Lab) [L208]</t>
+          <t>DS302 (Lab) [L106]</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
@@ -1546,27 +1596,27 @@
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C304]</t>
+          <t>MINOR: VLSI [C003]</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C204]</t>
+          <t>MINOR: DSAI [C003]</t>
         </is>
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C304]</t>
+          <t>MINOR: Generative Ai [C003]</t>
         </is>
       </c>
       <c r="E10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C104]</t>
+          <t>MINOR: Cybersecurity [C003]</t>
         </is>
       </c>
       <c r="F10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C302]</t>
+          <t>MINOR: Design [C002]</t>
         </is>
       </c>
       <c r="G10" s="8" t="n"/>
@@ -1595,10 +1645,10 @@
           <t>COURSE INFORMATION</t>
         </is>
       </c>
-      <c r="B13" s="8" t="n"/>
-      <c r="C13" s="8" t="n"/>
-      <c r="D13" s="8" t="n"/>
-      <c r="E13" s="8" t="n"/>
+      <c r="B13" s="32" t="n"/>
+      <c r="C13" s="32" t="n"/>
+      <c r="D13" s="32" t="n"/>
+      <c r="E13" s="33" t="n"/>
       <c r="F13" s="8" t="n"/>
       <c r="G13" s="8" t="n"/>
     </row>
@@ -1608,12 +1658,12 @@
           <t>CORE COURSES</t>
         </is>
       </c>
-      <c r="B14" s="8" t="n"/>
-      <c r="C14" s="8" t="n"/>
-      <c r="D14" s="8" t="n"/>
-      <c r="E14" s="8" t="n"/>
-      <c r="F14" s="8" t="n"/>
-      <c r="G14" s="8" t="n"/>
+      <c r="B14" s="32" t="n"/>
+      <c r="C14" s="32" t="n"/>
+      <c r="D14" s="32" t="n"/>
+      <c r="E14" s="32" t="n"/>
+      <c r="F14" s="32" t="n"/>
+      <c r="G14" s="33" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="17" t="inlineStr">
@@ -1778,11 +1828,11 @@
           <t>ELECTIVE BASKETS</t>
         </is>
       </c>
-      <c r="B20" s="8" t="n"/>
-      <c r="C20" s="8" t="n"/>
-      <c r="D20" s="8" t="n"/>
-      <c r="E20" s="8" t="n"/>
-      <c r="F20" s="8" t="n"/>
+      <c r="B20" s="32" t="n"/>
+      <c r="C20" s="32" t="n"/>
+      <c r="D20" s="32" t="n"/>
+      <c r="E20" s="32" t="n"/>
+      <c r="F20" s="33" t="n"/>
       <c r="G20" s="8" t="n"/>
     </row>
     <row r="21">
@@ -1836,12 +1886,12 @@
       </c>
       <c r="D22" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C102], Thu 13:00-14:30 [C102]</t>
+          <t>Tue 13:00-14:30 [C001], Thu 13:00-14:30 [C004]</t>
         </is>
       </c>
       <c r="E22" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C203]</t>
+          <t>Wed 14:30-15:30 [C004]</t>
         </is>
       </c>
       <c r="F22" s="8" t="inlineStr">
@@ -1869,12 +1919,12 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C104], Thu 13:00-14:30 [C104]</t>
+          <t>Tue 13:00-14:30 [C003], Thu 13:00-14:30 [C002]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C204]</t>
+          <t>Wed 14:30-15:30 [C002]</t>
         </is>
       </c>
       <c r="F23" s="8" t="inlineStr">
@@ -1902,12 +1952,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C302], Thu 13:00-14:30 [C302]</t>
+          <t>Tue 13:00-14:30 [C202], Thu 13:00-14:30 [C001]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C303]</t>
+          <t>Wed 14:30-15:30 [C001]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -1935,12 +1985,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C101], Thu 13:00-14:30 [C304]</t>
+          <t>Tue 13:00-14:30 [C302], Thu 13:00-14:30 [C003]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C102]</t>
+          <t>Wed 14:30-15:30 [C003]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -1968,12 +2018,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C202], Wed 15:30-17:00 [C104]</t>
+          <t>Mon 15:30-17:00 [C001], Wed 15:30-17:00 [C004]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C101]</t>
+          <t>Thu 14:30-15:30 [C004]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -2001,12 +2051,12 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C101], Wed 15:30-17:00 [C302]</t>
+          <t>Mon 15:30-17:00 [C202], Wed 15:30-17:00 [C002]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C202]</t>
+          <t>Thu 14:30-15:30 [C002]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -2034,12 +2084,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C102], Wed 15:30-17:00 [C202]</t>
+          <t>Mon 15:30-17:00 [C302], Wed 15:30-17:00 [C001]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C203]</t>
+          <t>Thu 14:30-15:30 [C001]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -2067,12 +2117,12 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C104], Wed 15:30-17:00 [C203]</t>
+          <t>Mon 15:30-17:00 [C305], Wed 15:30-17:00 [C003]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C204]</t>
+          <t>Thu 14:30-15:30 [C003]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -2100,12 +2150,12 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C302], Wed 15:30-17:00 [C204]</t>
+          <t>Mon 15:30-17:00 [C101], Wed 15:30-17:00 [C203]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C303]</t>
+          <t>Thu 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -2133,12 +2183,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C203], Wed 15:30-17:00 [C303]</t>
+          <t>Mon 15:30-17:00 [C205], Wed 15:30-17:00 [C104]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C305]</t>
+          <t>Thu 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -2222,27 +2272,27 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C304]</t>
+          <t>MINOR: Generative Ai [C002]</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C202]</t>
+          <t>MINOR: Cybersecurity [C003]</t>
         </is>
       </c>
       <c r="D2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C202]</t>
+          <t>MINOR: Design [C003]</t>
         </is>
       </c>
       <c r="E2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C003]</t>
         </is>
       </c>
       <c r="F2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C102]</t>
+          <t>MINOR: DSAI [C001]</t>
         </is>
       </c>
       <c r="G2" s="8" t="n"/>
@@ -2255,17 +2305,17 @@
       </c>
       <c r="B3" s="10" t="inlineStr">
         <is>
-          <t>DS303 [L404]</t>
+          <t>DS303 [L407]</t>
         </is>
       </c>
       <c r="C3" s="10" t="inlineStr">
         <is>
-          <t>DS303 [C104]</t>
+          <t>DS303 [C205]</t>
         </is>
       </c>
       <c r="D3" s="11" t="inlineStr">
         <is>
-          <t>CS307 [C001]</t>
+          <t>CS307 [L408]</t>
         </is>
       </c>
       <c r="E3" s="8" t="inlineStr">
@@ -2288,12 +2338,12 @@
       </c>
       <c r="B4" s="9" t="inlineStr">
         <is>
-          <t>DS302 [L408]</t>
+          <t>DS302 [L406]</t>
         </is>
       </c>
       <c r="C4" s="9" t="inlineStr">
         <is>
-          <t>DS302 [L408]</t>
+          <t>DS302 [L406]</t>
         </is>
       </c>
       <c r="D4" s="8" t="inlineStr">
@@ -2306,9 +2356,9 @@
           <t>Free</t>
         </is>
       </c>
-      <c r="F4" s="11" t="inlineStr">
-        <is>
-          <t>CS307 [C302]</t>
+      <c r="F4" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
         </is>
       </c>
       <c r="G4" s="8" t="n"/>
@@ -2423,24 +2473,24 @@
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="C8" s="8" t="inlineStr">
+      <c r="C8" s="11" t="inlineStr">
+        <is>
+          <t>CS307 [C304]</t>
+        </is>
+      </c>
+      <c r="D8" s="14" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="E8" s="9" t="inlineStr">
+        <is>
+          <t>DS302 (Lab) [L106]</t>
+        </is>
+      </c>
+      <c r="F8" s="8" t="inlineStr">
         <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="D8" s="14" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="E8" s="9" t="inlineStr">
-        <is>
-          <t>DS302 (Lab) [L106]</t>
-        </is>
-      </c>
-      <c r="F8" s="11" t="inlineStr">
-        <is>
-          <t>CS307 (Lab) [L107]</t>
         </is>
       </c>
       <c r="G8" s="8" t="n"/>
@@ -2453,12 +2503,12 @@
       </c>
       <c r="B9" s="9" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial) [C101]</t>
+          <t>DS302 (Tutorial) [C204]</t>
         </is>
       </c>
       <c r="C9" s="10" t="inlineStr">
         <is>
-          <t>DS303 (Tutorial) [C002]</t>
+          <t>DS303 (Tutorial) [C303]</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
@@ -2471,9 +2521,9 @@
           <t>DS302 (Lab) [L106]</t>
         </is>
       </c>
-      <c r="F9" s="11" t="inlineStr">
-        <is>
-          <t>CS307 (Lab) [L107]</t>
+      <c r="F9" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
         </is>
       </c>
       <c r="G9" s="8" t="n"/>
@@ -2486,27 +2536,27 @@
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C304]</t>
+          <t>MINOR: VLSI [C003]</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C204]</t>
+          <t>MINOR: DSAI [C003]</t>
         </is>
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C304]</t>
+          <t>MINOR: Generative Ai [C003]</t>
         </is>
       </c>
       <c r="E10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C104]</t>
+          <t>MINOR: Cybersecurity [C003]</t>
         </is>
       </c>
       <c r="F10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C302]</t>
+          <t>MINOR: Design [C002]</t>
         </is>
       </c>
       <c r="G10" s="8" t="n"/>
@@ -2535,10 +2585,10 @@
           <t>COURSE INFORMATION</t>
         </is>
       </c>
-      <c r="B13" s="8" t="n"/>
-      <c r="C13" s="8" t="n"/>
-      <c r="D13" s="8" t="n"/>
-      <c r="E13" s="8" t="n"/>
+      <c r="B13" s="32" t="n"/>
+      <c r="C13" s="32" t="n"/>
+      <c r="D13" s="32" t="n"/>
+      <c r="E13" s="33" t="n"/>
       <c r="F13" s="8" t="n"/>
       <c r="G13" s="8" t="n"/>
     </row>
@@ -2548,12 +2598,12 @@
           <t>CORE COURSES</t>
         </is>
       </c>
-      <c r="B14" s="8" t="n"/>
-      <c r="C14" s="8" t="n"/>
-      <c r="D14" s="8" t="n"/>
-      <c r="E14" s="8" t="n"/>
-      <c r="F14" s="8" t="n"/>
-      <c r="G14" s="8" t="n"/>
+      <c r="B14" s="32" t="n"/>
+      <c r="C14" s="32" t="n"/>
+      <c r="D14" s="32" t="n"/>
+      <c r="E14" s="32" t="n"/>
+      <c r="F14" s="32" t="n"/>
+      <c r="G14" s="33" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="17" t="inlineStr">
@@ -2718,11 +2768,11 @@
           <t>ELECTIVE BASKETS</t>
         </is>
       </c>
-      <c r="B20" s="8" t="n"/>
-      <c r="C20" s="8" t="n"/>
-      <c r="D20" s="8" t="n"/>
-      <c r="E20" s="8" t="n"/>
-      <c r="F20" s="8" t="n"/>
+      <c r="B20" s="32" t="n"/>
+      <c r="C20" s="32" t="n"/>
+      <c r="D20" s="32" t="n"/>
+      <c r="E20" s="32" t="n"/>
+      <c r="F20" s="33" t="n"/>
       <c r="G20" s="8" t="n"/>
     </row>
     <row r="21">
@@ -2776,12 +2826,12 @@
       </c>
       <c r="D22" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C102], Thu 13:00-14:30 [C102]</t>
+          <t>Tue 13:00-14:30 [C001], Thu 13:00-14:30 [C004]</t>
         </is>
       </c>
       <c r="E22" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C203]</t>
+          <t>Wed 14:30-15:30 [C004]</t>
         </is>
       </c>
       <c r="F22" s="8" t="inlineStr">
@@ -2809,12 +2859,12 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C104], Thu 13:00-14:30 [C104]</t>
+          <t>Tue 13:00-14:30 [C003], Thu 13:00-14:30 [C002]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C204]</t>
+          <t>Wed 14:30-15:30 [C002]</t>
         </is>
       </c>
       <c r="F23" s="8" t="inlineStr">
@@ -2842,12 +2892,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C302], Thu 13:00-14:30 [C302]</t>
+          <t>Tue 13:00-14:30 [C202], Thu 13:00-14:30 [C001]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C303]</t>
+          <t>Wed 14:30-15:30 [C001]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -2875,12 +2925,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C101], Thu 13:00-14:30 [C304]</t>
+          <t>Tue 13:00-14:30 [C302], Thu 13:00-14:30 [C003]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C102]</t>
+          <t>Wed 14:30-15:30 [C003]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -2908,12 +2958,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C202], Wed 15:30-17:00 [C104]</t>
+          <t>Mon 15:30-17:00 [C001], Wed 15:30-17:00 [C004]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C101]</t>
+          <t>Thu 14:30-15:30 [C004]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -2941,12 +2991,12 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C101], Wed 15:30-17:00 [C302]</t>
+          <t>Mon 15:30-17:00 [C202], Wed 15:30-17:00 [C002]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C202]</t>
+          <t>Thu 14:30-15:30 [C002]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -2974,12 +3024,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C102], Wed 15:30-17:00 [C202]</t>
+          <t>Mon 15:30-17:00 [C302], Wed 15:30-17:00 [C001]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C203]</t>
+          <t>Thu 14:30-15:30 [C001]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -3007,12 +3057,12 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C104], Wed 15:30-17:00 [C203]</t>
+          <t>Mon 15:30-17:00 [C305], Wed 15:30-17:00 [C003]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C204]</t>
+          <t>Thu 14:30-15:30 [C003]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -3040,12 +3090,12 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C302], Wed 15:30-17:00 [C204]</t>
+          <t>Mon 15:30-17:00 [C101], Wed 15:30-17:00 [C203]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C303]</t>
+          <t>Thu 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -3073,12 +3123,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C203], Wed 15:30-17:00 [C303]</t>
+          <t>Mon 15:30-17:00 [C205], Wed 15:30-17:00 [C104]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C305]</t>
+          <t>Thu 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -3162,27 +3212,27 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C304]</t>
+          <t>MINOR: Generative Ai [C002]</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C202]</t>
+          <t>MINOR: Cybersecurity [C003]</t>
         </is>
       </c>
       <c r="D2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C202]</t>
+          <t>MINOR: Design [C003]</t>
         </is>
       </c>
       <c r="E2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C101]</t>
+          <t>MINOR: VLSI [C003]</t>
         </is>
       </c>
       <c r="F2" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C102]</t>
+          <t>MINOR: DSAI [C001]</t>
         </is>
       </c>
       <c r="G2" s="8" t="n"/>
@@ -3195,17 +3245,17 @@
       </c>
       <c r="B3" s="10" t="inlineStr">
         <is>
-          <t>DS303 [C104]</t>
+          <t>DS303 [C102]</t>
         </is>
       </c>
       <c r="C3" s="10" t="inlineStr">
         <is>
-          <t>DS303 [C104]</t>
+          <t>DS303 [C101]</t>
         </is>
       </c>
       <c r="D3" s="11" t="inlineStr">
         <is>
-          <t>CS307 [C302]</t>
+          <t>CS307 [C102]</t>
         </is>
       </c>
       <c r="E3" s="8" t="inlineStr">
@@ -3228,12 +3278,12 @@
       </c>
       <c r="B4" s="9" t="inlineStr">
         <is>
-          <t>DS302 [L408]</t>
+          <t>DS302 [L406]</t>
         </is>
       </c>
       <c r="C4" s="9" t="inlineStr">
         <is>
-          <t>DS302 [L408]</t>
+          <t>DS302 [L406]</t>
         </is>
       </c>
       <c r="D4" s="8" t="inlineStr">
@@ -3246,9 +3296,9 @@
           <t>Free</t>
         </is>
       </c>
-      <c r="F4" s="11" t="inlineStr">
-        <is>
-          <t>CS307 [C302]</t>
+      <c r="F4" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
         </is>
       </c>
       <c r="G4" s="8" t="n"/>
@@ -3363,24 +3413,24 @@
           <t>ELECTIVE_B5</t>
         </is>
       </c>
-      <c r="C8" s="8" t="inlineStr">
+      <c r="C8" s="11" t="inlineStr">
+        <is>
+          <t>CS307 [C205]</t>
+        </is>
+      </c>
+      <c r="D8" s="14" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="E8" s="9" t="inlineStr">
+        <is>
+          <t>DS302 (Lab) [L106]</t>
+        </is>
+      </c>
+      <c r="F8" s="8" t="inlineStr">
         <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="D8" s="14" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B5</t>
-        </is>
-      </c>
-      <c r="E8" s="9" t="inlineStr">
-        <is>
-          <t>DS302 (Lab) [L106]</t>
-        </is>
-      </c>
-      <c r="F8" s="11" t="inlineStr">
-        <is>
-          <t>CS307 (Lab) [L107]</t>
         </is>
       </c>
       <c r="G8" s="8" t="n"/>
@@ -3393,12 +3443,12 @@
       </c>
       <c r="B9" s="9" t="inlineStr">
         <is>
-          <t>DS302 (Tutorial) [C101]</t>
+          <t>DS302 (Tutorial) [C204]</t>
         </is>
       </c>
       <c r="C9" s="10" t="inlineStr">
         <is>
-          <t>DS303 (Tutorial) [C002]</t>
+          <t>DS303 (Tutorial) [C303]</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
@@ -3411,9 +3461,9 @@
           <t>DS302 (Lab) [L106]</t>
         </is>
       </c>
-      <c r="F9" s="11" t="inlineStr">
-        <is>
-          <t>CS307 (Lab) [L107]</t>
+      <c r="F9" s="8" t="inlineStr">
+        <is>
+          <t>Free</t>
         </is>
       </c>
       <c r="G9" s="8" t="n"/>
@@ -3426,27 +3476,27 @@
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: VLSI [C304]</t>
+          <t>MINOR: VLSI [C003]</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: DSAI [C204]</t>
+          <t>MINOR: DSAI [C003]</t>
         </is>
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Generative Ai [C304]</t>
+          <t>MINOR: Generative Ai [C003]</t>
         </is>
       </c>
       <c r="E10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Cybersecurity [C104]</t>
+          <t>MINOR: Cybersecurity [C003]</t>
         </is>
       </c>
       <c r="F10" s="8" t="inlineStr">
         <is>
-          <t>MINOR: Design [C302]</t>
+          <t>MINOR: Design [C002]</t>
         </is>
       </c>
       <c r="G10" s="8" t="n"/>
@@ -3475,10 +3525,10 @@
           <t>COURSE INFORMATION</t>
         </is>
       </c>
-      <c r="B13" s="8" t="n"/>
-      <c r="C13" s="8" t="n"/>
-      <c r="D13" s="8" t="n"/>
-      <c r="E13" s="8" t="n"/>
+      <c r="B13" s="32" t="n"/>
+      <c r="C13" s="32" t="n"/>
+      <c r="D13" s="32" t="n"/>
+      <c r="E13" s="33" t="n"/>
       <c r="F13" s="8" t="n"/>
       <c r="G13" s="8" t="n"/>
     </row>
@@ -3488,12 +3538,12 @@
           <t>CORE COURSES</t>
         </is>
       </c>
-      <c r="B14" s="8" t="n"/>
-      <c r="C14" s="8" t="n"/>
-      <c r="D14" s="8" t="n"/>
-      <c r="E14" s="8" t="n"/>
-      <c r="F14" s="8" t="n"/>
-      <c r="G14" s="8" t="n"/>
+      <c r="B14" s="32" t="n"/>
+      <c r="C14" s="32" t="n"/>
+      <c r="D14" s="32" t="n"/>
+      <c r="E14" s="32" t="n"/>
+      <c r="F14" s="32" t="n"/>
+      <c r="G14" s="33" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="17" t="inlineStr">
@@ -3658,11 +3708,11 @@
           <t>ELECTIVE BASKETS</t>
         </is>
       </c>
-      <c r="B20" s="8" t="n"/>
-      <c r="C20" s="8" t="n"/>
-      <c r="D20" s="8" t="n"/>
-      <c r="E20" s="8" t="n"/>
-      <c r="F20" s="8" t="n"/>
+      <c r="B20" s="32" t="n"/>
+      <c r="C20" s="32" t="n"/>
+      <c r="D20" s="32" t="n"/>
+      <c r="E20" s="32" t="n"/>
+      <c r="F20" s="33" t="n"/>
       <c r="G20" s="8" t="n"/>
     </row>
     <row r="21">
@@ -3716,12 +3766,12 @@
       </c>
       <c r="D22" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C102], Thu 13:00-14:30 [C102]</t>
+          <t>Tue 13:00-14:30 [C001], Thu 13:00-14:30 [C004]</t>
         </is>
       </c>
       <c r="E22" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C203]</t>
+          <t>Wed 14:30-15:30 [C004]</t>
         </is>
       </c>
       <c r="F22" s="8" t="inlineStr">
@@ -3749,12 +3799,12 @@
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C104], Thu 13:00-14:30 [C104]</t>
+          <t>Tue 13:00-14:30 [C003], Thu 13:00-14:30 [C002]</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C204]</t>
+          <t>Wed 14:30-15:30 [C002]</t>
         </is>
       </c>
       <c r="F23" s="8" t="inlineStr">
@@ -3782,12 +3832,12 @@
       </c>
       <c r="D24" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C302], Thu 13:00-14:30 [C302]</t>
+          <t>Tue 13:00-14:30 [C202], Thu 13:00-14:30 [C001]</t>
         </is>
       </c>
       <c r="E24" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C303]</t>
+          <t>Wed 14:30-15:30 [C001]</t>
         </is>
       </c>
       <c r="F24" s="8" t="inlineStr">
@@ -3815,12 +3865,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>Tue 13:00-14:30 [C101], Thu 13:00-14:30 [C304]</t>
+          <t>Tue 13:00-14:30 [C302], Thu 13:00-14:30 [C003]</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>Wed 14:30-15:30 [C102]</t>
+          <t>Wed 14:30-15:30 [C003]</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
@@ -3848,12 +3898,12 @@
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C202], Wed 15:30-17:00 [C104]</t>
+          <t>Mon 15:30-17:00 [C001], Wed 15:30-17:00 [C004]</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C101]</t>
+          <t>Thu 14:30-15:30 [C004]</t>
         </is>
       </c>
       <c r="F26" s="8" t="inlineStr">
@@ -3881,12 +3931,12 @@
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C101], Wed 15:30-17:00 [C302]</t>
+          <t>Mon 15:30-17:00 [C202], Wed 15:30-17:00 [C002]</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C202]</t>
+          <t>Thu 14:30-15:30 [C002]</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
@@ -3914,12 +3964,12 @@
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C102], Wed 15:30-17:00 [C202]</t>
+          <t>Mon 15:30-17:00 [C302], Wed 15:30-17:00 [C001]</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C203]</t>
+          <t>Thu 14:30-15:30 [C001]</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
@@ -3947,12 +3997,12 @@
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C104], Wed 15:30-17:00 [C203]</t>
+          <t>Mon 15:30-17:00 [C305], Wed 15:30-17:00 [C003]</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C204]</t>
+          <t>Thu 14:30-15:30 [C003]</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
@@ -3980,12 +4030,12 @@
       </c>
       <c r="D30" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C302], Wed 15:30-17:00 [C204]</t>
+          <t>Mon 15:30-17:00 [C101], Wed 15:30-17:00 [C203]</t>
         </is>
       </c>
       <c r="E30" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C303]</t>
+          <t>Thu 14:30-15:30 [C102]</t>
         </is>
       </c>
       <c r="F30" s="8" t="inlineStr">
@@ -4013,12 +4063,12 @@
       </c>
       <c r="D31" s="8" t="inlineStr">
         <is>
-          <t>Mon 15:30-17:00 [C203], Wed 15:30-17:00 [C303]</t>
+          <t>Mon 15:30-17:00 [C205], Wed 15:30-17:00 [C104]</t>
         </is>
       </c>
       <c r="E31" s="8" t="inlineStr">
         <is>
-          <t>Thu 14:30-15:30 [C305]</t>
+          <t>Thu 14:30-15:30 [C202]</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
@@ -4036,4 +4086,7971 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>07:30-09:00</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MINOR: Generative Ai [C002]</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>MINOR: Cybersecurity [C003]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>MINOR: Design [C003]</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>MINOR: VLSI [C003]</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>MINOR: DSAI [C001]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>DS303</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>DS303 [L107]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>CS307 [L206]</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>DS302 [L405]</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>DS302 [C307]</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>12:00-13:00</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>LUNCH BREAK</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>CS307 [L404]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>DS302 (Lab) [L106]</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>DS302 (Tutorial) [C001]</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>DS303 (Tutorial) [C305]</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>DS302 (Lab) [L408]</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>MINOR: VLSI [C003]</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>MINOR: DSAI [C003]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>MINOR: Generative Ai [C003]</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>MINOR: Cybersecurity [C003]</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>MINOR: Design [C002]</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>COURSE INFORMATION</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>CORE COURSES</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>L-T-P-S-C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Term Type</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Lectures Hrs</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Tutorials Hrs</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Machine Learning [C101]</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>3-0-2-0-4 [C303]</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Full Sem [C304]</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>3/3 [C304]</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0/0 [C302]</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>DS302</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Computer Communication [C203]</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>3-1-2-0-5 [C204]</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Full Sem [C204]</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>3/3 [C303]</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1/1 [C101]</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>DS303</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Algorithms and Data Structures [C104]</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4 [C102]</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Full Sem [C205]</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>3/3 [C104]</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1/1 [C203]</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>ELECTIVE BASKETS</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Course</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Lecture Slot - Classroom</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Tutorial Slot - Classroom</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>L-T-P-S-C</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Parallel computing</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Tue 13:00-14:30 [C001], Thu 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Wed 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Parallel computing</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Tue 13:00-14:30 [C001], Thu 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Wed 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Parallel computing</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Tue 13:00-14:30 [C001], Thu 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Wed 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Parallel computing</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Tue 13:00-14:30 [C001], Thu 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Wed 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Full Stack Development</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Mon 15:30-17:00 [C001], Wed 15:30-17:00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Thu 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Full Stack Development</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Mon 15:30-17:00 [C001], Wed 15:30-17:00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Thu 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Full Stack Development</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Mon 15:30-17:00 [C001], Wed 15:30-17:00</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Thu 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Full Stack Development</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Mon 15:30-17:00 [C001], Wed 15:30-17:00</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Thu 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Full Stack Development</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Mon 15:30-17:00 [C001], Wed 15:30-17:00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Thu 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Full Stack Development</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Mon 15:30-17:00 [C001], Wed 15:30-17:00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Thu 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Room Number</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Weekly Hours (Timetable)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Daily Avg Hours (Timetable)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Exam Sessions</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Utilization Rate (%)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>18</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>C103</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>library</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Computers, Books</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>3</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>L105</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>L106</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>L107</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>C201</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Examination room</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Tables, Chairs</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>3</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>3</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>L206</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>L207</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>L208</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>3</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>C301</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Physics Lab</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Physics Equipment</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>3</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>3</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>C306</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>EMPTY</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>C307</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>RESEARCH LAB</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>C308</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>RESEARCH LAB</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>L401</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>EMPTY</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>nil</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>L402</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>L403</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>L404</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>L405</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>L406</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P77"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Branch</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Section</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Course</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Room Type</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Capacity</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Facilities</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Conflict</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Allocation Type</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Basket</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>room</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>course</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>session_type</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>conflict</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>07:30-09:00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>MINOR: Generative Ai</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>MINOR: Generative Ai</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>DS302</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>L405</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>DS302</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>DS302 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>DS302 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>MINOR: VLSI</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>MINOR: VLSI</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Machine Learning</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Machine Learning</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>DS302</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Computer Communication</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Computer Communication</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>DS303</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Algorithms and Data Structures</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Algorithms and Data Structures</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>07:30-09:00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>MINOR: Cybersecurity</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>MINOR: Cybersecurity</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>DS303</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="J10" t="b">
+        <v>1</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>L107</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>DS303</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>DS302</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>RESEARCH LAB</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="b">
+        <v>1</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>C307</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>DS302</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>L404</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>DS303 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>DS303 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>MINOR: DSAI</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J14" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>MINOR: DSAI</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3-0-2-0-4</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>3-0-2-0-4</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>DS302</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3-1-2-0-5</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J16" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>3-1-2-0-5</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>DS303</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J17" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>07:30-09:00</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>MINOR: Design</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J18" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>MINOR: Design</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Hardware Lab</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+      <c r="J19" t="b">
+        <v>1</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>L206</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>MINOR: Generative Ai</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J20" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>MINOR: Generative Ai</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>5</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Full Sem</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J21" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Full Sem</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>5</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>DS302</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Full Sem</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J22" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>C204</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Full Sem</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>5</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>DS303</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Full Sem</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J23" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Full Sem</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>5</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>07:30-09:00</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>MINOR: VLSI</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J24" t="b">
+        <v>0</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>MINOR: VLSI</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>5</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>DS302 (Lab)</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="J25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>L106</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>DS302 (Lab)</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>Lab</t>
+        </is>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>5</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>17:00-18:00</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>DS302 (Lab)</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J26" t="b">
+        <v>0</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>DS302 (Lab)</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>Lab</t>
+        </is>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>5</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>MINOR: Cybersecurity</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J27" t="b">
+        <v>0</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>MINOR: Cybersecurity</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>5</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J28" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>5</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>DS302</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>5</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>DS303</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J30" t="b">
+        <v>0</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>3/3</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>5</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>07:30-09:00</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>MINOR: DSAI</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="b">
+        <v>0</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>MINOR: DSAI</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>5</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>MINOR: Design</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J32" t="b">
+        <v>0</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>MINOR: Design</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>5</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J33" t="b">
+        <v>0</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>5</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>DS302</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J34" t="b">
+        <v>0</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>5</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>DS303</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J35" t="b">
+        <v>0</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Global Tracking</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>1/1</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>5</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>09:00-10:30</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>DS303</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="J36" t="b">
+        <v>1</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>L106</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>DS303</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>5</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J37" t="b">
+        <v>0</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>L404</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>CS307</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>5</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>DS302 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J38" t="b">
+        <v>0</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>C303</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>DS302 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>5</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="b">
+        <v>0</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>5</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J40" t="b">
+        <v>0</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>5</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J41" t="b">
+        <v>0</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>5</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J42" t="b">
+        <v>0</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>5</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J43" t="b">
+        <v>0</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>C101</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>5</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J44" t="b">
+        <v>0</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>C205</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>5</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Parallel computing</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="J45" t="b">
+        <v>1</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>L106</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>Parallel computing</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>5</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="b">
+        <v>0</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>5</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J47" t="b">
+        <v>0</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>5</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J48" t="b">
+        <v>0</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>5</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J49" t="b">
+        <v>0</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>5</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>DS303 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J50" t="b">
+        <v>0</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>C305</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>DS303 (Tutorial)</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>5</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="J51" t="b">
+        <v>1</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>L106</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>5</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>DS303</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J52" t="b">
+        <v>0</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>L406</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>DS303</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>5</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J53" t="b">
+        <v>0</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>5</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J54" t="b">
+        <v>0</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>5</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="b">
+        <v>0</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>5</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J56" t="b">
+        <v>0</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>5</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J57" t="b">
+        <v>0</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>5</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J58" t="b">
+        <v>0</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>5</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="b">
+        <v>0</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>5</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J60" t="b">
+        <v>0</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>5</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J61" t="b">
+        <v>0</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>C203</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>5</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J62" t="b">
+        <v>0</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>5</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Tue 13:00-14:30 [C001], Thu 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="J63" t="b">
+        <v>1</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>L207</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>Tue 13:00-14:30 [C001], Thu 13:00-14:30</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>5</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J64" t="b">
+        <v>0</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>5</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J65" t="b">
+        <v>0</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>5</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="b">
+        <v>0</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>5</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J67" t="b">
+        <v>0</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>5</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J68" t="b">
+        <v>0</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>5</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J69" t="b">
+        <v>0</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>C002</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>5</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="b">
+        <v>0</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>C001</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>5</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>large classroom</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J71" t="b">
+        <v>0</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>5</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J72" t="b">
+        <v>0</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>C102</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>5</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J73" t="b">
+        <v>0</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>C202</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>5</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Wed 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="J74" t="b">
+        <v>1</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>L207</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>Wed 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>5</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>13:00-14:30</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>CS307 (Lab)</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="J75" t="b">
+        <v>0</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>L107</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>CS307 (Lab)</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>5</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>14:30-15:30</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>CS307 (Lab)</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="J76" t="b">
+        <v>0</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>L107</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>CS307 (Lab)</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>5</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>ELECTIVE</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Software Lab</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="J77" t="b">
+        <v>1</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>L106</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>3-1-0-0-4</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Basket Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Allocated Rooms</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>CS463</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>C001, C004, L106</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CS308</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>C002, C003</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>DS301</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>C001, C202</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CS366</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>C003, C302</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>DS359</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>C001, C004</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>EC355</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>C002, C202</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>EC364</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>C001, C302</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CS352</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>C003, C305</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ASD352</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>C101, C102, C203</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B5</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>EC365</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>C104, C202, C205</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>